--- a/rc/resources/apps/greenfunds/greenfunds.xlsx
+++ b/rc/resources/apps/greenfunds/greenfunds.xlsx
@@ -159,1349 +159,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="515">
   <si>
-    <t>http://psgs.usf.edu/usf-office-of-sustainability/green-energy-fund/</t>
-  </si>
-  <si>
-    <t>Chattanooga</t>
-  </si>
-  <si>
-    <t>http://www.utc.edu/Administration/Bursar/fees.php</t>
-  </si>
-  <si>
-    <t>Knoxville</t>
-  </si>
-  <si>
-    <t>Student Environmental Initiatives Fund</t>
-  </si>
-  <si>
-    <t>http://environment.utk.edu/fees.html</t>
-  </si>
-  <si>
-    <t>UT- Austin Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/sustainability/greenfee.php</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>http://www.utsa.edu/fiscalservices/TuitionFeeDocs/summaryDescSpring2011.pdf</t>
-  </si>
-  <si>
-    <t>El Paso</t>
-  </si>
-  <si>
-    <t>University of Utah</t>
-  </si>
-  <si>
-    <t>Salt Lake City</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>http://www.coastal.edu/sustain/</t>
+    <t>https://depts.bellevuecollege.edu/sustainability/what-you-can-do/student-environmental-sustainability-fund-sesf-2/</t>
+  </si>
+  <si>
+    <t>ico</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.wmich.edu/sustainability/index.html</t>
-  </si>
-  <si>
-    <t>Gunnison</t>
-  </si>
-  <si>
-    <t>Cleaner Energy Technologies</t>
-  </si>
-  <si>
-    <t>http://sustainability.illinois.edu/ssc/</t>
-  </si>
-  <si>
-    <t>Sustainable Campus Environmental Fee</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Renewable Energy and Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.ku.edu/SEAB/</t>
-  </si>
-  <si>
-    <t>Environmental Improvement: Recycling Fee</t>
-  </si>
-  <si>
-    <t>http://www.recycle.ku.edu/about_us.shtml</t>
-  </si>
-  <si>
-    <t>University of Kentucky</t>
-  </si>
-  <si>
-    <t>Lexington</t>
-  </si>
-  <si>
-    <t>Environmental Stewardship Fee</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.uky.edu/ESF</t>
-  </si>
-  <si>
-    <t>University of Maryland, College Park</t>
-  </si>
-  <si>
-    <t>College Park</t>
-  </si>
-  <si>
-    <t>University Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.umd.edu/content/about/fund_faq.php</t>
-  </si>
-  <si>
-    <t>University of Memphis</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Sustainable Campus Fee</t>
-  </si>
-  <si>
-    <t>Eau Claire</t>
-  </si>
-  <si>
-    <t>http://www.uwec.edu/StudentSenate/commissions/eec/FundingInfo.htm</t>
-  </si>
-  <si>
-    <t>Green Bay</t>
-  </si>
-  <si>
-    <t>La Crosse</t>
-  </si>
-  <si>
-    <t>http://www.uwlax.edu/sustainability/html/green-fund.htm</t>
-  </si>
-  <si>
-    <t>University of Wyoming</t>
-  </si>
-  <si>
-    <t>Laramie</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>Recycling Student Fee</t>
-  </si>
-  <si>
-    <t>http://www.umt.edu/greeningum/KRELF/default.aspx</t>
-  </si>
-  <si>
-    <t>University of Montevallo</t>
-  </si>
-  <si>
-    <t>Montevallo</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>The Green Fund</t>
-  </si>
-  <si>
-    <t>http://www.montevallo.edu/sustainability/green%20fund.shtm</t>
-  </si>
-  <si>
-    <t>University of Nevada, Las Vegas</t>
-  </si>
-  <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>Rebel Recycling Fee</t>
-  </si>
-  <si>
-    <t>http://facilities.unlv.edu/recycling/history.html</t>
-  </si>
-  <si>
-    <t># of Student Green Funds</t>
-  </si>
-  <si>
-    <t>Student Green 
-Funds</t>
-  </si>
-  <si>
-    <t>Alumni &amp; Non-Student Fee 
-Green Funds</t>
-  </si>
-  <si>
-    <t>http://www.western.edu/student-life/sustainability/sustainability/?searchterm=sustainability</t>
-  </si>
-  <si>
-    <t>Western Washington University</t>
-  </si>
-  <si>
-    <t>Bellingham</t>
-  </si>
-  <si>
-    <t>http://www.wwu.edu/sfs/StudentAccounts/sa_tuitionfees.shtml</t>
-  </si>
-  <si>
-    <t>Wilfrid Laurier University</t>
-  </si>
-  <si>
-    <t>Waterloo</t>
-  </si>
-  <si>
-    <t>http://www.wlu.ca/homepage.php?grp_id=12304</t>
-  </si>
-  <si>
-    <t>Young Harris College</t>
-  </si>
-  <si>
-    <t>Young Harris</t>
-  </si>
-  <si>
-    <t>SGA Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.yhc.edu/about/sustainability/green-fee-application</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>University of South Florida</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>http://cgi.uncc.edu/</t>
-  </si>
-  <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>Denton</t>
-  </si>
-  <si>
-    <t>We Mean Green Fund</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>http://sustainability.uoregon.edu/office-sustainability/student-sustainability-fund</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Pitt Green Fund</t>
-  </si>
-  <si>
-    <t>http://pittgreenfund.com/</t>
-  </si>
-  <si>
-    <t>Berkeley</t>
-  </si>
-  <si>
-    <t>http://tgif.berkeley.edu/</t>
-  </si>
-  <si>
-    <t>University of California, Irvine</t>
-  </si>
-  <si>
-    <t>Irvine</t>
-  </si>
-  <si>
-    <t>http://www.asuci.uci.edu/tgif/</t>
-  </si>
-  <si>
-    <t>University of California, Los Angeles</t>
-  </si>
-  <si>
-    <t>http://tgif.ucla.edu/index.php</t>
-  </si>
-  <si>
-    <t>University of California, Riverside</t>
-  </si>
-  <si>
-    <t>Riverside</t>
-  </si>
-  <si>
-    <t>The Green Action Plan Fund</t>
-  </si>
-  <si>
-    <t>http://www.asucr.ucr.edu/gcap.html</t>
-  </si>
-  <si>
-    <t>University of California, San Diego</t>
-  </si>
-  <si>
-    <t>La Jolla</t>
-  </si>
-  <si>
-    <t>http://sustainabilityresourcecenter.ucsd.edu/green-fund/about-tgif/</t>
-  </si>
-  <si>
-    <t>University of California, Santa Barbara</t>
-  </si>
-  <si>
-    <t>Santa Barbara</t>
-  </si>
-  <si>
-    <t>http://sustainability.ucsb.edu/tgif/index.php</t>
-  </si>
-  <si>
-    <t>Coastal Fund</t>
-  </si>
-  <si>
-    <t>$5.25/$3.00</t>
-  </si>
-  <si>
-    <t>http://coastalfund.as.ucsb.edu/</t>
-  </si>
-  <si>
-    <t>University of California, Santa Cruz</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Student Campus Initiative Fund (SCIF)</t>
-  </si>
-  <si>
-    <t>www.sustainability.utah.edu/SCIF</t>
-  </si>
-  <si>
-    <t>Burlington</t>
-  </si>
-  <si>
-    <t>Clean Energy Fund</t>
-  </si>
-  <si>
-    <t>http://www.uvm.edu/~sustain/?Page=cef/cleanenergy.html&amp;SM=cef/CEFmenu.html</t>
-  </si>
-  <si>
-    <t>University of Washington, Seattle</t>
-  </si>
-  <si>
-    <t>http://csf.washington.edu</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>http://www.uccs.edu/~sustain/solar_fee.html</t>
-  </si>
-  <si>
-    <t>Boulder</t>
-  </si>
-  <si>
-    <t>Environmental Center</t>
-  </si>
-  <si>
-    <t>http://ecenter.colorado.edu/greening-cu/sustainable-cu</t>
-  </si>
-  <si>
-    <t>Student Bus and Bike Programs</t>
-  </si>
-  <si>
-    <t>Capital Construction Fee</t>
-  </si>
-  <si>
-    <t>Environmental Improvement Initiative/Sustainable CU</t>
-  </si>
-  <si>
-    <t>Utah State University</t>
-  </si>
-  <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>Blue Goes Green Student Grant Program</t>
-  </si>
-  <si>
-    <t>http://sustainability.usu.edu/</t>
-  </si>
-  <si>
-    <t>Warren Wilson College</t>
-  </si>
-  <si>
-    <t>Ashville</t>
-  </si>
-  <si>
-    <t>Pullman</t>
-  </si>
-  <si>
-    <t>Cougar Green Fund</t>
-  </si>
-  <si>
-    <t>http://aswsuetf.wordpress.com/</t>
-  </si>
-  <si>
-    <t>Wesleyan University</t>
-  </si>
-  <si>
-    <t>Middletown</t>
-  </si>
-  <si>
-    <t>http://www.wesleyan.edu/finance/financeDept/student/tuitionAndFees.html</t>
-  </si>
-  <si>
-    <t>Western Michigan University</t>
-  </si>
-  <si>
-    <t>Kalamazoo</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Renewable Energy and Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://asoc.oxy.edu/asoc/sustainability.htm</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
-    <t>http://sustainability.uga.edu/about/funding/</t>
-  </si>
-  <si>
-    <t>University of Guelph</t>
-  </si>
-  <si>
-    <t>Guelph</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>Energy Retrofit Fund</t>
-  </si>
-  <si>
-    <t>http://www.pr.uoguelph.ca/sustain/energy/ecwg.htm</t>
-  </si>
-  <si>
-    <t>University of Idaho</t>
-  </si>
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>UI Sustainability Center fee</t>
-  </si>
-  <si>
-    <t>http://www.uidaho.edu/sustainability/uisustainabilitycenter/AbouttheUISC</t>
-  </si>
-  <si>
-    <t>University of Illinois at Chicago</t>
-  </si>
-  <si>
-    <t>Mandatory &amp; 
-refundable</t>
-  </si>
-  <si>
-    <t>http://www.uic.edu/sustainability/resources/2011.GreenFeeProposal.pdf</t>
-  </si>
-  <si>
-    <t>Champaign</t>
-  </si>
-  <si>
-    <t>The Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Rice Endowment for Sustainable Energy Technology (RESET)</t>
-  </si>
-  <si>
-    <t>http://reset.blogs.rice.edu/</t>
-  </si>
-  <si>
-    <t>San Diego State University</t>
-  </si>
-  <si>
-    <t>Enhance, Evolve, Innovate</t>
-  </si>
-  <si>
-    <t>http://as.sdsu.edu/govt/update.html</t>
-  </si>
-  <si>
-    <t>Sewanee</t>
-  </si>
-  <si>
-    <t>Renewable Energy Resolution</t>
-  </si>
-  <si>
-    <t>Carbondale</t>
-  </si>
-  <si>
-    <t>http://sustainability.siu.edu/</t>
-  </si>
-  <si>
-    <t>Southern Oregon University</t>
-  </si>
-  <si>
-    <t>Green Energy Fee</t>
-  </si>
-  <si>
-    <t>http://www.sou.edu/sustainable/</t>
-  </si>
-  <si>
-    <t>St. Mary's College of Maryland</t>
-  </si>
-  <si>
-    <t>St. Mary's City</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Green Energy Allocation Fund</t>
-  </si>
-  <si>
-    <t>http://www.memphis.edu/bluegoesgreen/greenfee.php</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Student Sustainability Initiatives Funds</t>
-  </si>
-  <si>
-    <t>http://environmentalleadership.missouri.edu/about/funding/</t>
-  </si>
-  <si>
-    <t>University of Minnesota, Crookston</t>
-  </si>
-  <si>
-    <t>Crookston</t>
-  </si>
-  <si>
-    <t>University of Montana</t>
-  </si>
-  <si>
-    <t>Missoula</t>
-  </si>
-  <si>
-    <t>Kless Revolving Energy Loan Fund</t>
-  </si>
-  <si>
-    <t>http://www.tntech.edu/bursar/otherfees/</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t>College Station</t>
-  </si>
-  <si>
-    <t>Aggie Green Fund</t>
-  </si>
-  <si>
-    <t>http://greenfund.tamu.edu</t>
-  </si>
-  <si>
-    <t>Texas State University, San Marcos</t>
-  </si>
-  <si>
-    <t>San Marcos</t>
-  </si>
-  <si>
-    <t>Environmental Service Fee</t>
-  </si>
-  <si>
-    <t>http://www.txstate.edu/esc/</t>
-  </si>
-  <si>
-    <t>Union College</t>
-  </si>
-  <si>
-    <t>Schenectady</t>
-  </si>
-  <si>
-    <t>Union Green Fee Initiative</t>
-  </si>
-  <si>
-    <t>University of North Carolina at Chapel Hill</t>
-  </si>
-  <si>
-    <t>Chapel Hill</t>
-  </si>
-  <si>
-    <t>Renewable Energy Fee</t>
-  </si>
-  <si>
-    <t>http://respc.unc.edu/</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Charlotte Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>Knox College</t>
-  </si>
-  <si>
-    <t>Galesburg</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>http://www.knox.edu/about-knox/we-are-knox/our-future/sustainability-at-knox-college/student-sustainability-fund.html</t>
-  </si>
-  <si>
-    <t>Lewis &amp; Clark College</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>Green Fee Fund</t>
-  </si>
-  <si>
-    <t>http://www.lclark.edu/about/sustainability/campus/green_fee/</t>
-  </si>
-  <si>
-    <t>Marshall University</t>
-  </si>
-  <si>
-    <t>Huntington</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>Student Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.concordy.com/article/807-u/april-21-2011/unions-green-fee/</t>
-  </si>
-  <si>
-    <t>Fairbanks</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Student Initiative for Renewable Energy Now 
-(SIREN) Fund</t>
-  </si>
-  <si>
-    <t>http://www.uaf.edu/sustainability/rise/</t>
-  </si>
-  <si>
-    <t>Tucson</t>
-  </si>
-  <si>
-    <t>http://portal.environment.arizona.edu/campus-sustainability/green-fund
-http://www.studentaffairs.arizona.edu/greenfund/apply_details_mini.php</t>
-  </si>
-  <si>
-    <t>Vancouver</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>AMS Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://amssustainability.ca/</t>
-  </si>
-  <si>
-    <t>University of California, Berkeley</t>
-  </si>
-  <si>
-    <t>http://www.mtsu.edu/sga/cleanenergy.shtml</t>
-  </si>
-  <si>
-    <t>Moorhead</t>
-  </si>
-  <si>
-    <t>http://web.mnstate.edu/sci/</t>
-  </si>
-  <si>
-    <t>Mississippi State University</t>
-  </si>
-  <si>
-    <t>Mississippi State</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>$5-$100</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.msstate.edu/greenfund/</t>
-  </si>
-  <si>
-    <t>Bozeman</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>ASMSU Student Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://www.montana.edu/greenasmsu/RecyclingFAQ.html</t>
-  </si>
-  <si>
-    <t>Mount Allison University</t>
-  </si>
-  <si>
-    <t>Sackville</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>offset/reduce GHGs</t>
-  </si>
-  <si>
-    <t>http://sac.mta.ca/index.php?option=com_content&amp;view=article&amp;id=240&amp;Itemid=270</t>
-  </si>
-  <si>
-    <t>New College of Florida</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Programs Fee</t>
-  </si>
-  <si>
-    <t>http://sua.ucsc.edu/csc/
-http://cscsustainability.weebly.com/index.html</t>
-  </si>
-  <si>
-    <t>Carbon Fund (formerly Renewable Energy Fee)</t>
-  </si>
-  <si>
-    <t>Sustainability Office Fee</t>
-  </si>
-  <si>
-    <t>Sustainable Food, Health, and wellness fee</t>
-  </si>
-  <si>
-    <t>Student Health Center Green Building Fee</t>
-  </si>
-  <si>
-    <t>Colorado Springs</t>
-  </si>
-  <si>
-    <t>Northland College</t>
-  </si>
-  <si>
-    <t>Ashland</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Northland College Renewable Energy Fund</t>
-  </si>
-  <si>
-    <t>Oberlin College</t>
-  </si>
-  <si>
-    <t>Oberlin</t>
-  </si>
-  <si>
-    <t>Green EDGE Fund</t>
-  </si>
-  <si>
-    <t>http://www.oberlin.edu/sustainability/resources/greenedgefund.html</t>
-  </si>
-  <si>
-    <t>Occidental College</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>North Seattle Community College</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Northeastern Illinois University</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Campus Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.neiu.edu/~greenfee/index.html</t>
-  </si>
-  <si>
-    <t>Northern Arizona University</t>
-  </si>
-  <si>
-    <t>Flagstaff</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Northern Arizona University Green Fund</t>
-  </si>
-  <si>
-    <t>http://www.green.nau.edu/greenfund.html</t>
-  </si>
-  <si>
-    <t>http://www.sustainableauraria.org/</t>
-  </si>
-  <si>
-    <t>Montréal</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Sustainability Action Fund</t>
-  </si>
-  <si>
-    <t>Connecticut College</t>
-  </si>
-  <si>
-    <t>New London</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Renewable Energy Fund</t>
-  </si>
-  <si>
-    <t>Dalhousie University</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>Oregon State University</t>
-  </si>
-  <si>
-    <t>Corvallis</t>
-  </si>
-  <si>
-    <t>Student Sustainability Initiatives Project Grant</t>
-  </si>
-  <si>
-    <t>http://oregonstate.edu/sustainability/ssi/</t>
-  </si>
-  <si>
-    <t>Pacific Lutheran University</t>
-  </si>
-  <si>
-    <t>Tacoma</t>
-  </si>
-  <si>
-    <t>Green Energy Fund</t>
-  </si>
-  <si>
-    <t>http://www.plu.edu/sustainability/Campus%20Groups/Sustainability-Committee.php</t>
-  </si>
-  <si>
-    <t>Paul Smiths</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.paulsmiths.edu/sustainability/sustainabilityfund.php</t>
-  </si>
-  <si>
-    <t>Point Loma Nazarene University</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>http://www.pointloma.edu/discover/sustainability/green-fund</t>
-  </si>
-  <si>
-    <t>Portland Community College</t>
-  </si>
-  <si>
-    <t>Student Green Energy Fund</t>
-  </si>
-  <si>
-    <t>$0.25-$1.00</t>
-  </si>
-  <si>
-    <t>Milledgeville</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Sustainability (green) fee</t>
-  </si>
-  <si>
-    <t>http://www2.gcsu.edu/orgs/student/esc/green_fee_fy10.html</t>
-  </si>
-  <si>
-    <t>Green Mountain College</t>
-  </si>
-  <si>
-    <t>Poultney</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Student Campus Greening Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.greenmtn.edu/living_learning/beyond_classroom/scgf.aspx</t>
-  </si>
-  <si>
-    <t>Hartwick College</t>
-  </si>
-  <si>
-    <t>Oneonta</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Pine Lake Activity Fee</t>
-  </si>
-  <si>
-    <t>Hollins University</t>
-  </si>
-  <si>
-    <t>Roanoke</t>
-  </si>
-  <si>
-    <t>http://www.hollins.edu/about/sustainability/greenfee.shtml</t>
-  </si>
-  <si>
-    <t>Humboldt State University</t>
-  </si>
-  <si>
-    <t>Arcata</t>
-  </si>
-  <si>
-    <t>http://www.smcm.edu/sustainability/renewablesystems.html</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Purchase College Green Fee funds</t>
-  </si>
-  <si>
-    <t>http://www.psgaonline.org/student-resources/green-fee/</t>
-  </si>
-  <si>
-    <t>Plattsburgh</t>
-  </si>
-  <si>
-    <t>http://web.plattsburgh.edu/studentlife/green/ccer/</t>
-  </si>
-  <si>
-    <t>Tennessee Technological University</t>
-  </si>
-  <si>
-    <t>Cookeville</t>
-  </si>
-  <si>
-    <t>http://www.humboldt.edu/heif/</t>
-  </si>
-  <si>
-    <t>Illinois State University</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Bloomington</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>IU Sustainability Fund</t>
-  </si>
-  <si>
-    <t>Opt-in</t>
-  </si>
-  <si>
-    <t>http://www.indiana.edu/~iubssc/sustainability_fund/index.php</t>
-  </si>
-  <si>
-    <t>Johnson County Community College</t>
-  </si>
-  <si>
-    <t>Overland Park</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Sustainability Initiatives Fund</t>
-  </si>
-  <si>
-    <t>http://sites.google.com/site/jcccssc/funded-projects</t>
-  </si>
-  <si>
-    <t>Bemidji State University</t>
-  </si>
-  <si>
-    <t>Bemidji</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Green Fee Mini-Grants</t>
-  </si>
-  <si>
-    <t>http://www.bemidjistate.edu/sustainability/involvement/grants/</t>
-  </si>
-  <si>
-    <t>Bowling Green State University</t>
-  </si>
-  <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Student Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>Opt-out</t>
-  </si>
-  <si>
-    <t>http://www.bgsu.edu/departments/env/page91119.html</t>
-  </si>
-  <si>
-    <t>Brandeis University</t>
-  </si>
-  <si>
-    <t>Private not-for-profit</t>
-  </si>
-  <si>
-    <t>www.marshall.edu/sustainability</t>
-  </si>
-  <si>
-    <t>McGill University</t>
-  </si>
-  <si>
-    <t>Montreal</t>
-  </si>
-  <si>
-    <t>Sustainability Projects  Fund</t>
-  </si>
-  <si>
-    <t>CA$ 0.50</t>
-  </si>
-  <si>
-    <t>http://www.mcgill.ca/sustainability/get-involved/sustainability-projects-fund</t>
-  </si>
-  <si>
-    <t>Mercyhurst College</t>
-  </si>
-  <si>
-    <t>Erie</t>
-  </si>
-  <si>
-    <t>Student Sustainability Fund
-(formerly called the Student Green Energy Fee)</t>
-  </si>
-  <si>
-    <t>trimester</t>
-  </si>
-  <si>
-    <t>http://sustainability.mercyhurst.edu/solar-scholars/green-energy-fund/</t>
-  </si>
-  <si>
-    <t>Grand Junction</t>
-  </si>
-  <si>
-    <t>Environmental Fee</t>
-  </si>
-  <si>
-    <t>Messiah College</t>
-  </si>
-  <si>
-    <t>Grantham</t>
-  </si>
-  <si>
-    <t>Middle Tennessee State University</t>
-  </si>
-  <si>
-    <t>Murfreesboro</t>
-  </si>
-  <si>
-    <t>Clean Energy Fee</t>
-  </si>
-  <si>
-    <t>http://current.cocc.edu/Advising_Registration/Tuition+Info/default.aspx</t>
-  </si>
-  <si>
-    <t>Centre College</t>
-  </si>
-  <si>
-    <t>Danville</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Green Fund</t>
-  </si>
-  <si>
-    <t>http://www.centre.edu/sustainable_centre/green_fund.html</t>
-  </si>
-  <si>
-    <t>Clark University</t>
-  </si>
-  <si>
-    <t>Worcester</t>
-  </si>
-  <si>
-    <t>Student Sustainability Fund</t>
-  </si>
-  <si>
-    <t>~$6.00</t>
-  </si>
-  <si>
-    <t>Coastal Carolina University</t>
-  </si>
-  <si>
-    <t>Conway</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>College of Charleston</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>ECOllective Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.cofc.edu/Student%20Sustainability/index.php</t>
-  </si>
-  <si>
-    <t>College of Lake County</t>
-  </si>
-  <si>
-    <t>Greyslake</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Semester</t>
-  </si>
-  <si>
-    <t>Sarasota</t>
-  </si>
-  <si>
-    <t>Sustainability Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.ncf.edu/green</t>
-  </si>
-  <si>
-    <t>Indiana University Bloomington</t>
+    <t>California State University, Chico</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Colorado Mesa University</t>
+    <t>College of William &amp; Mary</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Minnesota State University Moorhead</t>
+    <t>Auraria Higher Education Center</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Montana State University</t>
+    <t>Institution</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Paul Smith's College of Arts &amp; Sciences</t>
+    <t>Concordia University</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Sewanee - The University of the South</t>
+    <t>Evergreen State College, The</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Southern Illinois University Carbondale</t>
+    <t>Florida Agricultural and Mechanical University</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>State University of New York at Purchase</t>
+    <t>Georgia College &amp; State University</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Williamsburg</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.wm.edu/sites/sustainability/initiatives/greenfee/index.php</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Waltham</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Brandeis Sustainability Fund</t>
-  </si>
-  <si>
-    <t>annually</t>
-  </si>
-  <si>
-    <t>http://www.brandeis.edu/campussustainability/fund/</t>
-  </si>
-  <si>
-    <t>Chico</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Associated Students Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.aschico.com/sustain/sfac</t>
-  </si>
-  <si>
-    <t>Central Oregon Community College</t>
-  </si>
-  <si>
-    <t>Bend</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Blue Sky renewable energy fee</t>
-  </si>
-  <si>
-    <t>sustainability initiatives levy (undergraduates only)</t>
-  </si>
-  <si>
-    <t>Drury University</t>
-  </si>
-  <si>
-    <t>Springfield</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://www.drury.edu/sustainabilitycouncil</t>
-  </si>
-  <si>
-    <t>East Tennessee State University</t>
-  </si>
-  <si>
-    <t>Johnson City</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://facilities.etsu.edu/green/fee.php</t>
-  </si>
-  <si>
-    <t>Eastern University</t>
-  </si>
-  <si>
-    <t>St. Davids</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Wind Energy Fee</t>
-  </si>
-  <si>
-    <t>http://www.eastern.edu/centers/sfs/fees.html</t>
-  </si>
-  <si>
-    <t>Olympia</t>
-  </si>
-  <si>
-    <t>Clean Energy Grant</t>
-  </si>
-  <si>
-    <t>http://www.evergreen.edu/committee/cleanenergy/grant.htm</t>
-  </si>
-  <si>
-    <t>Tallahassee</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Institutional control</t>
-  </si>
-  <si>
-    <t>City/Town</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Student green fee name</t>
+    <t>Mandatory</t>
+    <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
     <t>Year Fee passed</t>
@@ -1725,43 +423,1345 @@
     <t>quarter</t>
   </si>
   <si>
-    <t>https://depts.bellevuecollege.edu/sustainability/what-you-can-do/student-environmental-sustainability-fund-sesf-2/</t>
-  </si>
-  <si>
-    <t>ico</t>
+    <t>http://www.centre.edu/sustainable_centre/green_fund.html</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Student Sustainability Fund</t>
+  </si>
+  <si>
+    <t>~$6.00</t>
+  </si>
+  <si>
+    <t>Coastal Carolina University</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>College of Charleston</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>ECOllective Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.cofc.edu/Student%20Sustainability/index.php</t>
+  </si>
+  <si>
+    <t>College of Lake County</t>
+  </si>
+  <si>
+    <t>Greyslake</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>Sustainability Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.ncf.edu/green</t>
+  </si>
+  <si>
+    <t>Indiana University Bloomington</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>California State University, Chico</t>
+    <t>Colorado Mesa University</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>College of William &amp; Mary</t>
+    <t>Minnesota State University Moorhead</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Auraria Higher Education Center</t>
+    <t>Montana State University</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Institution</t>
+    <t>Paul Smith's College of Arts &amp; Sciences</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Concordia University</t>
+    <t>Sewanee - The University of the South</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Evergreen State College, The</t>
+    <t>Southern Illinois University Carbondale</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Florida Agricultural and Mechanical University</t>
+    <t>State University of New York at Purchase</t>
     <phoneticPr fontId="78" type="noConversion"/>
   </si>
   <si>
-    <t>Georgia College &amp; State University</t>
+    <t>Williamsburg</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.wm.edu/sites/sustainability/initiatives/greenfee/index.php</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Brandeis Sustainability Fund</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>http://www.brandeis.edu/campussustainability/fund/</t>
+  </si>
+  <si>
+    <t>Chico</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Associated Students Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.aschico.com/sustain/sfac</t>
+  </si>
+  <si>
+    <t>Central Oregon Community College</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Blue Sky renewable energy fee</t>
+  </si>
+  <si>
+    <t>sustainability initiatives levy (undergraduates only)</t>
+  </si>
+  <si>
+    <t>Drury University</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://www.drury.edu/sustainabilitycouncil</t>
+  </si>
+  <si>
+    <t>East Tennessee State University</t>
+  </si>
+  <si>
+    <t>Johnson City</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://facilities.etsu.edu/green/fee.php</t>
+  </si>
+  <si>
+    <t>Eastern University</t>
+  </si>
+  <si>
+    <t>St. Davids</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Wind Energy Fee</t>
+  </si>
+  <si>
+    <t>http://www.eastern.edu/centers/sfs/fees.html</t>
+  </si>
+  <si>
+    <t>Olympia</t>
+  </si>
+  <si>
+    <t>Clean Energy Grant</t>
+  </si>
+  <si>
+    <t>http://www.evergreen.edu/committee/cleanenergy/grant.htm</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Institutional control</t>
+  </si>
+  <si>
+    <t>City/Town</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Student green fee name</t>
+  </si>
+  <si>
+    <t>Pine Lake Activity Fee</t>
+  </si>
+  <si>
+    <t>Hollins University</t>
+  </si>
+  <si>
+    <t>Roanoke</t>
+  </si>
+  <si>
+    <t>http://www.hollins.edu/about/sustainability/greenfee.shtml</t>
+  </si>
+  <si>
+    <t>Humboldt State University</t>
+  </si>
+  <si>
+    <t>Arcata</t>
+  </si>
+  <si>
+    <t>http://www.smcm.edu/sustainability/renewablesystems.html</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Purchase College Green Fee funds</t>
+  </si>
+  <si>
+    <t>http://www.psgaonline.org/student-resources/green-fee/</t>
+  </si>
+  <si>
+    <t>Plattsburgh</t>
+  </si>
+  <si>
+    <t>http://web.plattsburgh.edu/studentlife/green/ccer/</t>
+  </si>
+  <si>
+    <t>Tennessee Technological University</t>
+  </si>
+  <si>
+    <t>Cookeville</t>
+  </si>
+  <si>
+    <t>http://www.humboldt.edu/heif/</t>
+  </si>
+  <si>
+    <t>Illinois State University</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Bloomington</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IU Sustainability Fund</t>
+  </si>
+  <si>
+    <t>Opt-in</t>
+  </si>
+  <si>
+    <t>http://www.indiana.edu/~iubssc/sustainability_fund/index.php</t>
+  </si>
+  <si>
+    <t>Johnson County Community College</t>
+  </si>
+  <si>
+    <t>Overland Park</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Sustainability Initiatives Fund</t>
+  </si>
+  <si>
+    <t>http://sites.google.com/site/jcccssc/funded-projects</t>
+  </si>
+  <si>
+    <t>Bemidji State University</t>
+  </si>
+  <si>
+    <t>Bemidji</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Green Fee Mini-Grants</t>
+  </si>
+  <si>
+    <t>http://www.bemidjistate.edu/sustainability/involvement/grants/</t>
+  </si>
+  <si>
+    <t>Bowling Green State University</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Student Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>Opt-out</t>
+  </si>
+  <si>
+    <t>http://www.bgsu.edu/departments/env/page91119.html</t>
+  </si>
+  <si>
+    <t>Brandeis University</t>
+  </si>
+  <si>
+    <t>Private not-for-profit</t>
+  </si>
+  <si>
+    <t>www.marshall.edu/sustainability</t>
+  </si>
+  <si>
+    <t>McGill University</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Sustainability Projects  Fund</t>
+  </si>
+  <si>
+    <t>CA$ 0.50</t>
+  </si>
+  <si>
+    <t>http://www.mcgill.ca/sustainability/get-involved/sustainability-projects-fund</t>
+  </si>
+  <si>
+    <t>Mercyhurst College</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Student Sustainability Fund
+(formerly called the Student Green Energy Fee)</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>http://sustainability.mercyhurst.edu/solar-scholars/green-energy-fund/</t>
+  </si>
+  <si>
+    <t>Grand Junction</t>
+  </si>
+  <si>
+    <t>Environmental Fee</t>
+  </si>
+  <si>
+    <t>Messiah College</t>
+  </si>
+  <si>
+    <t>Grantham</t>
+  </si>
+  <si>
+    <t>Middle Tennessee State University</t>
+  </si>
+  <si>
+    <t>Murfreesboro</t>
+  </si>
+  <si>
+    <t>Clean Energy Fee</t>
+  </si>
+  <si>
+    <t>http://current.cocc.edu/Advising_Registration/Tuition+Info/default.aspx</t>
+  </si>
+  <si>
+    <t>Centre College</t>
+  </si>
+  <si>
+    <t>Danville</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Green Fund</t>
+  </si>
+  <si>
+    <t>Carbon Fund (formerly Renewable Energy Fee)</t>
+  </si>
+  <si>
+    <t>Sustainability Office Fee</t>
+  </si>
+  <si>
+    <t>Sustainable Food, Health, and wellness fee</t>
+  </si>
+  <si>
+    <t>Student Health Center Green Building Fee</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>Northland College</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Northland College Renewable Energy Fund</t>
+  </si>
+  <si>
+    <t>Oberlin College</t>
+  </si>
+  <si>
+    <t>Oberlin</t>
+  </si>
+  <si>
+    <t>Green EDGE Fund</t>
+  </si>
+  <si>
+    <t>http://www.oberlin.edu/sustainability/resources/greenedgefund.html</t>
+  </si>
+  <si>
+    <t>Occidental College</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>North Seattle Community College</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Northeastern Illinois University</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Campus Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.neiu.edu/~greenfee/index.html</t>
+  </si>
+  <si>
+    <t>Northern Arizona University</t>
+  </si>
+  <si>
+    <t>Flagstaff</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Northern Arizona University Green Fund</t>
+  </si>
+  <si>
+    <t>http://www.green.nau.edu/greenfund.html</t>
+  </si>
+  <si>
+    <t>http://www.sustainableauraria.org/</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Sustainability Action Fund</t>
+  </si>
+  <si>
+    <t>Connecticut College</t>
+  </si>
+  <si>
+    <t>New London</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Renewable Energy Fund</t>
+  </si>
+  <si>
+    <t>Dalhousie University</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+  </si>
+  <si>
+    <t>Corvallis</t>
+  </si>
+  <si>
+    <t>Student Sustainability Initiatives Project Grant</t>
+  </si>
+  <si>
+    <t>http://oregonstate.edu/sustainability/ssi/</t>
+  </si>
+  <si>
+    <t>Pacific Lutheran University</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Green Energy Fund</t>
+  </si>
+  <si>
+    <t>http://www.plu.edu/sustainability/Campus%20Groups/Sustainability-Committee.php</t>
+  </si>
+  <si>
+    <t>Paul Smiths</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.paulsmiths.edu/sustainability/sustainabilityfund.php</t>
+  </si>
+  <si>
+    <t>Point Loma Nazarene University</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>http://www.pointloma.edu/discover/sustainability/green-fund</t>
+  </si>
+  <si>
+    <t>Portland Community College</t>
+  </si>
+  <si>
+    <t>Student Green Energy Fund</t>
+  </si>
+  <si>
+    <t>$0.25-$1.00</t>
+  </si>
+  <si>
+    <t>Milledgeville</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Sustainability (green) fee</t>
+  </si>
+  <si>
+    <t>http://www2.gcsu.edu/orgs/student/esc/green_fee_fy10.html</t>
+  </si>
+  <si>
+    <t>Green Mountain College</t>
+  </si>
+  <si>
+    <t>Poultney</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Student Campus Greening Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.greenmtn.edu/living_learning/beyond_classroom/scgf.aspx</t>
+  </si>
+  <si>
+    <t>Hartwick College</t>
+  </si>
+  <si>
+    <t>Oneonta</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>College Station</t>
+  </si>
+  <si>
+    <t>Aggie Green Fund</t>
+  </si>
+  <si>
+    <t>http://greenfund.tamu.edu</t>
+  </si>
+  <si>
+    <t>Texas State University, San Marcos</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>Environmental Service Fee</t>
+  </si>
+  <si>
+    <t>http://www.txstate.edu/esc/</t>
+  </si>
+  <si>
+    <t>Union College</t>
+  </si>
+  <si>
+    <t>Schenectady</t>
+  </si>
+  <si>
+    <t>Union Green Fee Initiative</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Chapel Hill</t>
+  </si>
+  <si>
+    <t>Chapel Hill</t>
+  </si>
+  <si>
+    <t>Renewable Energy Fee</t>
+  </si>
+  <si>
+    <t>http://respc.unc.edu/</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Charlotte Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>Knox College</t>
+  </si>
+  <si>
+    <t>Galesburg</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>http://www.knox.edu/about-knox/we-are-knox/our-future/sustainability-at-knox-college/student-sustainability-fund.html</t>
+  </si>
+  <si>
+    <t>Lewis &amp; Clark College</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Green Fee Fund</t>
+  </si>
+  <si>
+    <t>http://www.lclark.edu/about/sustainability/campus/green_fee/</t>
+  </si>
+  <si>
+    <t>Marshall University</t>
+  </si>
+  <si>
+    <t>Huntington</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Student Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.concordy.com/article/807-u/april-21-2011/unions-green-fee/</t>
+  </si>
+  <si>
+    <t>Fairbanks</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Student Initiative for Renewable Energy Now 
+(SIREN) Fund</t>
+  </si>
+  <si>
+    <t>http://www.uaf.edu/sustainability/rise/</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>http://portal.environment.arizona.edu/campus-sustainability/green-fund
+http://www.studentaffairs.arizona.edu/greenfund/apply_details_mini.php</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>AMS Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://amssustainability.ca/</t>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>http://www.mtsu.edu/sga/cleanenergy.shtml</t>
+  </si>
+  <si>
+    <t>Moorhead</t>
+  </si>
+  <si>
+    <t>http://web.mnstate.edu/sci/</t>
+  </si>
+  <si>
+    <t>Mississippi State University</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>$5-$100</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.msstate.edu/greenfund/</t>
+  </si>
+  <si>
+    <t>Bozeman</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>ASMSU Student Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://www.montana.edu/greenasmsu/RecyclingFAQ.html</t>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+  </si>
+  <si>
+    <t>Sackville</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>offset/reduce GHGs</t>
+  </si>
+  <si>
+    <t>http://sac.mta.ca/index.php?option=com_content&amp;view=article&amp;id=240&amp;Itemid=270</t>
+  </si>
+  <si>
+    <t>New College of Florida</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Programs Fee</t>
+  </si>
+  <si>
+    <t>http://sua.ucsc.edu/csc/
+http://cscsustainability.weebly.com/index.html</t>
+  </si>
+  <si>
+    <t>Environmental Improvement Initiative/Sustainable CU</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Blue Goes Green Student Grant Program</t>
+  </si>
+  <si>
+    <t>http://sustainability.usu.edu/</t>
+  </si>
+  <si>
+    <t>Warren Wilson College</t>
+  </si>
+  <si>
+    <t>Ashville</t>
+  </si>
+  <si>
+    <t>Pullman</t>
+  </si>
+  <si>
+    <t>Cougar Green Fund</t>
+  </si>
+  <si>
+    <t>http://aswsuetf.wordpress.com/</t>
+  </si>
+  <si>
+    <t>Wesleyan University</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
+    <t>http://www.wesleyan.edu/finance/financeDept/student/tuitionAndFees.html</t>
+  </si>
+  <si>
+    <t>Western Michigan University</t>
+  </si>
+  <si>
+    <t>Kalamazoo</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Renewable Energy and Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://asoc.oxy.edu/asoc/sustainability.htm</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>http://sustainability.uga.edu/about/funding/</t>
+  </si>
+  <si>
+    <t>University of Guelph</t>
+  </si>
+  <si>
+    <t>Guelph</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Energy Retrofit Fund</t>
+  </si>
+  <si>
+    <t>http://www.pr.uoguelph.ca/sustain/energy/ecwg.htm</t>
+  </si>
+  <si>
+    <t>University of Idaho</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UI Sustainability Center fee</t>
+  </si>
+  <si>
+    <t>http://www.uidaho.edu/sustainability/uisustainabilitycenter/AbouttheUISC</t>
+  </si>
+  <si>
+    <t>University of Illinois at Chicago</t>
+  </si>
+  <si>
+    <t>http://www.uic.edu/sustainability/resources/2011.GreenFeeProposal.pdf</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>The Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Rice Endowment for Sustainable Energy Technology (RESET)</t>
+  </si>
+  <si>
+    <t>http://reset.blogs.rice.edu/</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>Enhance, Evolve, Innovate</t>
+  </si>
+  <si>
+    <t>http://as.sdsu.edu/govt/update.html</t>
+  </si>
+  <si>
+    <t>Sewanee</t>
+  </si>
+  <si>
+    <t>Renewable Energy Resolution</t>
+  </si>
+  <si>
+    <t>Carbondale</t>
+  </si>
+  <si>
+    <t>http://sustainability.siu.edu/</t>
+  </si>
+  <si>
+    <t>Southern Oregon University</t>
+  </si>
+  <si>
+    <t>Green Energy Fee</t>
+  </si>
+  <si>
+    <t>http://www.sou.edu/sustainable/</t>
+  </si>
+  <si>
+    <t>St. Mary's College of Maryland</t>
+  </si>
+  <si>
+    <t>St. Mary's City</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Green Energy Allocation Fund</t>
+  </si>
+  <si>
+    <t>http://www.memphis.edu/bluegoesgreen/greenfee.php</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Student Sustainability Initiatives Funds</t>
+  </si>
+  <si>
+    <t>http://environmentalleadership.missouri.edu/about/funding/</t>
+  </si>
+  <si>
+    <t>University of Minnesota, Crookston</t>
+  </si>
+  <si>
+    <t>Crookston</t>
+  </si>
+  <si>
+    <t>University of Montana</t>
+  </si>
+  <si>
+    <t>Missoula</t>
+  </si>
+  <si>
+    <t>Kless Revolving Energy Loan Fund</t>
+  </si>
+  <si>
+    <t>http://www.tntech.edu/bursar/otherfees/</t>
+  </si>
+  <si>
+    <t>http://www.western.edu/student-life/sustainability/sustainability/?searchterm=sustainability</t>
+  </si>
+  <si>
+    <t>Western Washington University</t>
+  </si>
+  <si>
+    <t>Bellingham</t>
+  </si>
+  <si>
+    <t>http://www.wwu.edu/sfs/StudentAccounts/sa_tuitionfees.shtml</t>
+  </si>
+  <si>
+    <t>Wilfrid Laurier University</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>http://www.wlu.ca/homepage.php?grp_id=12304</t>
+  </si>
+  <si>
+    <t>Young Harris College</t>
+  </si>
+  <si>
+    <t>Young Harris</t>
+  </si>
+  <si>
+    <t>SGA Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.yhc.edu/about/sustainability/green-fee-application</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>University of South Florida</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>http://cgi.uncc.edu/</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>We Mean Green Fund</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>http://sustainability.uoregon.edu/office-sustainability/student-sustainability-fund</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Pitt Green Fund</t>
+  </si>
+  <si>
+    <t>http://pittgreenfund.com/</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>http://tgif.berkeley.edu/</t>
+  </si>
+  <si>
+    <t>University of California, Irvine</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>http://www.asuci.uci.edu/tgif/</t>
+  </si>
+  <si>
+    <t>University of California, Los Angeles</t>
+  </si>
+  <si>
+    <t>http://tgif.ucla.edu/index.php</t>
+  </si>
+  <si>
+    <t>University of California, Riverside</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>The Green Action Plan Fund</t>
+  </si>
+  <si>
+    <t>http://www.asucr.ucr.edu/gcap.html</t>
+  </si>
+  <si>
+    <t>University of California, San Diego</t>
+  </si>
+  <si>
+    <t>La Jolla</t>
+  </si>
+  <si>
+    <t>http://sustainabilityresourcecenter.ucsd.edu/green-fund/about-tgif/</t>
+  </si>
+  <si>
+    <t>University of California, Santa Barbara</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>http://sustainability.ucsb.edu/tgif/index.php</t>
+  </si>
+  <si>
+    <t>Coastal Fund</t>
+  </si>
+  <si>
+    <t>$5.25/$3.00</t>
+  </si>
+  <si>
+    <t>http://coastalfund.as.ucsb.edu/</t>
+  </si>
+  <si>
+    <t>University of California, Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Student Campus Initiative Fund (SCIF)</t>
+  </si>
+  <si>
+    <t>www.sustainability.utah.edu/SCIF</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>Clean Energy Fund</t>
+  </si>
+  <si>
+    <t>http://www.uvm.edu/~sustain/?Page=cef/cleanenergy.html&amp;SM=cef/CEFmenu.html</t>
+  </si>
+  <si>
+    <t>University of Washington, Seattle</t>
+  </si>
+  <si>
+    <t>http://csf.washington.edu</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>http://www.uccs.edu/~sustain/solar_fee.html</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>Environmental Center</t>
+  </si>
+  <si>
+    <t>http://ecenter.colorado.edu/greening-cu/sustainable-cu</t>
+  </si>
+  <si>
+    <t>Student Bus and Bike Programs</t>
+  </si>
+  <si>
+    <t>Capital Construction Fee</t>
+  </si>
+  <si>
+    <t>http://psgs.usf.edu/usf-office-of-sustainability/green-energy-fund/</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>http://www.utc.edu/Administration/Bursar/fees.php</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>Student Environmental Initiatives Fund</t>
+  </si>
+  <si>
+    <t>http://environment.utk.edu/fees.html</t>
+  </si>
+  <si>
+    <t>UT- Austin Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.utexas.edu/sustainability/greenfee.php</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>http://www.utsa.edu/fiscalservices/TuitionFeeDocs/summaryDescSpring2011.pdf</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>http://www.coastal.edu/sustain/</t>
     <phoneticPr fontId="78" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wmich.edu/sustainability/index.html</t>
+  </si>
+  <si>
+    <t>Gunnison</t>
+  </si>
+  <si>
+    <t>Cleaner Energy Technologies</t>
+  </si>
+  <si>
+    <t>http://sustainability.illinois.edu/ssc/</t>
+  </si>
+  <si>
+    <t>Sustainable Campus Environmental Fee</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Renewable Energy and Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.ku.edu/SEAB/</t>
+  </si>
+  <si>
+    <t>Environmental Improvement: Recycling Fee</t>
+  </si>
+  <si>
+    <t>http://www.recycle.ku.edu/about_us.shtml</t>
+  </si>
+  <si>
+    <t>University of Kentucky</t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>Environmental Stewardship Fee</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.uky.edu/ESF</t>
+  </si>
+  <si>
+    <t>University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>University Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.umd.edu/content/about/fund_faq.php</t>
+  </si>
+  <si>
+    <t>University of Memphis</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Sustainable Campus Fee</t>
+  </si>
+  <si>
+    <t>Eau Claire</t>
+  </si>
+  <si>
+    <t>http://www.uwec.edu/StudentSenate/commissions/eec/FundingInfo.htm</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>La Crosse</t>
+  </si>
+  <si>
+    <t>http://www.uwlax.edu/sustainability/html/green-fund.htm</t>
+  </si>
+  <si>
+    <t>University of Wyoming</t>
+  </si>
+  <si>
+    <t>Laramie</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Recycling Student Fee</t>
+  </si>
+  <si>
+    <t>http://www.umt.edu/greeningum/KRELF/default.aspx</t>
+  </si>
+  <si>
+    <t>University of Montevallo</t>
+  </si>
+  <si>
+    <t>Montevallo</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>The Green Fund</t>
+  </si>
+  <si>
+    <t>http://www.montevallo.edu/sustainability/green%20fund.shtm</t>
+  </si>
+  <si>
+    <t>University of Nevada, Las Vegas</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Rebel Recycling Fee</t>
+  </si>
+  <si>
+    <t>http://facilities.unlv.edu/recycling/history.html</t>
+  </si>
+  <si>
+    <t># of Student Green Funds</t>
+  </si>
+  <si>
+    <t>Student Green 
+Funds</t>
+  </si>
+  <si>
+    <t>Alumni &amp; Non-Student Fee 
+Green Funds</t>
   </si>
 </sst>
 </file>
@@ -4242,11 +4242,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="212637128"/>
-        <c:axId val="212642952"/>
+        <c:axId val="258770424"/>
+        <c:axId val="258776248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212637128"/>
+        <c:axId val="258770424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,13 +4265,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212642952"/>
+        <c:crossAx val="258776248"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212642952"/>
+        <c:axId val="258776248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,7 +4296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212637128"/>
+        <c:crossAx val="258770424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4449,11 +4449,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="212621048"/>
-        <c:axId val="212624040"/>
+        <c:axId val="228459864"/>
+        <c:axId val="212778728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212621048"/>
+        <c:axId val="228459864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4469,13 +4469,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212624040"/>
+        <c:crossAx val="212778728"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212624040"/>
+        <c:axId val="212778728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4498,7 +4498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212621048"/>
+        <c:crossAx val="228459864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4898,10 +4898,10 @@
   <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -4921,66 +4921,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="48.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>438</v>
+        <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>439</v>
+        <v>140</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>441</v>
+        <v>142</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>445</v>
+        <v>13</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>446</v>
+        <v>14</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>447</v>
+        <v>15</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13">
       <c r="A2" s="49" t="s">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>452</v>
+        <v>20</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>455</v>
+        <v>23</v>
       </c>
       <c r="G2" s="58">
         <v>2005</v>
@@ -4989,16 +4989,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J2" s="21">
         <v>0</v>
       </c>
       <c r="K2" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>458</v>
+        <v>26</v>
       </c>
       <c r="M2" s="41">
         <v>1</v>
@@ -5009,22 +5009,22 @@
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="A3" s="49" t="s">
-        <v>459</v>
+        <v>27</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="G3" s="58">
         <v>2009</v>
@@ -5033,14 +5033,14 @@
         <v>1</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>464</v>
+        <v>32</v>
       </c>
       <c r="M3" s="41">
         <v>1</v>
@@ -5051,22 +5051,22 @@
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="A4" s="49" t="s">
-        <v>495</v>
+        <v>63</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>496</v>
+        <v>64</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>498</v>
+        <v>66</v>
       </c>
       <c r="G4" s="58">
         <v>2007</v>
@@ -5075,16 +5075,16 @@
         <v>10</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J4" s="21">
         <v>0</v>
       </c>
       <c r="K4" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>499</v>
+        <v>67</v>
       </c>
       <c r="M4" s="41">
         <v>1</v>
@@ -5095,22 +5095,22 @@
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="A5" s="49" t="s">
-        <v>500</v>
+        <v>68</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>501</v>
+        <v>69</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>503</v>
+        <v>71</v>
       </c>
       <c r="G5" s="58">
         <v>2009</v>
@@ -5119,14 +5119,14 @@
         <v>10</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="M5" s="41">
         <v>1</v>
@@ -5137,22 +5137,22 @@
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="A6" s="49" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>337</v>
+        <v>172</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="G6" s="58">
         <v>2009</v>
@@ -5161,16 +5161,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J6" s="21">
         <v>0</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>340</v>
+        <v>175</v>
       </c>
       <c r="M6" s="41">
         <v>1</v>
@@ -5181,22 +5181,22 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="G7" s="58">
         <v>2009</v>
@@ -5205,16 +5205,16 @@
         <v>5</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M7" s="41">
         <v>1</v>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="8" spans="1:14" ht="13">
       <c r="A8" s="49" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>407</v>
+        <v>108</v>
       </c>
       <c r="G8" s="58">
         <v>2010</v>
@@ -5249,16 +5249,16 @@
         <v>15</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>409</v>
+        <v>110</v>
       </c>
       <c r="M8" s="41">
         <v>1</v>
@@ -5269,22 +5269,22 @@
     </row>
     <row r="9" spans="1:14" ht="13">
       <c r="A9" s="49" t="s">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>412</v>
+        <v>113</v>
       </c>
       <c r="G9" s="58">
         <v>2006</v>
@@ -5293,16 +5293,16 @@
         <v>5</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J9" s="21">
         <v>0</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>413</v>
+        <v>114</v>
       </c>
       <c r="M9" s="41">
         <v>1</v>
@@ -5313,22 +5313,22 @@
     </row>
     <row r="10" spans="1:14" ht="13">
       <c r="A10" s="49" t="s">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>415</v>
+        <v>116</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>417</v>
+        <v>118</v>
       </c>
       <c r="G10" s="58">
         <v>2006</v>
@@ -5337,16 +5337,16 @@
         <v>0.25</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J10" s="21">
         <v>3</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="M10" s="41">
         <v>1</v>
@@ -5357,22 +5357,22 @@
     </row>
     <row r="11" spans="1:14" ht="13">
       <c r="A11" s="49" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>369</v>
+        <v>204</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G11" s="58">
         <v>2007</v>
@@ -5381,16 +5381,16 @@
         <v>20</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>372</v>
+        <v>73</v>
       </c>
       <c r="M11" s="41">
         <v>1</v>
@@ -5401,31 +5401,31 @@
     </row>
     <row r="12" spans="1:14" ht="13">
       <c r="A12" s="49" t="s">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>374</v>
+        <v>75</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="G12" s="58">
         <v>2012</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="5"/>
@@ -5435,19 +5435,19 @@
     </row>
     <row r="13" spans="1:14" ht="13">
       <c r="A13" s="49" t="s">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="58">
@@ -5457,12 +5457,12 @@
         <v>20</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="53"/>
       <c r="L13" s="22" t="s">
-        <v>14</v>
+        <v>470</v>
       </c>
       <c r="M13" s="41">
         <v>1</v>
@@ -5473,22 +5473,22 @@
     </row>
     <row r="14" spans="1:14" ht="13">
       <c r="A14" s="49" t="s">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="G14" s="58">
         <v>2010</v>
@@ -5497,14 +5497,14 @@
         <v>10</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="M14" s="41">
         <v>1</v>
@@ -5515,31 +5515,31 @@
     </row>
     <row r="15" spans="1:14" ht="13">
       <c r="A15" s="49" t="s">
-        <v>384</v>
+        <v>85</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G15" s="58">
         <v>2012</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="53"/>
@@ -5551,22 +5551,22 @@
     </row>
     <row r="16" spans="1:14" ht="13">
       <c r="A16" s="49" t="s">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="G16" s="58">
         <v>2008</v>
@@ -5575,12 +5575,12 @@
         <v>15</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="53"/>
       <c r="L16" s="22" t="s">
-        <v>403</v>
+        <v>104</v>
       </c>
       <c r="M16" s="41">
         <v>1</v>
@@ -5591,22 +5591,22 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1">
       <c r="A17" s="59" t="s">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>467</v>
+        <v>35</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>468</v>
+        <v>36</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>469</v>
+        <v>37</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>470</v>
+        <v>38</v>
       </c>
       <c r="G17" s="35">
         <v>2007</v>
@@ -5615,34 +5615,34 @@
         <v>5</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>471</v>
+        <v>39</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="53"/>
       <c r="L17" s="88" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="M17" s="87"/>
       <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14" ht="13">
       <c r="A18" s="71" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="G18" s="58">
         <v>2007</v>
@@ -5651,7 +5651,7 @@
         <v>0.25</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="53"/>
@@ -5665,22 +5665,22 @@
     </row>
     <row r="19" spans="1:14" ht="13">
       <c r="A19" s="49" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G19" s="58">
         <v>2004</v>
@@ -5689,7 +5689,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="53"/>
@@ -5703,22 +5703,22 @@
     </row>
     <row r="20" spans="1:14" ht="13">
       <c r="A20" s="71" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>418</v>
+        <v>119</v>
       </c>
       <c r="G20" s="58">
         <v>2008</v>
@@ -5727,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J20" s="21">
         <v>0</v>
       </c>
       <c r="K20" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="41">
@@ -5745,36 +5745,36 @@
     </row>
     <row r="21" spans="1:14" ht="13">
       <c r="A21" s="77" t="s">
-        <v>419</v>
+        <v>120</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>420</v>
+        <v>121</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>421</v>
+        <v>122</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>422</v>
+        <v>123</v>
       </c>
       <c r="G21" s="58">
         <v>2009</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="5"/>
       <c r="L21" s="22" t="s">
-        <v>423</v>
+        <v>124</v>
       </c>
       <c r="M21" s="41">
         <v>1</v>
@@ -5785,22 +5785,22 @@
     </row>
     <row r="22" spans="1:14" ht="13">
       <c r="A22" s="49" t="s">
-        <v>424</v>
+        <v>125</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>425</v>
+        <v>126</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>426</v>
+        <v>127</v>
       </c>
       <c r="G22" s="58">
         <v>2008</v>
@@ -5809,12 +5809,12 @@
         <v>5</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="53"/>
       <c r="L22" s="22" t="s">
-        <v>427</v>
+        <v>128</v>
       </c>
       <c r="M22" s="41">
         <v>1</v>
@@ -5825,22 +5825,22 @@
     </row>
     <row r="23" spans="1:14" ht="13">
       <c r="A23" s="49" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="G23" s="58">
         <v>2006</v>
@@ -5849,12 +5849,12 @@
         <v>30</v>
       </c>
       <c r="I23" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="53"/>
       <c r="L23" s="22" t="s">
-        <v>432</v>
+        <v>133</v>
       </c>
       <c r="M23" s="41">
         <v>1</v>
@@ -5865,22 +5865,22 @@
     </row>
     <row r="24" spans="1:14" ht="13">
       <c r="A24" s="49" t="s">
-        <v>512</v>
+        <v>7</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>433</v>
+        <v>134</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>434</v>
+        <v>135</v>
       </c>
       <c r="G24" s="58">
         <v>2005</v>
@@ -5889,12 +5889,12 @@
         <v>1</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="53"/>
       <c r="L24" s="22" t="s">
-        <v>435</v>
+        <v>136</v>
       </c>
       <c r="M24" s="41">
         <v>1</v>
@@ -5905,31 +5905,31 @@
     </row>
     <row r="25" spans="1:14" ht="13">
       <c r="A25" s="49" t="s">
-        <v>513</v>
+        <v>8</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>436</v>
+        <v>137</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G25" s="58">
         <v>2012</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="53"/>
@@ -5943,22 +5943,22 @@
     </row>
     <row r="26" spans="1:14" ht="13">
       <c r="A26" s="49" t="s">
-        <v>514</v>
+        <v>9</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="G26" s="58">
         <v>2010</v>
@@ -5967,12 +5967,12 @@
         <v>5</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="53"/>
       <c r="L26" s="22" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="M26" s="41">
         <v>1</v>
@@ -5983,22 +5983,22 @@
     </row>
     <row r="27" spans="1:14" ht="13">
       <c r="A27" s="49" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="G27" s="58">
         <v>2005</v>
@@ -6007,12 +6007,12 @@
         <v>30</v>
       </c>
       <c r="I27" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="53"/>
       <c r="L27" s="22" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="M27" s="41">
         <v>1</v>
@@ -6023,22 +6023,22 @@
     </row>
     <row r="28" spans="1:14" ht="13">
       <c r="A28" s="49" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="G28" s="58">
         <v>2004</v>
@@ -6047,7 +6047,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="53"/>
@@ -6061,22 +6061,22 @@
     </row>
     <row r="29" spans="1:14" ht="13">
       <c r="A29" s="49" t="s">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="G29" s="58">
         <v>2009</v>
@@ -6085,12 +6085,12 @@
         <v>5</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="53"/>
       <c r="L29" s="22" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="M29" s="41">
         <v>1</v>
@@ -6101,19 +6101,19 @@
     </row>
     <row r="30" spans="1:14" ht="13">
       <c r="A30" s="49" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="58">
@@ -6123,12 +6123,12 @@
         <v>10</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="53"/>
       <c r="L30" s="22" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="M30" s="41">
         <v>1</v>
@@ -6139,22 +6139,22 @@
     </row>
     <row r="31" spans="1:14" ht="13">
       <c r="A31" s="49" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>422</v>
+        <v>123</v>
       </c>
       <c r="G31" s="58">
         <v>2010</v>
@@ -6163,7 +6163,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="53"/>
@@ -6177,22 +6177,22 @@
     </row>
     <row r="32" spans="1:14" ht="13">
       <c r="A32" s="49" t="s">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="G32" s="58">
         <v>2011</v>
@@ -6201,14 +6201,14 @@
         <v>5</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="32" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="M32" s="41">
         <v>1</v>
@@ -6219,22 +6219,22 @@
     </row>
     <row r="33" spans="1:14" ht="13">
       <c r="A33" s="49" t="s">
-        <v>331</v>
+        <v>166</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="G33" s="58">
         <v>2010</v>
@@ -6243,14 +6243,14 @@
         <v>1</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>335</v>
+        <v>170</v>
       </c>
       <c r="M33" s="41">
         <v>1</v>
@@ -6261,22 +6261,22 @@
     </row>
     <row r="34" spans="1:14" ht="13">
       <c r="A34" s="49" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="G34" s="58">
         <v>2008</v>
@@ -6285,14 +6285,14 @@
         <v>10</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="M34" s="41">
         <v>1</v>
@@ -6303,22 +6303,22 @@
     </row>
     <row r="35" spans="1:14" ht="13">
       <c r="A35" s="49" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="G35" s="58">
         <v>2010</v>
@@ -6327,12 +6327,12 @@
         <v>85</v>
       </c>
       <c r="I35" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="53"/>
       <c r="L35" s="22" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="M35" s="41">
         <v>1</v>
@@ -6343,22 +6343,22 @@
     </row>
     <row r="36" spans="1:14" ht="13">
       <c r="A36" s="49" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="G36" s="58">
         <v>2009</v>
@@ -6367,12 +6367,12 @@
         <v>5</v>
       </c>
       <c r="I36" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="53"/>
       <c r="L36" s="22" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="M36" s="41">
         <v>1</v>
@@ -6383,38 +6383,38 @@
     </row>
     <row r="37" spans="1:14" ht="13">
       <c r="A37" s="49" t="s">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="G37" s="58">
         <v>2007</v>
       </c>
       <c r="H37" s="76" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="I37" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="53" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="M37" s="41">
         <v>1</v>
@@ -6425,22 +6425,22 @@
     </row>
     <row r="38" spans="1:14" ht="13">
       <c r="A38" s="49" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="G38" s="58">
         <v>2007</v>
@@ -6449,12 +6449,12 @@
         <v>5</v>
       </c>
       <c r="I38" s="58" t="s">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="53"/>
       <c r="L38" s="22" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="M38" s="41">
         <v>1</v>
@@ -6465,22 +6465,22 @@
     </row>
     <row r="39" spans="1:14" ht="13">
       <c r="A39" s="49" t="s">
-        <v>393</v>
+        <v>94</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>360</v>
+        <v>195</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>361</v>
+        <v>196</v>
       </c>
       <c r="G39" s="58">
         <v>2002</v>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="53"/>
@@ -6503,19 +6503,19 @@
     </row>
     <row r="40" spans="1:14" ht="13">
       <c r="A40" s="49" t="s">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="58">
@@ -6525,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="53"/>
@@ -6539,22 +6539,22 @@
     </row>
     <row r="41" spans="1:14" ht="13">
       <c r="A41" s="49" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="G41" s="58">
         <v>2006</v>
@@ -6563,12 +6563,12 @@
         <v>8</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="53"/>
       <c r="L41" s="22" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="M41" s="41">
         <v>1</v>
@@ -6579,22 +6579,22 @@
     </row>
     <row r="42" spans="1:14" ht="13">
       <c r="A42" s="49" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>361</v>
+        <v>196</v>
       </c>
       <c r="G42" s="58">
         <v>2004</v>
@@ -6603,12 +6603,12 @@
         <v>3</v>
       </c>
       <c r="I42" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J42" s="21"/>
       <c r="K42" s="53"/>
       <c r="L42" s="22" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="M42" s="41">
         <v>1</v>
@@ -6619,38 +6619,38 @@
     </row>
     <row r="43" spans="1:14" ht="13">
       <c r="A43" s="49" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G43" s="58">
         <v>2012</v>
       </c>
       <c r="H43" s="76" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J43" s="21"/>
       <c r="K43" s="32" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="M43" s="41">
         <v>1</v>
@@ -6661,22 +6661,22 @@
     </row>
     <row r="44" spans="1:14" ht="13">
       <c r="A44" s="49" t="s">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="G44" s="58">
         <v>2009</v>
@@ -6685,12 +6685,12 @@
         <v>3.5</v>
       </c>
       <c r="I44" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="53"/>
       <c r="L44" s="22" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="M44" s="41">
         <v>1</v>
@@ -6701,22 +6701,22 @@
     </row>
     <row r="45" spans="1:14" ht="13">
       <c r="A45" s="49" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="D45" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E45" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>271</v>
-      </c>
       <c r="F45" s="49" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="G45" s="58">
         <v>2009</v>
@@ -6725,12 +6725,12 @@
         <v>10</v>
       </c>
       <c r="I45" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="53"/>
       <c r="L45" s="22" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="M45" s="41">
         <v>1</v>
@@ -6741,22 +6741,22 @@
     </row>
     <row r="46" spans="1:14" ht="13">
       <c r="A46" s="49" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>390</v>
+        <v>91</v>
       </c>
       <c r="G46" s="58">
         <v>2011</v>
@@ -6765,12 +6765,12 @@
         <v>1</v>
       </c>
       <c r="I46" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="53"/>
       <c r="L46" s="22" t="s">
-        <v>391</v>
+        <v>92</v>
       </c>
       <c r="M46" s="41">
         <v>1</v>
@@ -6781,29 +6781,29 @@
     </row>
     <row r="47" spans="1:14" ht="13">
       <c r="A47" s="49" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="G47" s="58">
         <v>2009</v>
       </c>
       <c r="H47" s="76"/>
       <c r="I47" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="53"/>
@@ -6817,22 +6817,22 @@
     </row>
     <row r="48" spans="1:14" ht="13">
       <c r="A48" s="49" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="G48" s="58">
         <v>2007</v>
@@ -6841,12 +6841,12 @@
         <v>3</v>
       </c>
       <c r="I48" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="53"/>
       <c r="L48" s="22" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="M48" s="41">
         <v>1</v>
@@ -6857,22 +6857,22 @@
     </row>
     <row r="49" spans="1:14" ht="13">
       <c r="A49" s="49" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="G49" s="58">
         <v>2010</v>
@@ -6881,12 +6881,12 @@
         <v>5</v>
       </c>
       <c r="I49" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="53"/>
       <c r="L49" s="22" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="M49" s="41">
         <v>1</v>
@@ -6897,22 +6897,22 @@
     </row>
     <row r="50" spans="1:14" ht="13">
       <c r="A50" s="49" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G50" s="58">
         <v>2000</v>
@@ -6921,7 +6921,7 @@
         <v>40</v>
       </c>
       <c r="I50" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J50" s="64"/>
       <c r="K50" s="16"/>
@@ -6938,22 +6938,22 @@
     </row>
     <row r="51" spans="1:14" ht="13">
       <c r="A51" s="49" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>343</v>
+        <v>178</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G51" s="58">
         <v>2008</v>
@@ -6962,12 +6962,12 @@
         <v>20</v>
       </c>
       <c r="I51" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="53"/>
       <c r="L51" s="45" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M51" s="41">
         <v>1</v>
@@ -6978,22 +6978,22 @@
     </row>
     <row r="52" spans="1:14" ht="13">
       <c r="A52" s="49" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F52" s="49" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="G52" s="58">
         <v>2007</v>
@@ -7002,12 +7002,12 @@
         <v>10</v>
       </c>
       <c r="I52" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J52" s="21"/>
       <c r="K52" s="53"/>
       <c r="L52" s="22" t="s">
-        <v>135</v>
+        <v>352</v>
       </c>
       <c r="M52" s="41">
         <v>1</v>
@@ -7018,22 +7018,22 @@
     </row>
     <row r="53" spans="1:14" ht="13">
       <c r="A53" s="49" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="G53" s="58">
         <v>2007</v>
@@ -7042,12 +7042,12 @@
         <v>8.5</v>
       </c>
       <c r="I53" s="58" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="53"/>
       <c r="L53" s="22" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="M53" s="41">
         <v>1</v>
@@ -7058,22 +7058,22 @@
     </row>
     <row r="54" spans="1:14" ht="13">
       <c r="A54" s="49" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="G54" s="58">
         <v>2007</v>
@@ -7082,12 +7082,12 @@
         <v>20</v>
       </c>
       <c r="I54" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="53"/>
       <c r="L54" s="22" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="M54" s="41">
         <v>1</v>
@@ -7098,22 +7098,22 @@
     </row>
     <row r="55" spans="1:14" ht="13">
       <c r="A55" s="49" t="s">
-        <v>396</v>
+        <v>97</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G55" s="58">
         <v>2009</v>
@@ -7122,12 +7122,12 @@
         <v>26</v>
       </c>
       <c r="I55" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="53"/>
       <c r="L55" s="22" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="M55" s="41">
         <v>1</v>
@@ -7138,22 +7138,22 @@
     </row>
     <row r="56" spans="1:14" ht="13">
       <c r="A56" s="49" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G56" s="58">
         <v>2009</v>
@@ -7162,12 +7162,12 @@
         <v>5</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="53"/>
       <c r="L56" s="22" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="M56" s="41">
         <v>1</v>
@@ -7178,22 +7178,22 @@
     </row>
     <row r="57" spans="1:14" ht="13">
       <c r="A57" s="49" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G57" s="58">
         <v>2009</v>
@@ -7202,7 +7202,7 @@
         <v>0.1</v>
       </c>
       <c r="I57" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="53"/>
@@ -7219,22 +7219,22 @@
     </row>
     <row r="58" spans="1:14" ht="13">
       <c r="A58" s="49" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>154</v>
+        <v>370</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>155</v>
+        <v>371</v>
       </c>
       <c r="G58" s="58">
         <v>2010</v>
@@ -7243,12 +7243,12 @@
         <v>9</v>
       </c>
       <c r="I58" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J58" s="21"/>
       <c r="K58" s="53"/>
       <c r="L58" s="22" t="s">
-        <v>156</v>
+        <v>372</v>
       </c>
       <c r="M58" s="41">
         <v>1</v>
@@ -7259,36 +7259,36 @@
     </row>
     <row r="59" spans="1:14" ht="13">
       <c r="A59" s="49" t="s">
-        <v>157</v>
+        <v>373</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
       <c r="G59" s="58">
         <v>2008</v>
       </c>
       <c r="H59" s="76" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="I59" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="53"/>
       <c r="L59" s="22" t="s">
-        <v>159</v>
+        <v>375</v>
       </c>
       <c r="M59" s="41">
         <v>1</v>
@@ -7299,22 +7299,22 @@
     </row>
     <row r="60" spans="1:14" ht="13">
       <c r="A60" s="49" t="s">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>160</v>
+        <v>376</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>161</v>
+        <v>377</v>
       </c>
       <c r="G60" s="58">
         <v>2004</v>
@@ -7323,7 +7323,7 @@
         <v>45</v>
       </c>
       <c r="I60" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="53"/>
@@ -7337,22 +7337,22 @@
     </row>
     <row r="61" spans="1:14" ht="13">
       <c r="A61" s="49" t="s">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>162</v>
+        <v>378</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G61" s="58">
         <v>2009</v>
@@ -7361,12 +7361,12 @@
         <v>10</v>
       </c>
       <c r="I61" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="53"/>
       <c r="L61" s="22" t="s">
-        <v>163</v>
+        <v>379</v>
       </c>
       <c r="M61" s="41">
         <v>1</v>
@@ -7377,22 +7377,22 @@
     </row>
     <row r="62" spans="1:14" ht="13">
       <c r="A62" s="49" t="s">
-        <v>164</v>
+        <v>380</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="E62" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>165</v>
+        <v>381</v>
       </c>
       <c r="G62" s="58">
         <v>2007</v>
@@ -7401,12 +7401,12 @@
         <v>15</v>
       </c>
       <c r="I62" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="53"/>
       <c r="L62" s="22" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
       <c r="M62" s="41">
         <v>1</v>
@@ -7417,22 +7417,22 @@
     </row>
     <row r="63" spans="1:14" ht="13">
       <c r="A63" s="49" t="s">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="E63" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>170</v>
+        <v>386</v>
       </c>
       <c r="G63" s="58">
         <v>2007</v>
@@ -7441,12 +7441,12 @@
         <v>25</v>
       </c>
       <c r="I63" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="53"/>
       <c r="L63" s="22" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="M63" s="41">
         <v>1</v>
@@ -7457,36 +7457,36 @@
     </row>
     <row r="64" spans="1:14" ht="13">
       <c r="A64" s="49" t="s">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>316</v>
+        <v>151</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="G64" s="58">
         <v>2010</v>
       </c>
       <c r="H64" s="76" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="I64" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J64" s="21"/>
       <c r="K64" s="53"/>
       <c r="L64" s="22" t="s">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="M64" s="41">
         <v>1</v>
@@ -7497,22 +7497,22 @@
     </row>
     <row r="65" spans="1:14" ht="13">
       <c r="A65" s="49" t="s">
-        <v>472</v>
+        <v>40</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E65" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="G65" s="58">
         <v>2011</v>
@@ -7521,12 +7521,12 @@
         <v>3</v>
       </c>
       <c r="I65" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J65" s="21"/>
       <c r="K65" s="53"/>
       <c r="L65" s="22" t="s">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c r="M65" s="41">
         <v>1</v>
@@ -7537,22 +7537,22 @@
     </row>
     <row r="66" spans="1:14" ht="13">
       <c r="A66" s="49" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>426</v>
+        <v>127</v>
       </c>
       <c r="G66" s="58">
         <v>2005</v>
@@ -7561,12 +7561,12 @@
         <v>8</v>
       </c>
       <c r="I66" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="53"/>
       <c r="L66" s="22" t="s">
-        <v>180</v>
+        <v>396</v>
       </c>
       <c r="M66" s="41">
         <v>1</v>
@@ -7577,22 +7577,22 @@
     </row>
     <row r="67" spans="1:14" ht="13">
       <c r="A67" s="49" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="G67" s="58">
         <v>2010</v>
@@ -7601,14 +7601,14 @@
         <v>3</v>
       </c>
       <c r="I67" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J67" s="21">
         <v>1.5</v>
       </c>
       <c r="K67" s="53"/>
       <c r="L67" s="22" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="M67" s="41">
         <v>1</v>
@@ -7619,22 +7619,22 @@
     </row>
     <row r="68" spans="1:14" ht="13">
       <c r="A68" s="49" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="G68" s="58">
         <v>2004</v>
@@ -7643,12 +7643,12 @@
         <v>2</v>
       </c>
       <c r="I68" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="53"/>
       <c r="L68" s="22" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="M68" s="41">
         <v>1</v>
@@ -7659,22 +7659,22 @@
     </row>
     <row r="69" spans="1:14" ht="13">
       <c r="A69" s="49" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="G69" s="58">
         <v>2011</v>
@@ -7683,12 +7683,12 @@
         <v>10</v>
       </c>
       <c r="I69" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="53"/>
       <c r="L69" s="22" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="M69" s="41">
         <v>1</v>
@@ -7699,22 +7699,22 @@
     </row>
     <row r="70" spans="1:14" ht="13">
       <c r="A70" s="49" t="s">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C70" s="49" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G70" s="58">
         <v>2009</v>
@@ -7723,14 +7723,14 @@
         <v>20</v>
       </c>
       <c r="I70" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="M70" s="41">
         <v>1</v>
@@ -7741,22 +7741,22 @@
     </row>
     <row r="71" spans="1:14" ht="13">
       <c r="A71" s="49" t="s">
-        <v>474</v>
+        <v>42</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E71" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G71" s="58">
         <v>2010</v>
@@ -7765,12 +7765,12 @@
         <v>24</v>
       </c>
       <c r="I71" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="53"/>
       <c r="L71" s="22" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="M71" s="41">
         <v>1</v>
@@ -7781,22 +7781,22 @@
     </row>
     <row r="72" spans="1:14" ht="13">
       <c r="A72" s="49" t="s">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C72" s="49" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="G72" s="58">
         <v>2011</v>
@@ -7805,12 +7805,12 @@
         <v>2.25</v>
       </c>
       <c r="I72" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J72" s="21"/>
       <c r="K72" s="53"/>
       <c r="L72" s="22" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="M72" s="41">
         <v>1</v>
@@ -7821,22 +7821,22 @@
     </row>
     <row r="73" spans="1:14" ht="13">
       <c r="A73" s="49" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G73" s="58">
         <v>2007</v>
@@ -7845,12 +7845,12 @@
         <v>5.5</v>
       </c>
       <c r="I73" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="53"/>
       <c r="L73" s="22" t="s">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="M73" s="41">
         <v>1</v>
@@ -7861,22 +7861,22 @@
     </row>
     <row r="74" spans="1:14" ht="13">
       <c r="A74" s="49" t="s">
-        <v>84</v>
+        <v>422</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F74" s="49" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G74" s="58">
         <v>2009</v>
@@ -7885,12 +7885,12 @@
         <v>3.5</v>
       </c>
       <c r="I74" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="53"/>
       <c r="L74" s="22" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
       <c r="M74" s="41">
         <v>1</v>
@@ -7901,22 +7901,22 @@
     </row>
     <row r="75" spans="1:14" ht="13">
       <c r="A75" s="49" t="s">
-        <v>87</v>
+        <v>425</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G75" s="58">
         <v>2008</v>
@@ -7925,12 +7925,12 @@
         <v>4</v>
       </c>
       <c r="I75" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="53"/>
       <c r="L75" s="22" t="s">
-        <v>88</v>
+        <v>426</v>
       </c>
       <c r="M75" s="41">
         <v>1</v>
@@ -7941,22 +7941,22 @@
     </row>
     <row r="76" spans="1:14" ht="13">
       <c r="A76" s="49" t="s">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>90</v>
+        <v>428</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F76" s="49" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
       <c r="G76" s="58">
         <v>2010</v>
@@ -7965,12 +7965,12 @@
         <v>2.5</v>
       </c>
       <c r="I76" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="53"/>
       <c r="L76" s="22" t="s">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="M76" s="41">
         <v>1</v>
@@ -7981,22 +7981,22 @@
     </row>
     <row r="77" spans="1:14" ht="13">
       <c r="A77" s="49" t="s">
-        <v>93</v>
+        <v>431</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C77" s="49" t="s">
-        <v>94</v>
+        <v>432</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E77" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F77" s="65" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G77" s="58">
         <v>2009</v>
@@ -8005,12 +8005,12 @@
         <v>6</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="53"/>
       <c r="L77" s="22" t="s">
-        <v>95</v>
+        <v>433</v>
       </c>
       <c r="M77" s="41">
         <v>1</v>
@@ -8021,22 +8021,22 @@
     </row>
     <row r="78" spans="1:14" ht="13">
       <c r="A78" s="49" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="D78" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E78" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F78" s="65" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G78" s="58">
         <v>2006</v>
@@ -8045,12 +8045,12 @@
         <v>2.6</v>
       </c>
       <c r="I78" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="53"/>
       <c r="L78" s="22" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
       <c r="M78" s="41">
         <v>1</v>
@@ -8061,58 +8061,58 @@
     </row>
     <row r="79" spans="1:14" ht="13">
       <c r="A79" s="49" t="s">
-        <v>96</v>
+        <v>434</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="D79" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E79" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F79" s="65" t="s">
-        <v>99</v>
+        <v>437</v>
       </c>
       <c r="G79" s="58">
         <v>1999</v>
       </c>
       <c r="H79" s="76" t="s">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="I79" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="53"/>
       <c r="L79" s="22" t="s">
-        <v>101</v>
+        <v>439</v>
       </c>
       <c r="M79" s="41"/>
       <c r="N79" s="70"/>
     </row>
     <row r="80" spans="1:14" ht="13">
       <c r="A80" s="59" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="D80" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E80" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F80" s="59" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="G80" s="58">
         <v>2003</v>
@@ -8121,12 +8121,12 @@
         <v>6</v>
       </c>
       <c r="I80" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="53"/>
       <c r="L80" s="22" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="M80" s="41">
         <v>1</v>
@@ -8137,22 +8137,22 @@
     </row>
     <row r="81" spans="1:14" ht="13">
       <c r="A81" s="59" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="D81" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E81" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G81" s="30">
         <v>2006</v>
@@ -8161,7 +8161,7 @@
         <v>3</v>
       </c>
       <c r="I81" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="53"/>
@@ -8175,22 +8175,22 @@
     </row>
     <row r="82" spans="1:14" ht="13">
       <c r="A82" s="59" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C82" s="59" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="D82" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E82" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F82" s="59" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="G82" s="58">
         <v>2010</v>
@@ -8199,7 +8199,7 @@
         <v>2.75</v>
       </c>
       <c r="I82" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="53"/>
@@ -8213,22 +8213,22 @@
     </row>
     <row r="83" spans="1:14" ht="13">
       <c r="A83" s="59" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C83" s="59" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="D83" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E83" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F83" s="59" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="G83" s="58">
         <v>2010</v>
@@ -8237,7 +8237,7 @@
         <v>3.75</v>
       </c>
       <c r="I83" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="53"/>
@@ -8251,22 +8251,22 @@
     </row>
     <row r="84" spans="1:14" ht="13">
       <c r="A84" s="59" t="s">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="D84" s="59" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="E84" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F84" s="59" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G84" s="58">
         <v>2010</v>
@@ -8275,7 +8275,7 @@
         <v>5.2</v>
       </c>
       <c r="I84" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J84" s="21"/>
       <c r="K84" s="53"/>
@@ -8289,22 +8289,22 @@
     </row>
     <row r="85" spans="1:14" ht="13">
       <c r="A85" s="49" t="s">
-        <v>476</v>
+        <v>44</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C85" s="59" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D85" s="59" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E85" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>111</v>
+        <v>449</v>
       </c>
       <c r="G85" s="58">
         <v>2008</v>
@@ -8313,12 +8313,12 @@
         <v>5</v>
       </c>
       <c r="I85" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="53"/>
       <c r="L85" s="22" t="s">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="M85" s="41">
         <v>1</v>
@@ -8329,22 +8329,22 @@
     </row>
     <row r="86" spans="1:14" ht="13">
       <c r="A86" s="49" t="s">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="B86" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C86" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="D86" s="49" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E86" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>114</v>
+        <v>452</v>
       </c>
       <c r="G86" s="1">
         <v>1973</v>
@@ -8353,12 +8353,12 @@
         <v>16.55</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J86" s="24"/>
       <c r="K86" s="60"/>
       <c r="L86" s="22" t="s">
-        <v>115</v>
+        <v>453</v>
       </c>
       <c r="M86" s="41">
         <v>1</v>
@@ -8369,22 +8369,22 @@
     </row>
     <row r="87" spans="1:14" ht="13">
       <c r="A87" s="49" t="s">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="B87" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C87" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="D87" s="49" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E87" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="60" t="s">
         <v>454</v>
-      </c>
-      <c r="F87" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="G87" s="1">
         <v>1991</v>
@@ -8393,7 +8393,7 @@
         <v>71</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J87" s="24"/>
       <c r="K87" s="60"/>
@@ -8407,22 +8407,22 @@
     </row>
     <row r="88" spans="1:14" ht="13">
       <c r="A88" s="49" t="s">
-        <v>478</v>
+        <v>46</v>
       </c>
       <c r="B88" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C88" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="D88" s="49" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E88" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="G88" s="27">
         <v>2004</v>
@@ -8431,7 +8431,7 @@
         <v>200</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J88" s="24"/>
       <c r="K88" s="60"/>
@@ -8445,22 +8445,22 @@
     </row>
     <row r="89" spans="1:14" ht="13">
       <c r="A89" s="49" t="s">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="B89" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C89" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="D89" s="49" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="G89" s="58">
         <v>2005</v>
@@ -8469,7 +8469,7 @@
         <v>2.8</v>
       </c>
       <c r="I89" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="53"/>
@@ -8483,22 +8483,22 @@
     </row>
     <row r="90" spans="1:14" ht="13">
       <c r="A90" s="49" t="s">
-        <v>479</v>
+        <v>47</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C90" s="49" t="s">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="G90" s="58">
         <v>2010</v>
@@ -8507,12 +8507,12 @@
         <v>3</v>
       </c>
       <c r="I90" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J90" s="21"/>
       <c r="K90" s="53"/>
       <c r="L90" s="22" t="s">
-        <v>137</v>
+        <v>354</v>
       </c>
       <c r="M90" s="66">
         <v>1</v>
@@ -8523,22 +8523,22 @@
     </row>
     <row r="91" spans="1:14" ht="13">
       <c r="A91" s="49" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C91" s="59" t="s">
-        <v>139</v>
+        <v>356</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="G91" s="58">
         <v>2007</v>
@@ -8547,14 +8547,14 @@
         <v>20.25</v>
       </c>
       <c r="I91" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J91" s="21"/>
       <c r="K91" s="17" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="M91" s="66">
         <v>1</v>
@@ -8565,22 +8565,22 @@
     </row>
     <row r="92" spans="1:14" ht="13">
       <c r="A92" s="54" t="s">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C92" s="54" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="D92" s="54" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
       <c r="E92" s="54" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F92" s="49" t="s">
-        <v>146</v>
+        <v>363</v>
       </c>
       <c r="G92" s="58">
         <v>2006</v>
@@ -8589,12 +8589,12 @@
         <v>5</v>
       </c>
       <c r="I92" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="37"/>
       <c r="L92" s="22" t="s">
-        <v>147</v>
+        <v>364</v>
       </c>
       <c r="M92" s="66">
         <v>1</v>
@@ -8605,22 +8605,22 @@
     </row>
     <row r="93" spans="1:14" ht="13">
       <c r="A93" s="77" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C93" s="59" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F93" s="49" t="s">
-        <v>426</v>
+        <v>127</v>
       </c>
       <c r="G93" s="58">
         <v>2012</v>
@@ -8629,14 +8629,14 @@
         <v>4</v>
       </c>
       <c r="I93" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="53" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="M93" s="41">
         <v>1</v>
@@ -8647,22 +8647,22 @@
     </row>
     <row r="94" spans="1:14" ht="13">
       <c r="A94" s="49" t="s">
-        <v>480</v>
+        <v>48</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F94" s="49" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="G94" s="26">
         <v>2003</v>
@@ -8671,14 +8671,14 @@
         <v>2</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J94" s="21"/>
       <c r="K94" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>18</v>
+        <v>474</v>
       </c>
       <c r="M94" s="41">
         <v>1</v>
@@ -8689,22 +8689,22 @@
     </row>
     <row r="95" spans="1:14" ht="13">
       <c r="A95" s="49" t="s">
-        <v>480</v>
+        <v>48</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C95" s="49" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="E95" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="G95" s="1">
         <v>2007</v>
@@ -8713,7 +8713,7 @@
         <v>14</v>
       </c>
       <c r="I95" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J95" s="21"/>
       <c r="K95" s="53"/>
@@ -8727,22 +8727,22 @@
     </row>
     <row r="96" spans="1:14" ht="13">
       <c r="A96" s="49" t="s">
-        <v>481</v>
+        <v>49</v>
       </c>
       <c r="B96" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>21</v>
+        <v>477</v>
       </c>
       <c r="G96" s="30">
         <v>1997</v>
@@ -8751,14 +8751,14 @@
         <v>0.25</v>
       </c>
       <c r="I96" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J96" s="21"/>
       <c r="K96" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="M96" s="41">
         <v>1</v>
@@ -8769,22 +8769,22 @@
     </row>
     <row r="97" spans="1:14" ht="13">
       <c r="A97" s="49" t="s">
-        <v>481</v>
+        <v>49</v>
       </c>
       <c r="B97" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F97" s="49" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="G97" s="58">
         <v>2007</v>
@@ -8793,12 +8793,12 @@
         <v>4</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J97" s="24"/>
       <c r="K97" s="60"/>
       <c r="L97" s="28" t="s">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="M97" s="41">
         <v>0</v>
@@ -8809,22 +8809,22 @@
     </row>
     <row r="98" spans="1:14" ht="13">
       <c r="A98" s="49" t="s">
-        <v>25</v>
+        <v>481</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>26</v>
+        <v>482</v>
       </c>
       <c r="D98" s="59" t="s">
-        <v>370</v>
+        <v>205</v>
       </c>
       <c r="E98" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F98" s="49" t="s">
-        <v>27</v>
+        <v>483</v>
       </c>
       <c r="G98" s="58">
         <v>2009</v>
@@ -8833,12 +8833,12 @@
         <v>3</v>
       </c>
       <c r="I98" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J98" s="21"/>
       <c r="K98" s="53"/>
       <c r="L98" s="22" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="M98" s="41">
         <v>1</v>
@@ -8849,22 +8849,22 @@
     </row>
     <row r="99" spans="1:14" ht="13">
       <c r="A99" s="49" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C99" s="59" t="s">
-        <v>30</v>
+        <v>486</v>
       </c>
       <c r="D99" s="59" t="s">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="E99" s="59" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F99" s="49" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
       <c r="G99" s="58">
         <v>2007</v>
@@ -8873,14 +8873,14 @@
         <v>6</v>
       </c>
       <c r="I99" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="M99" s="41">
         <v>1</v>
@@ -8891,22 +8891,22 @@
     </row>
     <row r="100" spans="1:14" ht="13">
       <c r="A100" s="49" t="s">
-        <v>33</v>
+        <v>489</v>
       </c>
       <c r="B100" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F100" s="49" t="s">
-        <v>35</v>
+        <v>491</v>
       </c>
       <c r="G100" s="58">
         <v>2007</v>
@@ -8915,12 +8915,12 @@
         <v>10</v>
       </c>
       <c r="I100" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J100" s="21"/>
       <c r="K100" s="53"/>
       <c r="L100" s="22" t="s">
-        <v>171</v>
+        <v>387</v>
       </c>
       <c r="M100" s="41">
         <v>1</v>
@@ -8931,22 +8931,22 @@
     </row>
     <row r="101" spans="1:14" ht="13">
       <c r="A101" s="49" t="s">
-        <v>482</v>
+        <v>50</v>
       </c>
       <c r="B101" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>172</v>
+        <v>388</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>421</v>
+        <v>122</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F101" s="49" t="s">
-        <v>173</v>
+        <v>389</v>
       </c>
       <c r="G101" s="58">
         <v>2009</v>
@@ -8955,12 +8955,12 @@
         <v>1</v>
       </c>
       <c r="I101" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J101" s="21"/>
       <c r="K101" s="53"/>
       <c r="L101" s="22" t="s">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="M101" s="41">
         <v>1</v>
@@ -8971,19 +8971,19 @@
     </row>
     <row r="102" spans="1:14" ht="13">
       <c r="A102" s="49" t="s">
-        <v>175</v>
+        <v>391</v>
       </c>
       <c r="B102" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>176</v>
+        <v>392</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="58">
@@ -8993,12 +8993,12 @@
         <v>4</v>
       </c>
       <c r="I102" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J102" s="21"/>
       <c r="K102" s="53"/>
       <c r="L102" s="22" t="s">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="M102" s="41">
         <v>1</v>
@@ -9009,22 +9009,22 @@
     </row>
     <row r="103" spans="1:14" ht="13">
       <c r="A103" s="49" t="s">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="B103" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>178</v>
+        <v>394</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F103" s="49" t="s">
-        <v>179</v>
+        <v>395</v>
       </c>
       <c r="G103" s="58">
         <v>2010</v>
@@ -9033,14 +9033,14 @@
         <v>4</v>
       </c>
       <c r="I103" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J103" s="21"/>
       <c r="K103" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>45</v>
+        <v>501</v>
       </c>
       <c r="M103" s="41">
         <v>1</v>
@@ -9051,22 +9051,22 @@
     </row>
     <row r="104" spans="1:14" ht="13">
       <c r="A104" s="49" t="s">
-        <v>46</v>
+        <v>502</v>
       </c>
       <c r="B104" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>47</v>
+        <v>503</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>48</v>
+        <v>504</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F104" s="49" t="s">
-        <v>49</v>
+        <v>505</v>
       </c>
       <c r="G104" s="58">
         <v>2011</v>
@@ -9075,14 +9075,14 @@
         <v>5</v>
       </c>
       <c r="I104" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J104" s="21"/>
       <c r="K104" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>50</v>
+        <v>506</v>
       </c>
       <c r="M104" s="41">
         <v>1</v>
@@ -9093,22 +9093,22 @@
     </row>
     <row r="105" spans="1:14" ht="13">
       <c r="A105" s="49" t="s">
-        <v>51</v>
+        <v>507</v>
       </c>
       <c r="B105" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>52</v>
+        <v>508</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F105" s="49" t="s">
-        <v>54</v>
+        <v>510</v>
       </c>
       <c r="G105" s="58">
         <v>1995</v>
@@ -9117,12 +9117,12 @@
         <v>1</v>
       </c>
       <c r="I105" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J105" s="21"/>
       <c r="K105" s="53"/>
       <c r="L105" s="22" t="s">
-        <v>55</v>
+        <v>511</v>
       </c>
       <c r="M105" s="41">
         <v>1</v>
@@ -9133,22 +9133,22 @@
     </row>
     <row r="106" spans="1:14" ht="13">
       <c r="A106" s="49" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="B106" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="D106" s="49" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="E106" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F106" s="49" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="G106" s="58">
         <v>2004</v>
@@ -9157,12 +9157,12 @@
         <v>4</v>
       </c>
       <c r="I106" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J106" s="21"/>
       <c r="K106" s="53"/>
       <c r="L106" s="22" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="M106" s="41">
         <v>1</v>
@@ -9173,22 +9173,22 @@
     </row>
     <row r="107" spans="1:14" ht="13">
       <c r="A107" s="49" t="s">
-        <v>483</v>
+        <v>51</v>
       </c>
       <c r="B107" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F107" s="49" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="G107" s="58">
         <v>2007</v>
@@ -9197,12 +9197,12 @@
         <v>2</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J107" s="21"/>
       <c r="K107" s="53"/>
       <c r="L107" s="22" t="s">
-        <v>73</v>
+        <v>411</v>
       </c>
       <c r="M107" s="41">
         <v>1</v>
@@ -9213,22 +9213,22 @@
     </row>
     <row r="108" spans="1:14" ht="13">
       <c r="A108" s="49" t="s">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F108" s="49" t="s">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="G108" s="58">
         <v>2010</v>
@@ -9237,7 +9237,7 @@
         <v>5</v>
       </c>
       <c r="I108" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J108" s="21"/>
       <c r="K108" s="53"/>
@@ -9251,22 +9251,22 @@
     </row>
     <row r="109" spans="1:14" ht="13">
       <c r="A109" s="49" t="s">
-        <v>484</v>
+        <v>52</v>
       </c>
       <c r="B109" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="D109" s="49" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="E109" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F109" s="49" t="s">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="G109" s="58">
         <v>2004</v>
@@ -9275,12 +9275,12 @@
         <v>2</v>
       </c>
       <c r="I109" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J109" s="21"/>
       <c r="K109" s="53"/>
       <c r="L109" s="22" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="M109" s="41">
         <v>1</v>
@@ -9291,22 +9291,22 @@
     </row>
     <row r="110" spans="1:14" ht="13">
       <c r="A110" s="49" t="s">
-        <v>485</v>
+        <v>53</v>
       </c>
       <c r="B110" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="G110" s="58">
         <v>2010</v>
@@ -9315,12 +9315,12 @@
         <v>5</v>
       </c>
       <c r="I110" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J110" s="21"/>
       <c r="K110" s="53"/>
       <c r="L110" s="22" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="M110" s="41">
         <v>1</v>
@@ -9331,22 +9331,22 @@
     </row>
     <row r="111" spans="1:14" ht="13">
       <c r="A111" s="49" t="s">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>72</v>
+        <v>410</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="E111" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F111" s="65" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G111" s="58">
         <v>2011</v>
@@ -9355,12 +9355,12 @@
         <v>1</v>
       </c>
       <c r="I111" s="58" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="J111" s="21"/>
       <c r="K111" s="53"/>
       <c r="L111" s="22" t="s">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="M111" s="41">
         <v>1</v>
@@ -9371,22 +9371,22 @@
     </row>
     <row r="112" spans="1:14" ht="13">
       <c r="A112" s="49" t="s">
-        <v>486</v>
+        <v>54</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C112" s="49" t="s">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E112" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F112" s="65" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="G112" s="58">
         <v>2007</v>
@@ -9395,12 +9395,12 @@
         <v>10</v>
       </c>
       <c r="I112" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J112" s="21"/>
       <c r="K112" s="53"/>
       <c r="L112" s="22" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="M112" s="41">
         <v>1</v>
@@ -9411,22 +9411,22 @@
     </row>
     <row r="113" spans="1:14" ht="13">
       <c r="A113" s="49" t="s">
-        <v>487</v>
+        <v>55</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>3</v>
+        <v>459</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="G113" s="58">
         <v>2005</v>
@@ -9435,12 +9435,12 @@
         <v>16</v>
       </c>
       <c r="I113" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J113" s="21"/>
       <c r="K113" s="53"/>
       <c r="L113" s="22" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="M113" s="41">
         <v>1</v>
@@ -9451,22 +9451,22 @@
     </row>
     <row r="114" spans="1:14" ht="13">
       <c r="A114" s="49" t="s">
-        <v>488</v>
+        <v>56</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="D114" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F114" s="49" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="G114" s="58">
         <v>2010</v>
@@ -9475,12 +9475,12 @@
         <v>5</v>
       </c>
       <c r="I114" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J114" s="21"/>
       <c r="K114" s="53"/>
       <c r="L114" s="22" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="M114" s="41">
         <v>1</v>
@@ -9491,22 +9491,22 @@
     </row>
     <row r="115" spans="1:14" ht="13">
       <c r="A115" s="49" t="s">
-        <v>489</v>
+        <v>57</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>8</v>
+        <v>464</v>
       </c>
       <c r="D115" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F115" s="49" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="G115" s="58">
         <v>2010</v>
@@ -9515,12 +9515,12 @@
         <v>5</v>
       </c>
       <c r="I115" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J115" s="21"/>
       <c r="K115" s="53"/>
       <c r="L115" s="22" t="s">
-        <v>9</v>
+        <v>465</v>
       </c>
       <c r="M115" s="41">
         <v>1</v>
@@ -9531,22 +9531,22 @@
     </row>
     <row r="116" spans="1:14" ht="13">
       <c r="A116" s="49" t="s">
-        <v>490</v>
+        <v>58</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>10</v>
+        <v>466</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E116" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F116" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G116" s="58">
         <v>2010</v>
@@ -9555,11 +9555,11 @@
         <v>3</v>
       </c>
       <c r="I116" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J116" s="21"/>
       <c r="K116" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L116" s="22"/>
       <c r="M116" s="41">
@@ -9571,22 +9571,22 @@
     </row>
     <row r="117" spans="1:14" ht="13">
       <c r="A117" s="49" t="s">
-        <v>11</v>
+        <v>467</v>
       </c>
       <c r="B117" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="D117" s="49" t="s">
-        <v>13</v>
+        <v>469</v>
       </c>
       <c r="E117" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F117" s="49" t="s">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="G117" s="58">
         <v>2009</v>
@@ -9595,12 +9595,12 @@
         <v>2.5</v>
       </c>
       <c r="I117" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J117" s="21"/>
       <c r="K117" s="53"/>
       <c r="L117" s="22" t="s">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="M117" s="41">
         <v>1</v>
@@ -9611,22 +9611,22 @@
     </row>
     <row r="118" spans="1:14" ht="13">
       <c r="A118" s="49" t="s">
-        <v>491</v>
+        <v>59</v>
       </c>
       <c r="B118" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="D118" s="49" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="E118" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F118" s="49" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="G118" s="58">
         <v>2008</v>
@@ -9635,12 +9635,12 @@
         <v>10</v>
       </c>
       <c r="I118" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J118" s="21"/>
       <c r="K118" s="53"/>
       <c r="L118" s="22" t="s">
-        <v>108</v>
+        <v>446</v>
       </c>
       <c r="M118" s="41">
         <v>1</v>
@@ -9651,22 +9651,22 @@
     </row>
     <row r="119" spans="1:14" ht="13">
       <c r="A119" s="49" t="s">
-        <v>109</v>
+        <v>447</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E119" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F119" s="49" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G119" s="58">
         <v>2010</v>
@@ -9675,12 +9675,12 @@
         <v>5</v>
       </c>
       <c r="I119" s="58" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="J119" s="21"/>
       <c r="K119" s="53"/>
       <c r="L119" s="80" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="M119" s="67">
         <v>1</v>
@@ -9691,22 +9691,22 @@
     </row>
     <row r="120" spans="1:14" ht="13">
       <c r="A120" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="B120" s="58" t="s">
-        <v>451</v>
-      </c>
-      <c r="C120" s="49" t="s">
-        <v>36</v>
-      </c>
       <c r="D120" s="49" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E120" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G120" s="58">
         <v>2009</v>
@@ -9715,14 +9715,14 @@
         <v>10</v>
       </c>
       <c r="I120" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J120" s="74"/>
       <c r="K120" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L120" s="83" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="M120" s="67">
         <v>1</v>
@@ -9733,19 +9733,19 @@
     </row>
     <row r="121" spans="1:14" ht="13">
       <c r="A121" s="49" t="s">
-        <v>493</v>
+        <v>61</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>38</v>
+        <v>494</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E121" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="58">
@@ -9755,7 +9755,7 @@
         <v>3.38</v>
       </c>
       <c r="I121" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J121" s="74"/>
       <c r="K121" s="12"/>
@@ -9769,22 +9769,22 @@
     </row>
     <row r="122" spans="1:14" ht="13">
       <c r="A122" s="49" t="s">
-        <v>494</v>
+        <v>62</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C122" s="49" t="s">
-        <v>39</v>
+        <v>495</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="E122" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F122" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G122" s="58">
         <v>2008</v>
@@ -9793,12 +9793,12 @@
         <v>5</v>
       </c>
       <c r="I122" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J122" s="21"/>
       <c r="K122" s="53"/>
       <c r="L122" s="22" t="s">
-        <v>40</v>
+        <v>496</v>
       </c>
       <c r="M122" s="41">
         <v>1</v>
@@ -9809,22 +9809,22 @@
     </row>
     <row r="123" spans="1:14" ht="13">
       <c r="A123" s="49" t="s">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="B123" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C123" s="49" t="s">
-        <v>42</v>
+        <v>498</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>43</v>
+        <v>499</v>
       </c>
       <c r="E123" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F123" s="49" t="s">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="G123" s="58">
         <v>2009</v>
@@ -9833,7 +9833,7 @@
         <v>8</v>
       </c>
       <c r="I123" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J123" s="74"/>
       <c r="K123" s="12"/>
@@ -9847,22 +9847,22 @@
     </row>
     <row r="124" spans="1:14" ht="13">
       <c r="A124" s="49" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="B124" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C124" s="49" t="s">
-        <v>120</v>
+        <v>337</v>
       </c>
       <c r="D124" s="49" t="s">
-        <v>13</v>
+        <v>469</v>
       </c>
       <c r="E124" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F124" s="49" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="G124" s="58">
         <v>2011</v>
@@ -9871,12 +9871,12 @@
         <v>3</v>
       </c>
       <c r="I124" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J124" s="74"/>
       <c r="K124" s="12"/>
       <c r="L124" s="7" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="M124" s="41">
         <v>1</v>
@@ -9887,19 +9887,19 @@
     </row>
     <row r="125" spans="1:14" ht="13">
       <c r="A125" s="49" t="s">
-        <v>123</v>
+        <v>340</v>
       </c>
       <c r="B125" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>453</v>
+        <v>21</v>
       </c>
       <c r="E125" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="58">
@@ -9909,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="I125" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J125" s="74"/>
       <c r="K125" s="12"/>
@@ -9923,22 +9923,22 @@
     </row>
     <row r="126" spans="1:14" ht="13">
       <c r="A126" s="49" t="s">
-        <v>465</v>
+        <v>33</v>
       </c>
       <c r="B126" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C126" s="49" t="s">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E126" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F126" s="49" t="s">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="G126" s="58">
         <v>2011</v>
@@ -9947,36 +9947,36 @@
         <v>5</v>
       </c>
       <c r="I126" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J126" s="74"/>
       <c r="K126" s="12" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="M126" s="41"/>
       <c r="N126" s="70"/>
     </row>
     <row r="127" spans="1:14" ht="13">
       <c r="A127" s="49" t="s">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="B127" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C127" s="49" t="s">
-        <v>129</v>
+        <v>346</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E127" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F127" s="49" t="s">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="G127" s="58">
         <v>2009</v>
@@ -9985,12 +9985,12 @@
         <v>5</v>
       </c>
       <c r="I127" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J127" s="21"/>
       <c r="K127" s="53"/>
       <c r="L127" s="22" t="s">
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="M127" s="41">
         <v>1</v>
@@ -10001,22 +10001,22 @@
     </row>
     <row r="128" spans="1:14" ht="13">
       <c r="A128" s="49" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="B128" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C128" s="49" t="s">
-        <v>132</v>
+        <v>349</v>
       </c>
       <c r="D128" s="49" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F128" s="49" t="s">
-        <v>422</v>
+        <v>123</v>
       </c>
       <c r="G128" s="58">
         <v>2010</v>
@@ -10025,12 +10025,12 @@
         <v>8</v>
       </c>
       <c r="I128" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J128" s="21"/>
       <c r="K128" s="53"/>
       <c r="L128" s="22" t="s">
-        <v>15</v>
+        <v>471</v>
       </c>
       <c r="M128" s="41">
         <v>1</v>
@@ -10041,22 +10041,22 @@
     </row>
     <row r="129" spans="1:14" ht="13">
       <c r="A129" s="49" t="s">
-        <v>466</v>
+        <v>34</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C129" s="49" t="s">
-        <v>16</v>
+        <v>472</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F129" s="49" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="G129" s="58">
         <v>2010</v>
@@ -10065,12 +10065,12 @@
         <v>4.5</v>
       </c>
       <c r="I129" s="58" t="s">
-        <v>456</v>
+        <v>24</v>
       </c>
       <c r="J129" s="21"/>
       <c r="K129" s="53"/>
       <c r="L129" s="22" t="s">
-        <v>59</v>
+        <v>397</v>
       </c>
       <c r="M129" s="41">
         <v>1</v>
@@ -10081,22 +10081,22 @@
     </row>
     <row r="130" spans="1:14" ht="13">
       <c r="A130" s="49" t="s">
-        <v>60</v>
+        <v>398</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C130" s="59" t="s">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F130" s="49" t="s">
-        <v>165</v>
+        <v>381</v>
       </c>
       <c r="G130" s="58">
         <v>2005</v>
@@ -10105,14 +10105,14 @@
         <v>21</v>
       </c>
       <c r="I130" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J130" s="21"/>
       <c r="K130" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>62</v>
+        <v>400</v>
       </c>
       <c r="M130" s="41">
         <v>1</v>
@@ -10123,38 +10123,38 @@
     </row>
     <row r="131" spans="1:14" ht="13">
       <c r="A131" s="49" t="s">
-        <v>63</v>
+        <v>401</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="C131" s="59" t="s">
-        <v>64</v>
+        <v>402</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>140</v>
+        <v>357</v>
       </c>
       <c r="E131" s="49" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F131" s="49" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="G131" s="58">
         <v>2007</v>
       </c>
       <c r="H131" s="76" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="I131" s="58" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="J131" s="21"/>
       <c r="K131" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
       <c r="M131" s="41">
         <v>1</v>
@@ -10165,22 +10165,22 @@
     </row>
     <row r="132" spans="1:14" ht="13">
       <c r="A132" s="49" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C132" s="59" t="s">
-        <v>67</v>
+        <v>405</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>454</v>
+        <v>22</v>
       </c>
       <c r="F132" s="49" t="s">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="G132" s="58">
         <v>2011</v>
@@ -10189,14 +10189,14 @@
         <v>5</v>
       </c>
       <c r="I132" s="58" t="s">
-        <v>408</v>
+        <v>109</v>
       </c>
       <c r="J132" s="21"/>
       <c r="K132" s="62" t="s">
-        <v>457</v>
+        <v>25</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>69</v>
+        <v>407</v>
       </c>
       <c r="M132" s="41">
         <v>1</v>
@@ -10210,7 +10210,6 @@
     <row r="154" spans="2:10" ht="15" customHeight="1"/>
     <row r="173" spans="10:10" ht="15" customHeight="1"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="78" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
@@ -10235,14 +10234,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="72" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="75" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>56</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13">
@@ -11728,15 +11727,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="68" t="s">
-        <v>57</v>
+        <v>513</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>58</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="68" t="s">
-        <v>451</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <f>COUNTIF('Active Student Green Funds'!B2:B133,"Public")</f>
@@ -11749,7 +11748,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="68" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="B3">
         <f>COUNTIF('Active Student Green Funds'!B2:B133,"Private not-for-profit")</f>

--- a/rc/resources/apps/greenfunds/greenfunds.xlsx
+++ b/rc/resources/apps/greenfunds/greenfunds.xlsx
@@ -22,37 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="728">
-  <si>
-    <t>Blue Sky renewable energy fee</t>
-  </si>
-  <si>
-    <t>Centre College</t>
-  </si>
-  <si>
-    <t>http://www.centre.edu/sustainable_centre/green_fund.html</t>
-  </si>
-  <si>
-    <t>Clark University</t>
-  </si>
-  <si>
-    <t>Student Sustainability Fund</t>
-  </si>
-  <si>
-    <t>~$6.00</t>
-  </si>
-  <si>
-    <t>Coastal Carolina University</t>
-  </si>
-  <si>
-    <t>Colgate University</t>
-  </si>
-  <si>
-    <t>College of Charleston</t>
-  </si>
-  <si>
-    <t>ECOllective Fund</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="728">
   <si>
     <t>http://sustainability.cofc.edu/Student%20Sustainability/index.php</t>
   </si>
@@ -205,6 +175,285 @@
     <t>Environmental Fee</t>
   </si>
   <si>
+    <t>Green Mountain College</t>
+  </si>
+  <si>
+    <t>Student Campus Greening Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.greenmtn.edu/living_learning/beyond_classroom/scgf.aspx</t>
+  </si>
+  <si>
+    <t>Hartwick College</t>
+  </si>
+  <si>
+    <t>Pine Lake Activity Fee</t>
+  </si>
+  <si>
+    <t>Hollins University</t>
+  </si>
+  <si>
+    <t>http://www.hollins.edu/about/sustainability/greenfee.shtml</t>
+  </si>
+  <si>
+    <t>Humboldt State University</t>
+  </si>
+  <si>
+    <t>http://www.humboldt.edu/heif/</t>
+  </si>
+  <si>
+    <t>Johnson County Community College</t>
+  </si>
+  <si>
+    <t>Sustainability Initiatives Fund</t>
+  </si>
+  <si>
+    <t>Knox College</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>http://www.sustainableauraria.org/</t>
+  </si>
+  <si>
+    <t>http://www.safconcordia.ca/</t>
+  </si>
+  <si>
+    <t>Connecticut College</t>
+  </si>
+  <si>
+    <t>Renewable Energy Fund</t>
+  </si>
+  <si>
+    <t>sustainability initiatives levy (undergraduates only)</t>
+  </si>
+  <si>
+    <t>Drury University</t>
+  </si>
+  <si>
+    <t>Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://www.drury.edu/sustainabilitycouncil</t>
+  </si>
+  <si>
+    <t>East Tennessee State University</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Fee</t>
+  </si>
+  <si>
+    <t>Eastern University</t>
+  </si>
+  <si>
+    <t>http://www.eastern.edu/centers/sfs/fees.html</t>
+  </si>
+  <si>
+    <t>Eastern Mennonite University</t>
+  </si>
+  <si>
+    <t>Earthkeepers Mini-grants</t>
+  </si>
+  <si>
+    <t>http://www.emu.edu/sustainability/campus/earthkeepers/mini-grant-projects/</t>
+  </si>
+  <si>
+    <t>Clean Energy Grant</t>
+  </si>
+  <si>
+    <t>http://www.evergreen.edu/committee/cleanenergy/grant.htm</t>
+  </si>
+  <si>
+    <t>Associated Students Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.aschico.com/sustain/sfac</t>
+  </si>
+  <si>
+    <t>Central Oregon Community College</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>High Meadows Foundation Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.princeton.edu/sustainability/psc/highmeadows/</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Rice Endowment for Sustainable Energy Technology (RESET)</t>
+  </si>
+  <si>
+    <t>http://reset.blogs.rice.edu/</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>Enhance, Evolve, Innovate</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>http://as.sdsu.edu/govt/update.html</t>
+  </si>
+  <si>
+    <t>Renewable Energy Resolution</t>
+  </si>
+  <si>
+    <t>Blue Sky renewable energy fee</t>
+  </si>
+  <si>
+    <t>Centre College</t>
+  </si>
+  <si>
+    <t>http://www.centre.edu/sustainable_centre/green_fund.html</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Student Sustainability Fund</t>
+  </si>
+  <si>
+    <t>~$6.00</t>
+  </si>
+  <si>
+    <t>Coastal Carolina University</t>
+  </si>
+  <si>
+    <t>Colgate University</t>
+  </si>
+  <si>
+    <t>College of Charleston</t>
+  </si>
+  <si>
+    <t>ECOllective Fund</t>
+  </si>
+  <si>
+    <t>http://www.montana.edu/greenasmsu/RecyclingFAQ.html</t>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+  </si>
+  <si>
+    <t>offset/reduce GHGs</t>
+  </si>
+  <si>
+    <t>http://sac.mta.ca/index.php?option=com_content&amp;view=article&amp;id=240&amp;Itemid=270</t>
+  </si>
+  <si>
+    <t>New College of Florida</t>
+  </si>
+  <si>
+    <t>Sustainability Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.ncf.edu/green</t>
+  </si>
+  <si>
+    <t>Northeastern Illinois University</t>
+  </si>
+  <si>
+    <t>Campus Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.neiu.edu/~greenfee/index.html</t>
+  </si>
+  <si>
+    <t>Northern Arizona University</t>
+  </si>
+  <si>
+    <t>Northern Arizona University Green Fund</t>
+  </si>
+  <si>
+    <t>http://www.green.nau.edu/greenfund.html</t>
+  </si>
+  <si>
+    <t>Northland College</t>
+  </si>
+  <si>
+    <t>Northland College Renewable Energy Fund</t>
+  </si>
+  <si>
+    <t>Oberlin College</t>
+  </si>
+  <si>
+    <t>Green EDGE Fund</t>
+  </si>
+  <si>
+    <t>http://www.oberlin.edu/sustainability/resources/greenedgefund.html</t>
+  </si>
+  <si>
+    <t>Occidental College</t>
+  </si>
+  <si>
+    <t>Renewable Energy and Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://asoc.oxy.edu/asoc/sustainability.htm</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+  </si>
+  <si>
+    <t>Student Sustainability Initiatives Project Grant</t>
+  </si>
+  <si>
+    <t>http://oregonstate.edu/sustainability/ssi/</t>
+  </si>
+  <si>
+    <t>http://oregonstate.edu/sustainability/donate</t>
+  </si>
+  <si>
+    <t>Pacific Lutheran University</t>
+  </si>
+  <si>
+    <t>Green Energy Fund</t>
+  </si>
+  <si>
+    <t>http://www.knox.edu/about-knox/we-are-knox/our-future/sustainability-at-knox-college/student-sustainability-fund.html</t>
+  </si>
+  <si>
+    <t>Lewis &amp; Clark College</t>
+  </si>
+  <si>
+    <t>Green Fee Fund</t>
+  </si>
+  <si>
+    <t>http://www.lclark.edu/about/sustainability/campus/green_fee/</t>
+  </si>
+  <si>
+    <t>http://sustainability.uga.edu/about/funding/</t>
+  </si>
+  <si>
+    <t>University of Guelph</t>
+  </si>
+  <si>
+    <t>Energy Retrofit Fund</t>
+  </si>
+  <si>
+    <t>http://www.pr.uoguelph.ca/sustain/energy/ecwg.htm</t>
+  </si>
+  <si>
+    <t>University of Idaho</t>
+  </si>
+  <si>
+    <t>UI Sustainability Center fee</t>
+  </si>
+  <si>
+    <t>http://www.uidaho.edu/sustainability/uisustainabilitycenter/AbouttheUISC</t>
+  </si>
+  <si>
+    <t>University of Illinois at Chicago</t>
+  </si>
+  <si>
     <t>Middle Tennessee State University</t>
   </si>
   <si>
@@ -238,136 +487,125 @@
     <t>http://www2.gcsu.edu/orgs/student/esc/green_fee_fy10.html</t>
   </si>
   <si>
-    <t>Green Mountain College</t>
-  </si>
-  <si>
-    <t>Student Campus Greening Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.greenmtn.edu/living_learning/beyond_classroom/scgf.aspx</t>
-  </si>
-  <si>
-    <t>Hartwick College</t>
-  </si>
-  <si>
-    <t>Pine Lake Activity Fee</t>
-  </si>
-  <si>
-    <t>Hollins University</t>
-  </si>
-  <si>
-    <t>http://www.hollins.edu/about/sustainability/greenfee.shtml</t>
-  </si>
-  <si>
-    <t>Humboldt State University</t>
-  </si>
-  <si>
-    <t>http://www.humboldt.edu/heif/</t>
-  </si>
-  <si>
-    <t>Johnson County Community College</t>
-  </si>
-  <si>
-    <t>Sustainability Initiatives Fund</t>
-  </si>
-  <si>
-    <t>Knox College</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>http://www.sustainableauraria.org/</t>
-  </si>
-  <si>
-    <t>http://www.safconcordia.ca/</t>
-  </si>
-  <si>
-    <t>Connecticut College</t>
-  </si>
-  <si>
-    <t>Renewable Energy Fund</t>
-  </si>
-  <si>
-    <t>sustainability initiatives levy (undergraduates only)</t>
-  </si>
-  <si>
-    <t>Drury University</t>
-  </si>
-  <si>
-    <t>Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://www.drury.edu/sustainabilitycouncil</t>
-  </si>
-  <si>
-    <t>East Tennessee State University</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Fee</t>
-  </si>
-  <si>
-    <t>Eastern University</t>
-  </si>
-  <si>
-    <t>http://www.eastern.edu/centers/sfs/fees.html</t>
-  </si>
-  <si>
-    <t>Eastern Mennonite University</t>
-  </si>
-  <si>
-    <t>Earthkeepers Mini-grants</t>
-  </si>
-  <si>
-    <t>http://www.emu.edu/sustainability/campus/earthkeepers/mini-grant-projects/</t>
-  </si>
-  <si>
-    <t>Clean Energy Grant</t>
-  </si>
-  <si>
-    <t>http://www.evergreen.edu/committee/cleanenergy/grant.htm</t>
-  </si>
-  <si>
-    <t>Associated Students Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.aschico.com/sustain/sfac</t>
-  </si>
-  <si>
-    <t>Central Oregon Community College</t>
-  </si>
-  <si>
-    <t>Princeton University</t>
-  </si>
-  <si>
-    <t>High Meadows Foundation Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.princeton.edu/sustainability/psc/highmeadows/</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>Rice Endowment for Sustainable Energy Technology (RESET)</t>
-  </si>
-  <si>
-    <t>http://reset.blogs.rice.edu/</t>
-  </si>
-  <si>
-    <t>San Diego State University</t>
-  </si>
-  <si>
-    <t>Enhance, Evolve, Innovate</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>http://as.sdsu.edu/govt/update.html</t>
-  </si>
-  <si>
-    <t>Renewable Energy Resolution</t>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>http://tgif.berkeley.edu/</t>
+  </si>
+  <si>
+    <t>University of California, Irvine</t>
+  </si>
+  <si>
+    <t>http://www.asuci.uci.edu/tgif/</t>
+  </si>
+  <si>
+    <t>University of California, Los Angeles</t>
+  </si>
+  <si>
+    <t>http://tgif.ucla.edu/index.php</t>
+  </si>
+  <si>
+    <t>University of California, Riverside</t>
+  </si>
+  <si>
+    <t>The Green Action Plan Fund</t>
+  </si>
+  <si>
+    <t>http://www.asucr.ucr.edu/gcap.html</t>
+  </si>
+  <si>
+    <t>University of California, San Diego</t>
+  </si>
+  <si>
+    <t>http://sustainabilityresourcecenter.ucsd.edu/green-fund/about-tgif/</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Donors</t>
+  </si>
+  <si>
+    <t>http://web.plattsburgh.edu/studentlife/green/ccer/</t>
+  </si>
+  <si>
+    <t>Tennessee Technological University</t>
+  </si>
+  <si>
+    <t>http://www.tntech.edu/bursar/otherfees/</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University</t>
+  </si>
+  <si>
+    <t>Aggie Green Fund</t>
+  </si>
+  <si>
+    <t>http://greenfund.tamu.edu</t>
+  </si>
+  <si>
+    <t>Environmental Service Fee</t>
+  </si>
+  <si>
+    <t>http://www.txstate.edu/esc/</t>
+  </si>
+  <si>
+    <t>Union Green Fee Initiative</t>
+  </si>
+  <si>
+    <t>http://www.concordy.com/article/807-u/april-21-2011/unions-green-fee/</t>
+  </si>
+  <si>
+    <t>Student Initiative for Renewable Energy Now 
+(SIREN) Fund</t>
+  </si>
+  <si>
+    <t>http://www.uaf.edu/sustainability/rise/</t>
+  </si>
+  <si>
+    <t>http://www.plu.edu/sustainability/Campus%20Groups/Sustainability-Committee.php</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.paulsmiths.edu/sustainability/sustainabilityfund.php</t>
+  </si>
+  <si>
+    <t>Point Loma Nazarene University</t>
+  </si>
+  <si>
+    <t>http://www.pointloma.edu/discover/sustainability/green-fund</t>
+  </si>
+  <si>
+    <t>Portland Community College</t>
+  </si>
+  <si>
+    <t>The Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>Portland State University</t>
+  </si>
+  <si>
+    <t>http://pittgreenfund.com/</t>
+  </si>
+  <si>
+    <t>University of South Florida</t>
+  </si>
+  <si>
+    <t>http://psgs.usf.edu/usf-office-of-sustainability/green-energy-fund/</t>
+  </si>
+  <si>
+    <t>http://www.utc.edu/Administration/Bursar/fees.php</t>
+  </si>
+  <si>
+    <t>Student Environmental Initiatives Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.illinois.edu/ssc/</t>
+  </si>
+  <si>
+    <t>Revolving Loan Program</t>
   </si>
   <si>
     <t>http://sustainability.siu.edu/</t>
@@ -394,121 +632,144 @@
     <t>ASMSU Student Sustainability Fee</t>
   </si>
   <si>
-    <t>http://www.montana.edu/greenasmsu/RecyclingFAQ.html</t>
-  </si>
-  <si>
-    <t>Mount Allison University</t>
-  </si>
-  <si>
-    <t>offset/reduce GHGs</t>
-  </si>
-  <si>
-    <t>http://sac.mta.ca/index.php?option=com_content&amp;view=article&amp;id=240&amp;Itemid=270</t>
-  </si>
-  <si>
-    <t>New College of Florida</t>
-  </si>
-  <si>
-    <t>Sustainability Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.ncf.edu/green</t>
-  </si>
-  <si>
-    <t>Northeastern Illinois University</t>
-  </si>
-  <si>
-    <t>Campus Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.neiu.edu/~greenfee/index.html</t>
-  </si>
-  <si>
-    <t>Northern Arizona University</t>
-  </si>
-  <si>
-    <t>Northern Arizona University Green Fund</t>
-  </si>
-  <si>
-    <t>http://www.green.nau.edu/greenfund.html</t>
-  </si>
-  <si>
-    <t>Northland College</t>
-  </si>
-  <si>
-    <t>Northland College Renewable Energy Fund</t>
-  </si>
-  <si>
-    <t>Oberlin College</t>
-  </si>
-  <si>
-    <t>Green EDGE Fund</t>
-  </si>
-  <si>
-    <t>http://www.oberlin.edu/sustainability/resources/greenedgefund.html</t>
-  </si>
-  <si>
-    <t>Occidental College</t>
-  </si>
-  <si>
-    <t>Renewable Energy and Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://asoc.oxy.edu/asoc/sustainability.htm</t>
-  </si>
-  <si>
-    <t>Oregon State University</t>
-  </si>
-  <si>
-    <t>Student Sustainability Initiatives Project Grant</t>
-  </si>
-  <si>
-    <t>http://oregonstate.edu/sustainability/ssi/</t>
-  </si>
-  <si>
-    <t>http://oregonstate.edu/sustainability/donate</t>
-  </si>
-  <si>
-    <t>Pacific Lutheran University</t>
-  </si>
-  <si>
-    <t>Green Energy Fund</t>
-  </si>
-  <si>
-    <t>http://www.knox.edu/about-knox/we-are-knox/our-future/sustainability-at-knox-college/student-sustainability-fund.html</t>
-  </si>
-  <si>
-    <t>Lewis &amp; Clark College</t>
-  </si>
-  <si>
-    <t>Green Fee Fund</t>
-  </si>
-  <si>
-    <t>http://www.lclark.edu/about/sustainability/campus/green_fee/</t>
-  </si>
-  <si>
-    <t>http://sustainability.uga.edu/about/funding/</t>
-  </si>
-  <si>
-    <t>University of Guelph</t>
-  </si>
-  <si>
-    <t>Energy Retrofit Fund</t>
-  </si>
-  <si>
-    <t>http://www.pr.uoguelph.ca/sustain/energy/ecwg.htm</t>
-  </si>
-  <si>
-    <t>University of Idaho</t>
-  </si>
-  <si>
-    <t>UI Sustainability Center fee</t>
-  </si>
-  <si>
-    <t>http://www.uidaho.edu/sustainability/uisustainabilitycenter/AbouttheUISC</t>
-  </si>
-  <si>
-    <t>University of Illinois at Chicago</t>
+    <t>http://www.sustainability.uky.edu/ESF</t>
+  </si>
+  <si>
+    <t>University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t>University Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.umd.edu/content/about/fund.php</t>
+  </si>
+  <si>
+    <t>University of Memphis</t>
+  </si>
+  <si>
+    <t>http://www.memphis.edu/bluegoesgreen/greenfee.php</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Student Sustainability Initiatives Funds</t>
+  </si>
+  <si>
+    <t>http://environmentalleadership.missouri.edu/about/funding/</t>
+  </si>
+  <si>
+    <t>University of Minnesota, Crookston</t>
+  </si>
+  <si>
+    <t>University of Montana</t>
+  </si>
+  <si>
+    <t>Kless Revolving Energy Loan Fund</t>
+  </si>
+  <si>
+    <t>http://www.umt.edu/greeningum/KRELF/default.aspx</t>
+  </si>
+  <si>
+    <t>University of California, Santa Barbara</t>
+  </si>
+  <si>
+    <t>http://sustainability.ucsb.edu/tgif/index.php</t>
+  </si>
+  <si>
+    <t>Coastal Fund</t>
+  </si>
+  <si>
+    <t>$5.50 UG/
+$3.00 G</t>
+  </si>
+  <si>
+    <t>http://coastalfund.as.ucsb.edu/</t>
+  </si>
+  <si>
+    <t>University of California, Santa Cruz</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Programs Fee</t>
+  </si>
+  <si>
+    <t>http://sua.ucsc.edu/csc/
+http://cscsustainability.weebly.com/index.html</t>
+  </si>
+  <si>
+    <t>Sustainability Office Fee</t>
+  </si>
+  <si>
+    <t>Sustainable Food, Health, and wellness fee</t>
+  </si>
+  <si>
+    <t>Student Health Center Green Building Fee</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>http://www.uccs.edu/~sustain/solar_fee.html</t>
+  </si>
+  <si>
+    <t>Environmental Center</t>
+  </si>
+  <si>
+    <t>http://ecenter.colorado.edu/greening-cu/sustainable-cu</t>
+  </si>
+  <si>
+    <t>Student Bus and Bike Programs</t>
+  </si>
+  <si>
+    <t>Capital Construction Fee</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>http://www.ecohusky.uconn.edu/CSF.html</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>http://www.wlu.ca/homepage.php?grp_id=12304</t>
+  </si>
+  <si>
+    <t>Young Harris College</t>
+  </si>
+  <si>
+    <t>SGA Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.yhc.edu/about/sustainability/green-fee-application</t>
+  </si>
+  <si>
+    <t>Fund Type</t>
+  </si>
+  <si>
+    <t>Donation Source</t>
+  </si>
+  <si>
+    <t>Fund Name</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Year Created</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Fund Size</t>
+  </si>
+  <si>
+    <t>Fund Description</t>
+  </si>
+  <si>
+    <t>Fund Recipients</t>
   </si>
   <si>
     <t>http://www.uic.edu/sustainability/resources/2011.GreenFeeProposal.pdf</t>
@@ -524,125 +785,142 @@
     <t>http://amssustainability.ca/</t>
   </si>
   <si>
-    <t>University of California, Berkeley</t>
-  </si>
-  <si>
-    <t>http://tgif.berkeley.edu/</t>
-  </si>
-  <si>
-    <t>University of California, Irvine</t>
-  </si>
-  <si>
-    <t>http://www.asuci.uci.edu/tgif/</t>
-  </si>
-  <si>
-    <t>University of California, Los Angeles</t>
-  </si>
-  <si>
-    <t>http://tgif.ucla.edu/index.php</t>
-  </si>
-  <si>
-    <t>University of California, Riverside</t>
-  </si>
-  <si>
-    <t>The Green Action Plan Fund</t>
-  </si>
-  <si>
-    <t>http://www.asucr.ucr.edu/gcap.html</t>
-  </si>
-  <si>
-    <t>University of California, San Diego</t>
-  </si>
-  <si>
-    <t>http://sustainabilityresourcecenter.ucsd.edu/green-fund/about-tgif/</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t>Donors</t>
-  </si>
-  <si>
-    <t>http://web.plattsburgh.edu/studentlife/green/ccer/</t>
-  </si>
-  <si>
-    <t>Tennessee Technological University</t>
-  </si>
-  <si>
-    <t>http://www.tntech.edu/bursar/otherfees/</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University</t>
-  </si>
-  <si>
-    <t>Aggie Green Fund</t>
-  </si>
-  <si>
-    <t>http://greenfund.tamu.edu</t>
-  </si>
-  <si>
-    <t>Environmental Service Fee</t>
-  </si>
-  <si>
-    <t>http://www.txstate.edu/esc/</t>
-  </si>
-  <si>
-    <t>Union Green Fee Initiative</t>
-  </si>
-  <si>
-    <t>http://www.concordy.com/article/807-u/april-21-2011/unions-green-fee/</t>
-  </si>
-  <si>
-    <t>Student Initiative for Renewable Energy Now 
-(SIREN) Fund</t>
-  </si>
-  <si>
-    <t>http://www.uaf.edu/sustainability/rise/</t>
-  </si>
-  <si>
-    <t>http://www.plu.edu/sustainability/Campus%20Groups/Sustainability-Committee.php</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.paulsmiths.edu/sustainability/sustainabilityfund.php</t>
-  </si>
-  <si>
-    <t>Point Loma Nazarene University</t>
-  </si>
-  <si>
-    <t>http://www.pointloma.edu/discover/sustainability/green-fund</t>
-  </si>
-  <si>
-    <t>Portland Community College</t>
-  </si>
-  <si>
-    <t>The Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>Portland State University</t>
-  </si>
-  <si>
-    <t>http://pittgreenfund.com/</t>
-  </si>
-  <si>
-    <t>University of South Florida</t>
-  </si>
-  <si>
-    <t>http://psgs.usf.edu/usf-office-of-sustainability/green-energy-fund/</t>
-  </si>
-  <si>
-    <t>http://www.utc.edu/Administration/Bursar/fees.php</t>
-  </si>
-  <si>
-    <t>Student Environmental Initiatives Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.illinois.edu/ssc/</t>
-  </si>
-  <si>
-    <t>Revolving Loan Program</t>
+    <t>Contact First Name</t>
+  </si>
+  <si>
+    <t>Contact Middle Name</t>
+  </si>
+  <si>
+    <t>Contact Last Name</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Contact Title</t>
+  </si>
+  <si>
+    <t>Contact Phone</t>
+  </si>
+  <si>
+    <t>Contact Department</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Alumni and other donors</t>
+  </si>
+  <si>
+    <t>Resnick Sustainability Institute Fund at Caltech</t>
+  </si>
+  <si>
+    <t>http://environment.utk.edu/fees.html</t>
+  </si>
+  <si>
+    <t>UT- Austin Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.utexas.edu/sustainability/greenfee.php</t>
+  </si>
+  <si>
+    <t>http://www.utsa.edu/fiscalservices/TuitionFeeDocs/summaryDescSpring2011.pdf</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Student Campus Initiative Fund (SCIF)</t>
+  </si>
+  <si>
+    <t>http://sustainability.utah.edu/get-involved/students/sustainable-campus-fund%20%20.php</t>
+  </si>
+  <si>
+    <t>Clean Energy Fund</t>
+  </si>
+  <si>
+    <t>http://www.uvm.edu/sustain/cef</t>
+  </si>
+  <si>
+    <t>University of Washington, Seattle</t>
+  </si>
+  <si>
+    <t>http://www.uwec.edu/StudentSenate/commissions/eec/FundingInfo.htm</t>
+  </si>
+  <si>
+    <t>http://www.uwlax.edu/sustainability/html/green-fund.htm</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Platteville</t>
+  </si>
+  <si>
+    <t>Ron Meissen Sustainability Fund</t>
+  </si>
+  <si>
+    <t>University of Wyoming</t>
+  </si>
+  <si>
+    <t>Recycling Student Fee</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Blue Goes Green Student Grant Program</t>
+  </si>
+  <si>
+    <t>http://sustainability.usu.edu/</t>
+  </si>
+  <si>
+    <t>University of Montevallo</t>
+  </si>
+  <si>
+    <t>The Green Fund</t>
+  </si>
+  <si>
+    <t>http://www.montevallo.edu/sustainability/green%20fund.shtm</t>
+  </si>
+  <si>
+    <t>University of Nevada, Las Vegas</t>
+  </si>
+  <si>
+    <t>Rebel Recycling Fee</t>
+  </si>
+  <si>
+    <t>http://facilities.unlv.edu/recycling/history.html</t>
+  </si>
+  <si>
+    <t>Renewable Energy Fee</t>
+  </si>
+  <si>
+    <t>http://respc.unc.edu/</t>
+  </si>
+  <si>
+    <t>Charlotte Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>http://cgi.uncc.edu/</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>We Mean Green Fund</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>Eco-Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.uoregon.edu/office-sustainability/student-sustainability-fund</t>
+  </si>
+  <si>
+    <t>Pitt Green Fund</t>
   </si>
   <si>
     <t>http://sustainability.illinois.edu/ssc/loans.shtml</t>
@@ -666,284 +944,6 @@
     <t>Environmental Stewardship Fee</t>
   </si>
   <si>
-    <t>http://www.sustainability.uky.edu/ESF</t>
-  </si>
-  <si>
-    <t>University of Maryland, College Park</t>
-  </si>
-  <si>
-    <t>University Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.umd.edu/content/about/fund.php</t>
-  </si>
-  <si>
-    <t>University of Memphis</t>
-  </si>
-  <si>
-    <t>http://www.memphis.edu/bluegoesgreen/greenfee.php</t>
-  </si>
-  <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>Student Sustainability Initiatives Funds</t>
-  </si>
-  <si>
-    <t>http://environmentalleadership.missouri.edu/about/funding/</t>
-  </si>
-  <si>
-    <t>University of Minnesota, Crookston</t>
-  </si>
-  <si>
-    <t>University of Montana</t>
-  </si>
-  <si>
-    <t>Kless Revolving Energy Loan Fund</t>
-  </si>
-  <si>
-    <t>http://www.umt.edu/greeningum/KRELF/default.aspx</t>
-  </si>
-  <si>
-    <t>University of California, Santa Barbara</t>
-  </si>
-  <si>
-    <t>http://sustainability.ucsb.edu/tgif/index.php</t>
-  </si>
-  <si>
-    <t>Coastal Fund</t>
-  </si>
-  <si>
-    <t>$5.50 UG/
-$3.00 G</t>
-  </si>
-  <si>
-    <t>http://coastalfund.as.ucsb.edu/</t>
-  </si>
-  <si>
-    <t>University of California, Santa Cruz</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Programs Fee</t>
-  </si>
-  <si>
-    <t>http://sua.ucsc.edu/csc/
-http://cscsustainability.weebly.com/index.html</t>
-  </si>
-  <si>
-    <t>Sustainability Office Fee</t>
-  </si>
-  <si>
-    <t>Sustainable Food, Health, and wellness fee</t>
-  </si>
-  <si>
-    <t>Student Health Center Green Building Fee</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>http://www.uccs.edu/~sustain/solar_fee.html</t>
-  </si>
-  <si>
-    <t>Environmental Center</t>
-  </si>
-  <si>
-    <t>http://ecenter.colorado.edu/greening-cu/sustainable-cu</t>
-  </si>
-  <si>
-    <t>Student Bus and Bike Programs</t>
-  </si>
-  <si>
-    <t>Capital Construction Fee</t>
-  </si>
-  <si>
-    <t>University of Connecticut</t>
-  </si>
-  <si>
-    <t>http://www.ecohusky.uconn.edu/CSF.html</t>
-  </si>
-  <si>
-    <t>University of Georgia</t>
-  </si>
-  <si>
-    <t>http://www.wlu.ca/homepage.php?grp_id=12304</t>
-  </si>
-  <si>
-    <t>Young Harris College</t>
-  </si>
-  <si>
-    <t>SGA Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.yhc.edu/about/sustainability/green-fee-application</t>
-  </si>
-  <si>
-    <t>Fund Type</t>
-  </si>
-  <si>
-    <t>Donation Source</t>
-  </si>
-  <si>
-    <t>Fund Name</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Year Created</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>Fund Size</t>
-  </si>
-  <si>
-    <t>Fund Description</t>
-  </si>
-  <si>
-    <t>Fund Recipients</t>
-  </si>
-  <si>
-    <t>Contact First Name</t>
-  </si>
-  <si>
-    <t>Contact Middle Name</t>
-  </si>
-  <si>
-    <t>Contact Last Name</t>
-  </si>
-  <si>
-    <t>Contact Email</t>
-  </si>
-  <si>
-    <t>Contact Title</t>
-  </si>
-  <si>
-    <t>Contact Phone</t>
-  </si>
-  <si>
-    <t>Contact Department</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Donation</t>
-  </si>
-  <si>
-    <t>Alumni and other donors</t>
-  </si>
-  <si>
-    <t>Resnick Sustainability Institute Fund at Caltech</t>
-  </si>
-  <si>
-    <t>http://environment.utk.edu/fees.html</t>
-  </si>
-  <si>
-    <t>UT- Austin Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/sustainability/greenfee.php</t>
-  </si>
-  <si>
-    <t>http://www.utsa.edu/fiscalservices/TuitionFeeDocs/summaryDescSpring2011.pdf</t>
-  </si>
-  <si>
-    <t>University of Utah</t>
-  </si>
-  <si>
-    <t>Student Campus Initiative Fund (SCIF)</t>
-  </si>
-  <si>
-    <t>http://sustainability.utah.edu/get-involved/students/sustainable-campus-fund%20%20.php</t>
-  </si>
-  <si>
-    <t>Clean Energy Fund</t>
-  </si>
-  <si>
-    <t>http://www.uvm.edu/sustain/cef</t>
-  </si>
-  <si>
-    <t>University of Washington, Seattle</t>
-  </si>
-  <si>
-    <t>http://www.uwec.edu/StudentSenate/commissions/eec/FundingInfo.htm</t>
-  </si>
-  <si>
-    <t>http://www.uwlax.edu/sustainability/html/green-fund.htm</t>
-  </si>
-  <si>
-    <t>University of Wisconsin-Platteville</t>
-  </si>
-  <si>
-    <t>Ron Meissen Sustainability Fund</t>
-  </si>
-  <si>
-    <t>University of Wyoming</t>
-  </si>
-  <si>
-    <t>Recycling Student Fee</t>
-  </si>
-  <si>
-    <t>Utah State University</t>
-  </si>
-  <si>
-    <t>Blue Goes Green Student Grant Program</t>
-  </si>
-  <si>
-    <t>http://sustainability.usu.edu/</t>
-  </si>
-  <si>
-    <t>University of Montevallo</t>
-  </si>
-  <si>
-    <t>The Green Fund</t>
-  </si>
-  <si>
-    <t>http://www.montevallo.edu/sustainability/green%20fund.shtm</t>
-  </si>
-  <si>
-    <t>University of Nevada, Las Vegas</t>
-  </si>
-  <si>
-    <t>Rebel Recycling Fee</t>
-  </si>
-  <si>
-    <t>http://facilities.unlv.edu/recycling/history.html</t>
-  </si>
-  <si>
-    <t>Renewable Energy Fee</t>
-  </si>
-  <si>
-    <t>http://respc.unc.edu/</t>
-  </si>
-  <si>
-    <t>Charlotte Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>http://cgi.uncc.edu/</t>
-  </si>
-  <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>We Mean Green Fund</t>
-  </si>
-  <si>
-    <t>University of Notre Dame</t>
-  </si>
-  <si>
-    <t>Eco-Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.uoregon.edu/office-sustainability/student-sustainability-fund</t>
-  </si>
-  <si>
-    <t>Pitt Green Fund</t>
-  </si>
-  <si>
     <t>The purpose of this grant is threefold: to provide a catalytic infusion of support for core development goals selected by the University, to double the amount of this support to $50 million or more by providing the incentive that other donors must match the annual support from the Miller Foundation, and to create public awareness and excitement about the University’s further development as a leading urban research university. The $25 million Miller grant focuses on PSU’s academic, research, and engagement activities in sustainability.</t>
   </si>
   <si>
@@ -1008,15 +1008,6 @@
   </si>
   <si>
     <t>Wilfrid Laurier University</t>
-  </si>
-  <si>
-    <t>Dorvin and Betty Leis Sustainability Fund</t>
-  </si>
-  <si>
-    <t>Maui Community College</t>
-  </si>
-  <si>
-    <t>http://www.uhm.hawaii.edu/news/article.php?aId=1612</t>
   </si>
   <si>
     <t>The University of Hawaiʻi Board of Regents (BOR) voted today to accept the largest gift ever to Maui Community College (MCC) — a $1 million commitment from husband and wife Dorvin and Betty Leis to advance sustainability initiatives at the campus. To recognize their generosity, the BOR approved renaming the school‘s fine dining facility as The Leis Family Class Act Restaurant. The Leis‘ gift will establish an endowment known as the Dorvin and Betty 
@@ -1097,6 +1088,15 @@
     <t>Corporate</t>
   </si>
   <si>
+    <t>Dorvin and Betty Leis Sustainability Fund</t>
+  </si>
+  <si>
+    <t>Maui Community College</t>
+  </si>
+  <si>
+    <t>http://www.uhm.hawaii.edu/news/article.php?aId=1612</t>
+  </si>
+  <si>
     <t>The Campus Sustainability Fund supports programs and initiatives that raise environmental awareness and develop conservation-minded students. Through demonstration projects like green roofs, renewable energy and biofuels, recycling and composting enhancements, campus bicycling amenities, water and energy conservation competitions, and donating reusable goods to community partners, students learn to be environmental stewards and positively contribute to society.</t>
   </si>
   <si>
@@ -1442,27 +1442,6 @@
     <t>ASG Environmental and Social Responsibility Representative; SESF Committee Chair</t>
   </si>
   <si>
-    <t>In 2006, students voted to increase their fees by $5/semester to support the creation of the AS Sustainability Program and Fund.  The majority of this money goes into the AS Sustainability Fund which makes available approximately $60,000 annually for student-driven projects.</t>
-  </si>
-  <si>
-    <t>Funds are awarded once each semester by the Sustainability Fund Allocation Committee (SFAC).</t>
-  </si>
-  <si>
-    <t>Gabe</t>
-  </si>
-  <si>
-    <t>Adley</t>
-  </si>
-  <si>
-    <t>asvpfs@csuchico.edu</t>
-  </si>
-  <si>
-    <t>Assocaited Students Vice President of Facilities and Services</t>
-  </si>
-  <si>
-    <t>http://www.cocc.edu/Admissions/Tuition-Fees-Payment/</t>
-  </si>
-  <si>
     <t>Students at Central Oregon Community College also approved a 25 cents per credit hike in student fees to finance renewable energy purchases and sustainability projects for the campus. The fee is used first to buy wind power to meet about 75% of campus electricity needs. The wind energy is purchased through Pacific Power's Blue Sky green power program. Any excess funds generated from the fee goes into a "Flexible Sustainability Fund" to be allocated for campus sustainability projects.</t>
   </si>
   <si>
@@ -1476,12 +1455,6 @@
   </si>
   <si>
     <t>Mother Ann Lee Hydroeletric Station</t>
-  </si>
-  <si>
-    <t>Renewable energy is more expensive to generate than less-clean alternatives. The $20 surcharge students are now paying buys Renewable Energy Certificates (RECs) to help subsidize hydroelectric production at Mother Ann Lee. Doing so helps ensure that the station remains competitive, while the College offsets its carbon footprint through the voluntary purchase of RECs that represent the absence of carbon emission.</t>
-  </si>
-  <si>
-    <t>http://www.clarku.edu/offices/campusSustainability/partners/studentsustainabilityfund.cfm</t>
   </si>
   <si>
     <t>The Student Sustainability Fund is a resource for the advancement of 
@@ -1531,178 +1504,205 @@
     <t>http://www.coastal.edu/media/administration/sustainability/documents/CCU%20Green%20Fund%20Application.pdf</t>
   </si>
   <si>
+    <t>In 2006, students voted to increase their fees by $5/semester to support the creation of the AS Sustainability Program and Fund.  The majority of this money goes into the AS Sustainability Fund which makes available approximately $60,000 annually for student-driven projects.</t>
+  </si>
+  <si>
+    <t>Funds are awarded once each semester by the Sustainability Fund Allocation Committee (SFAC).</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Adley</t>
+  </si>
+  <si>
+    <t>asvpfs@csuchico.edu</t>
+  </si>
+  <si>
+    <t>Assocaited Students Vice President of Facilities and Services</t>
+  </si>
+  <si>
+    <t>http://www.cocc.edu/Admissions/Tuition-Fees-Payment/</t>
+  </si>
+  <si>
+    <t>https://sustainability.cofc.edu/student-sustainability/Documents%20and%20Photos/Handbook</t>
+  </si>
+  <si>
+    <t>Also in August, CLC students received approval for a new $60,000 green fund, financed through student fees. Included in the Student Government Association (SGA) budget, the $60,000 is being spent over three years―$20,000 in each year, starting with the 2012-2013 academic year. Individual students, clubs or committees can submit project proposals. A nine-member committee consisting of eight students and one faculty advisor will review the applications. The SGA will be responsible for final approval of projects.</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>liammorrison11@stu.clcillinois.edu</t>
+  </si>
+  <si>
+    <t>Green Economy and Sustainable Water Center</t>
+  </si>
+  <si>
+    <t>http://www.aashe.org/files/clc_jccc_joint_presentation_green_funds.pdf</t>
+  </si>
+  <si>
+    <t>http://connectionsnewsletter.wordpress.com/2012/09/13/clcs-new-green-fund-is-latest-in-student-efforts-to-promote-sustainability/</t>
+  </si>
+  <si>
+    <t>In the Spring of 2008, a group of students created a proposal (pdf) for a student Green Fee that raised $200,000 a year for sustainability projects, student research, and a green endowment. After the fee's approval by the Board of Visitors, the Committee on Sustainability was tasked with soliciting proposals for projects funded by the fee twice a year. The 2008-2009 academic year was the first year of funding for the fee.</t>
+  </si>
+  <si>
+    <t>Committee on Sustainability (CoS)</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Foley</t>
+  </si>
+  <si>
+    <t>pjfoley@email.wm.edu</t>
+  </si>
+  <si>
+    <t>College Sustainability Fellow</t>
+  </si>
+  <si>
+    <t>Renewable energy is more expensive to generate than less-clean alternatives. The $20 surcharge students are now paying buys Renewable Energy Certificates (RECs) to help subsidize hydroelectric production at Mother Ann Lee. Doing so helps ensure that the station remains competitive, while the College offsets its carbon footprint through the voluntary purchase of RECs that represent the absence of carbon emission.</t>
+  </si>
+  <si>
+    <t>http://www.clarku.edu/offices/campusSustainability/partners/studentsustainabilityfund.cfm</t>
+  </si>
+  <si>
+    <t>In April 2004, 95% of voting students at each of the three institutions that share the Auraria Higher Education Center campus - University of Colorado at Denver, Metro State University and Community College of Denver - supported a $1 per semester increase in student fees to fund the purchase of wind power and the installation of an on-site solar energy system. The fee went into effect at the beginning of the 04/05 school year, and generates approximately $80,000 annually. The fee is to be assessed for three years, with a requirement that students vote again, in 2007, on whether to renew it.</t>
+  </si>
+  <si>
+    <t>http://www.sustainableauraria.org/about.html</t>
+  </si>
+  <si>
+    <t>Concordia University (Montreal, QC)</t>
+  </si>
+  <si>
+    <t>The Sustainability Action Fund is funded by a 25-cent per-credit undergraduate student fee levy, and a 75-cent-per-credit graduate student fee levy. It totals approximately $150,000 per year. This money goes to support projects to develop sustainable infrastructure, urban argriculture, community-building, and education surrounding environmental and community issues, with the goal of inspiring and developing a culture of sustainability at Concordia University.</t>
+  </si>
+  <si>
+    <t>Sustainability Action Fund Board of Directors</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>safconcordia@gmail.com</t>
+  </si>
+  <si>
+    <t>Sustainability Action Fund CEO</t>
+  </si>
+  <si>
+    <t>http://www.conncoll.edu/sustainability/news/connecticut-college-continues-to-offset-energy-use/connecticut-college-continues-to-offset-energy-usage-1.htm</t>
+  </si>
+  <si>
     <t>The Office of Sustainability provides funding for sustainability initiatives and projects through the ECOllective Fund, the pool of money generated from the student paid “green fee”.  Each student pays $10 per semester and this money is collected into the ECOllective Fund that then funds projects and initiatives that work to make the College more sustainable.</t>
   </si>
   <si>
     <t>A committee of students, faculty and staff called the ECOllective Student Project Committee, ESPC for short, administers this portion of the Fund.</t>
   </si>
   <si>
-    <t>https://sustainability.cofc.edu/student-sustainability/Documents%20and%20Photos/Handbook</t>
-  </si>
-  <si>
-    <t>Also in August, CLC students received approval for a new $60,000 green fund, financed through student fees. Included in the Student Government Association (SGA) budget, the $60,000 is being spent over three years―$20,000 in each year, starting with the 2012-2013 academic year. Individual students, clubs or committees can submit project proposals. A nine-member committee consisting of eight students and one faculty advisor will review the applications. The SGA will be responsible for final approval of projects.</t>
-  </si>
-  <si>
-    <t>SGA</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>liammorrison11@stu.clcillinois.edu</t>
-  </si>
-  <si>
-    <t>Green Economy and Sustainable Water Center</t>
-  </si>
-  <si>
-    <t>http://www.aashe.org/files/clc_jccc_joint_presentation_green_funds.pdf</t>
-  </si>
-  <si>
-    <t>http://connectionsnewsletter.wordpress.com/2012/09/13/clcs-new-green-fund-is-latest-in-student-efforts-to-promote-sustainability/</t>
-  </si>
-  <si>
-    <t>In the Spring of 2008, a group of students created a proposal (pdf) for a student Green Fee that raised $200,000 a year for sustainability projects, student research, and a green endowment. After the fee's approval by the Board of Visitors, the Committee on Sustainability was tasked with soliciting proposals for projects funded by the fee twice a year. The 2008-2009 academic year was the first year of funding for the fee.</t>
-  </si>
-  <si>
-    <t>Committee on Sustainability (CoS)</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Foley</t>
-  </si>
-  <si>
-    <t>pjfoley@email.wm.edu</t>
-  </si>
-  <si>
-    <t>College Sustainability Fellow</t>
+    <t>n spring 2001, over 75% of the students at Connecticut College signed a petition supporting a $25 per year increase in student fees to fund the purchase of renewable energy. With support from the Connecticut College Student Government Association, Connecticut College's Board of Trustees approved the increase in May 2001. The fee went into effect at the beginning of the 2001 fall term.</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Stoffel</t>
+  </si>
+  <si>
+    <t>jstoffel@conncoll.edu</t>
+  </si>
+  <si>
+    <t>Manager of Sustainability</t>
+  </si>
+  <si>
+    <t>860-439-5218</t>
+  </si>
+  <si>
+    <t>http://dsusustainabilityoffice.ca/</t>
+  </si>
+  <si>
+    <t>The Dalhousie Student Union Sustainability Office (DSUSO) is a student-run organization that strives to create a culture of sustainability on campus. DSUSO organizes Green Week and other student-run sustainability initiatives and is funded by an undergraduate levy of $1 per full time student per semester (Fall and Winter).</t>
+  </si>
+  <si>
+    <t>Dalhousie Student Union Sustainability Office</t>
+  </si>
+  <si>
+    <t>Alla</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>DSUSO@dal.ca</t>
+  </si>
+  <si>
+    <t>President's Council on Sustainability</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>wanderso@drury.edu</t>
+  </si>
+  <si>
+    <t>Director of Campus Sustainability</t>
+  </si>
+  <si>
+    <t>(417) 873-7445</t>
+  </si>
+  <si>
+    <t>http://www.drury.edu/sga/documents/resolutions/SustainabilityFee2009-002.pdf</t>
+  </si>
+  <si>
+    <t>http://gogreen.etsu.edu/sustainability</t>
+  </si>
+  <si>
+    <t>Since 2008, a Campus Sustainability Fee of $5 per semester has been paid by each ETSU student to fund environmentally, socially and economically sustainable initiatives and infrastructure at the university.</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>moore@etsu.edu</t>
+  </si>
+  <si>
+    <t>Director of Sustainability</t>
+  </si>
+  <si>
+    <t>(423) 439-7766</t>
+  </si>
+  <si>
+    <t>Facilites</t>
+  </si>
+  <si>
+    <t>http://www.etsu.edu/calendar/EventList.aspx?eventidn=12024&amp;view=EventDetails&amp;information_id=44765</t>
+  </si>
+  <si>
+    <t>http://gogreen.etsu.edu/files/documents/Campus-Sustainability-Fee-Report.pdf</t>
   </si>
   <si>
     <t>Contact Sustainability Fellow Patrick Foley at pjfoley@email.wm.edu or contact COS co-chairs Dennis Taylor at dltayl@wm.edu or Lynda Butler at llbutl@wm.edu.</t>
   </si>
   <si>
     <t>http://www.cccs.edu/Docs/SBCCOE/Agenda/Archive/060904-Agenda.htm</t>
-  </si>
-  <si>
-    <t>In April 2004, 95% of voting students at each of the three institutions that share the Auraria Higher Education Center campus - University of Colorado at Denver, Metro State University and Community College of Denver - supported a $1 per semester increase in student fees to fund the purchase of wind power and the installation of an on-site solar energy system. The fee went into effect at the beginning of the 04/05 school year, and generates approximately $80,000 annually. The fee is to be assessed for three years, with a requirement that students vote again, in 2007, on whether to renew it.</t>
-  </si>
-  <si>
-    <t>http://www.sustainableauraria.org/about.html</t>
-  </si>
-  <si>
-    <t>Concordia University (Montreal, QC)</t>
-  </si>
-  <si>
-    <t>The Sustainability Action Fund is funded by a 25-cent per-credit undergraduate student fee levy, and a 75-cent-per-credit graduate student fee levy. It totals approximately $150,000 per year. This money goes to support projects to develop sustainable infrastructure, urban argriculture, community-building, and education surrounding environmental and community issues, with the goal of inspiring and developing a culture of sustainability at Concordia University.</t>
-  </si>
-  <si>
-    <t>Sustainability Action Fund Board of Directors</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>safconcordia@gmail.com</t>
-  </si>
-  <si>
-    <t>Sustainability Action Fund CEO</t>
-  </si>
-  <si>
-    <t>http://www.conncoll.edu/sustainability/news/connecticut-college-continues-to-offset-energy-use/connecticut-college-continues-to-offset-energy-usage-1.htm</t>
-  </si>
-  <si>
-    <t>n spring 2001, over 75% of the students at Connecticut College signed a petition supporting a $25 per year increase in student fees to fund the purchase of renewable energy. With support from the Connecticut College Student Government Association, Connecticut College's Board of Trustees approved the increase in May 2001. The fee went into effect at the beginning of the 2001 fall term.</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Stoffel</t>
-  </si>
-  <si>
-    <t>jstoffel@conncoll.edu</t>
-  </si>
-  <si>
-    <t>Manager of Sustainability</t>
-  </si>
-  <si>
-    <t>860-439-5218</t>
-  </si>
-  <si>
-    <t>http://dsusustainabilityoffice.ca/</t>
-  </si>
-  <si>
-    <t>The Dalhousie Student Union Sustainability Office (DSUSO) is a student-run organization that strives to create a culture of sustainability on campus. DSUSO organizes Green Week and other student-run sustainability initiatives and is funded by an undergraduate levy of $1 per full time student per semester (Fall and Winter).</t>
-  </si>
-  <si>
-    <t>Dalhousie Student Union Sustainability Office</t>
-  </si>
-  <si>
-    <t>Alla</t>
-  </si>
-  <si>
-    <t>Karim</t>
-  </si>
-  <si>
-    <t>DSUSO@dal.ca</t>
-  </si>
-  <si>
-    <t>President's Council on Sustainability</t>
-  </si>
-  <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>wanderso@drury.edu</t>
-  </si>
-  <si>
-    <t>Director of Campus Sustainability</t>
-  </si>
-  <si>
-    <t>(417) 873-7445</t>
-  </si>
-  <si>
-    <t>http://www.drury.edu/sga/documents/resolutions/SustainabilityFee2009-002.pdf</t>
-  </si>
-  <si>
-    <t>http://gogreen.etsu.edu/sustainability</t>
-  </si>
-  <si>
-    <t>Since 2008, a Campus Sustainability Fee of $5 per semester has been paid by each ETSU student to fund environmentally, socially and economically sustainable initiatives and infrastructure at the university.</t>
-  </si>
-  <si>
-    <t>Kathleen</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>moore@etsu.edu</t>
-  </si>
-  <si>
-    <t>Director of Sustainability</t>
-  </si>
-  <si>
-    <t>(423) 439-7766</t>
-  </si>
-  <si>
-    <t>Facilites</t>
-  </si>
-  <si>
-    <t>http://www.etsu.edu/calendar/EventList.aspx?eventidn=12024&amp;view=EventDetails&amp;information_id=44765</t>
-  </si>
-  <si>
-    <t>http://gogreen.etsu.edu/files/documents/Campus-Sustainability-Fee-Report.pdf</t>
   </si>
   <si>
     <t>The Student Government Association (SGA) has asked that the University assess an annual fee of $30.00 to each student, so that Eastern can buy electric power from green energy sources. The fee is included in your bill.  To opt out of the program, the student must fax a letter to the Student Development Office at: 610 341-1705.</t>
@@ -2090,6 +2090,165 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>Funds the purchase and installation of green materials, implements green practices, and obtains a U.S. Green Building Council Leadership in Energy and Environmental Design "Silver" certification for the Cowell Student Health Center.</t>
+  </si>
+  <si>
+    <t>http://bursar.colorado.edu/tuition-fees/fees-description/student-fees/#</t>
+  </si>
+  <si>
+    <t>Clean Energy Technologies</t>
+  </si>
+  <si>
+    <t>http://ssc.union.illinois.edu/Mission_And_Bylaws.html</t>
+  </si>
+  <si>
+    <t>Sustainable Campus Environment Fee</t>
+  </si>
+  <si>
+    <t>http://www.uwgb.edu/studgov/committees/ea/Environmental_Sustainability_Fund.asp</t>
+  </si>
+  <si>
+    <t>http://www.mndaily.com/2011/04/13/msa-support-green-fee</t>
+  </si>
+  <si>
+    <t>http://blog.lib.umn.edu/umcweb/news/sustainability/</t>
+  </si>
+  <si>
+    <t>https://sustainable.unt.edu/we-mean-green-fund</t>
+  </si>
+  <si>
+    <t>The We Mean Green Fund is a $5 per student, per long-semester fee that funds environmental projects on campus. The fee was voted in during a special election during Earth Week spring of 2010, and was voted on by a student majority.</t>
+  </si>
+  <si>
+    <t>http://gfutep.kk5.org/</t>
+  </si>
+  <si>
+    <t>University of Tennessee at Chattanooga</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Tennessee at Knoxville</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas at Austin</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas at San Antonio</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas at El Paso</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Wisconsin-Eau Claire</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Wisconsin-Green Bay</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Wisconsin-La Crosse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington State University, Pullman</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://news.uwgb.edu/log-news/news/09/14/bike-rack-sustainability-fund-2/</t>
+  </si>
+  <si>
+    <t>http://www.uwgb.edu/studgov/documents/pdfs/Sustainability_fund_resolution.pdf</t>
+  </si>
+  <si>
+    <t>http://www.uwyo.edu/asuw/_files/legislation/2007-08%20pdf%20files/senate_resolution_2189.pdf</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=4&amp;cad=rja&amp;ved=0CEIQFjAD&amp;url=http%3A%2F%2Fwww.uwyo.edu%2Fadministration%2F_files%2Fdocs%2Ffee-book%2Ffee%2520book%25202009%2520web.doc&amp;ei=LWK6UYDLOYm-qgG0_4DQCA&amp;usg=AFQjCNFixPCYdkTLsNef_iY6tJ3z5jTIMQ&amp;sig2=_Kumiqm4BcaR2ZG2BQJ0lA&amp;bvm=bv.47883778,d.aWM</t>
+  </si>
+  <si>
+    <t>http://www.warren-wilson.edu/~ELC/New_ELC_Website_/Presidents%20Climate%20Action%20Fund%2010%2029%2010.doc</t>
+  </si>
+  <si>
+    <t>http://www.secondnature.org/climate-leadership-awards/warren-wilson-college</t>
+  </si>
+  <si>
+    <t>Year Fee passed</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t># of Student Green Funds</t>
+  </si>
+  <si>
+    <t>Student Green 
+Funds</t>
+  </si>
+  <si>
+    <t>Alumni &amp; Non-Student Fee 
+Green Funds</t>
+  </si>
+  <si>
+    <t>Union College (Schenectady, NY)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>State University of New York at Purchase</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>State University of New York at Plattsburgh</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Alaska Fairbanks</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Arizona, The</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Colorado, Colorado Springs</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Illinois, Urbana-Champaign</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Illinois, Urbana-Champaign</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Kansas</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>University of North Carolina at Chapel Hill</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2110,171 +2269,18 @@
   </si>
   <si>
     <t>http://studentservices.ucsc.edu/business/student-fees/Student-Health-Center-Green-Building-Fee-Measure-35.pdf</t>
-  </si>
-  <si>
-    <t>Funds the purchase and installation of green materials, implements green practices, and obtains a U.S. Green Building Council Leadership in Energy and Environmental Design "Silver" certification for the Cowell Student Health Center.</t>
-  </si>
-  <si>
-    <t>http://bursar.colorado.edu/tuition-fees/fees-description/student-fees/#</t>
-  </si>
-  <si>
-    <t>Clean Energy Technologies</t>
-  </si>
-  <si>
-    <t>http://ssc.union.illinois.edu/Mission_And_Bylaws.html</t>
-  </si>
-  <si>
-    <t>Sustainable Campus Environment Fee</t>
-  </si>
-  <si>
-    <t>http://www.uwgb.edu/studgov/committees/ea/Environmental_Sustainability_Fund.asp</t>
-  </si>
-  <si>
-    <t>http://www.mndaily.com/2011/04/13/msa-support-green-fee</t>
-  </si>
-  <si>
-    <t>http://blog.lib.umn.edu/umcweb/news/sustainability/</t>
-  </si>
-  <si>
-    <t>https://sustainable.unt.edu/we-mean-green-fund</t>
-  </si>
-  <si>
-    <t>The We Mean Green Fund is a $5 per student, per long-semester fee that funds environmental projects on campus. The fee was voted in during a special election during Earth Week spring of 2010, and was voted on by a student majority.</t>
-  </si>
-  <si>
-    <t>http://gfutep.kk5.org/</t>
-  </si>
-  <si>
-    <t>University of Tennessee at Chattanooga</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Tennessee at Knoxville</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Texas at Austin</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Texas at San Antonio</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Texas at El Paso</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Vermont</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Wisconsin-Eau Claire</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Wisconsin-Green Bay</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Wisconsin-La Crosse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Washington State University, Pullman</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Environmental Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://news.uwgb.edu/log-news/news/09/14/bike-rack-sustainability-fund-2/</t>
-  </si>
-  <si>
-    <t>http://www.uwgb.edu/studgov/documents/pdfs/Sustainability_fund_resolution.pdf</t>
-  </si>
-  <si>
-    <t>http://www.uwyo.edu/asuw/_files/legislation/2007-08%20pdf%20files/senate_resolution_2189.pdf</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=4&amp;cad=rja&amp;ved=0CEIQFjAD&amp;url=http%3A%2F%2Fwww.uwyo.edu%2Fadministration%2F_files%2Fdocs%2Ffee-book%2Ffee%2520book%25202009%2520web.doc&amp;ei=LWK6UYDLOYm-qgG0_4DQCA&amp;usg=AFQjCNFixPCYdkTLsNef_iY6tJ3z5jTIMQ&amp;sig2=_Kumiqm4BcaR2ZG2BQJ0lA&amp;bvm=bv.47883778,d.aWM</t>
-  </si>
-  <si>
-    <t>http://www.warren-wilson.edu/~ELC/New_ELC_Website_/Presidents%20Climate%20Action%20Fund%2010%2029%2010.doc</t>
-  </si>
-  <si>
-    <t>http://www.secondnature.org/climate-leadership-awards/warren-wilson-college</t>
-  </si>
-  <si>
-    <t>Year Fee passed</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t># of Student Green Funds</t>
-  </si>
-  <si>
-    <t>Student Green 
-Funds</t>
-  </si>
-  <si>
-    <t>Alumni &amp; Non-Student Fee 
-Green Funds</t>
-  </si>
-  <si>
-    <t>Union College (Schenectady, NY)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>State University of New York at Purchase</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>State University of New York at Plattsburgh</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Alaska Fairbanks</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Arizona, The</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of British Columbia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Colorado, Colorado Springs</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Colorado Boulder</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Colorado Boulder</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Illinois, Urbana-Champaign</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Illinois, Urbana-Champaign</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Kansas</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="15">
     <font>
       <sz val="10"/>
@@ -3042,11 +3048,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="210413272"/>
-        <c:axId val="370569144"/>
+        <c:axId val="263478072"/>
+        <c:axId val="263463560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210413272"/>
+        <c:axId val="263478072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,13 +3071,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370569144"/>
+        <c:crossAx val="263463560"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370569144"/>
+        <c:axId val="263463560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210413272"/>
+        <c:crossAx val="263478072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3249,11 +3255,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="374503528"/>
-        <c:axId val="374506712"/>
+        <c:axId val="217511800"/>
+        <c:axId val="217514984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="374503528"/>
+        <c:axId val="217511800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,13 +3275,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374506712"/>
+        <c:crossAx val="217514984"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374506712"/>
+        <c:axId val="217514984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374503528"/>
+        <c:crossAx val="217511800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3700,102 +3706,103 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A109" sqref="A109"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="8" max="8" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="17" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E3">
         <v>2008</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G3">
         <v>25000000</v>
@@ -3809,16 +3816,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>2012</v>
@@ -3829,7 +3836,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>308</v>
@@ -3838,7 +3845,7 @@
         <v>309</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>2012</v>
@@ -3855,7 +3862,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
         <v>312</v>
@@ -3873,118 +3880,118 @@
         <v>10000000</v>
       </c>
       <c r="H6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" t="s">
         <v>351</v>
       </c>
-      <c r="C7" t="s">
-        <v>327</v>
-      </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="E7">
         <v>2006</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="G7">
         <v>1000000</v>
       </c>
       <c r="H7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>2003</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
         <v>365</v>
@@ -3995,73 +4002,73 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>2008</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G14">
         <v>100000000</v>
       </c>
       <c r="H14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
         <v>384</v>
@@ -4069,36 +4076,36 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C17" t="s">
         <v>385</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s">
         <v>354</v>
@@ -4106,16 +4113,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F19" t="s">
         <v>355</v>
@@ -4123,10 +4130,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
         <v>356</v>
@@ -4146,16 +4153,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E21">
         <v>2009</v>
@@ -4169,10 +4176,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>362</v>
@@ -4189,10 +4196,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>368</v>
@@ -4209,10 +4216,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
         <v>371</v>
@@ -4240,11 +4247,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4265,52 +4272,52 @@
         <v>375</v>
       </c>
       <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="Q1" t="s">
         <v>259</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>266</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>421</v>
@@ -4321,22 +4328,22 @@
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D2" s="7">
         <v>2005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>423</v>
@@ -4371,22 +4378,22 @@
     <row r="3" spans="1:19">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7">
         <v>2009</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>443</v>
@@ -4416,22 +4423,22 @@
     <row r="4" spans="1:19">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
         <v>2007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7">
         <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>405</v>
@@ -4467,22 +4474,22 @@
     <row r="5" spans="1:19">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
         <v>2009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
         <v>414</v>
@@ -4504,7 +4511,7 @@
         <v>467</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>429</v>
@@ -4520,10 +4527,10 @@
     <row r="6" spans="1:19">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
         <v>2009</v>
@@ -4535,7 +4542,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>433</v>
@@ -4571,22 +4578,22 @@
     <row r="7" spans="1:19">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
         <v>2009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>450</v>
@@ -4624,22 +4631,22 @@
     <row r="8" spans="1:19">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
         <v>2010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>460</v>
@@ -4667,7 +4674,7 @@
         <v>466</v>
       </c>
       <c r="Q8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -4675,7 +4682,7 @@
     <row r="9" spans="1:19">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>376</v>
@@ -4684,32 +4691,32 @@
         <v>2006</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="I9" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -4719,28 +4726,28 @@
     <row r="10" spans="1:19">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
         <v>2006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7">
         <v>0.25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I10" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -4750,7 +4757,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -4758,28 +4765,28 @@
     <row r="11" spans="1:19">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7">
         <v>2007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="I11" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -4789,7 +4796,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -4797,87 +4804,87 @@
     <row r="12" spans="1:19">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="D12" s="7">
         <v>2012</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="I12" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
         <v>2011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7">
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H13" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="I13" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="Q13" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -4885,28 +4892,28 @@
     <row r="14" spans="1:19">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7">
         <v>2010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="I14" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -4915,10 +4922,10 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="Q14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -4926,56 +4933,56 @@
     <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
         <v>2012</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
         <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I15" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>377</v>
@@ -4984,37 +4991,37 @@
         <v>2008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F16" s="7">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -5022,25 +5029,25 @@
     <row r="17" spans="1:19">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
         <v>2007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7">
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5060,10 +5067,12 @@
       <c r="D18" s="7">
         <v>2007</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -5072,77 +5081,98 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
+      <c r="Q18" t="s">
+        <v>513</v>
+      </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="7"/>
+      <c r="B19" t="s">
+        <v>379</v>
+      </c>
       <c r="C19" s="7" t="s">
-        <v>378</v>
+        <v>514</v>
       </c>
       <c r="D19" s="7">
         <v>2007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>515</v>
+      </c>
+      <c r="I19" t="s">
+        <v>516</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>520</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" t="s">
-        <v>517</v>
-      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>518</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>521</v>
+      </c>
+      <c r="F20" s="7">
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="I20" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="O20" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>529</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -5150,89 +5180,89 @@
     <row r="21" spans="1:19">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="F21" s="7">
-        <v>25</v>
+        <v>530</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="I21" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="P21" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7" t="s">
+        <v>532</v>
+      </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>381</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>532</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" t="s">
+        <v>542</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -5240,124 +5270,111 @@
     <row r="23" spans="1:19">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>543</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" t="s">
-        <v>538</v>
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="P23" s="7"/>
+        <v>549</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>550</v>
+      </c>
       <c r="Q23" t="s">
-        <v>544</v>
-      </c>
-      <c r="R23" s="7"/>
+        <v>551</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>552</v>
+      </c>
       <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D24" s="7">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>545</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>546</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>547</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>552</v>
-      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
       <c r="Q24" t="s">
-        <v>553</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>554</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>555</v>
-      </c>
-      <c r="I25" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -5367,7 +5384,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -5375,286 +5392,286 @@
     <row r="26" spans="1:19">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>96</v>
+        <v>383</v>
       </c>
       <c r="D26" s="7">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>558</v>
+      </c>
+      <c r="I26" t="s">
+        <v>559</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" t="s">
-        <v>557</v>
-      </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D27" s="7">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
+        <v>561</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s">
-        <v>558</v>
-      </c>
-      <c r="I27" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>560</v>
-      </c>
+      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="Q27" t="s">
+        <v>562</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D28" s="7">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>67</v>
+        <v>564</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>565</v>
+      </c>
+      <c r="I28" t="s">
+        <v>566</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>570</v>
+      </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="7" t="s">
+        <v>571</v>
+      </c>
       <c r="Q28" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>563</v>
+        <v>153</v>
       </c>
       <c r="S28" s="7"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>564</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="I29" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>570</v>
+        <v>455</v>
       </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
-        <v>571</v>
-      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" t="s">
-        <v>572</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D30" s="7">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>579</v>
       </c>
       <c r="F30" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s">
-        <v>573</v>
-      </c>
-      <c r="I30" t="s">
-        <v>574</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>575</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="7" t="s">
-        <v>576</v>
-      </c>
+      <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>455</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" t="s">
-        <v>578</v>
-      </c>
-      <c r="R30" s="7"/>
+        <v>580</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>581</v>
+      </c>
       <c r="S30" s="7"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>579</v>
+        <v>56</v>
       </c>
       <c r="F31" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>582</v>
+      </c>
+      <c r="I31" t="s">
+        <v>583</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>584</v>
+      </c>
       <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>585</v>
+      </c>
       <c r="M31" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+        <v>586</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>588</v>
+      </c>
       <c r="P31" s="7"/>
-      <c r="Q31" t="s">
-        <v>580</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>581</v>
-      </c>
+      <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>589</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F32" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>582</v>
-      </c>
-      <c r="I32" t="s">
-        <v>583</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>584</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>588</v>
-      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -5662,80 +5679,96 @@
     <row r="33" spans="1:19">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>60</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D33" s="7">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="F33" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
-      </c>
-      <c r="J33" s="7"/>
+        <v>592</v>
+      </c>
+      <c r="I33" t="s">
+        <v>593</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>598</v>
+      </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="7"/>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>591</v>
+        <v>131</v>
       </c>
       <c r="F34" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="I34" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>444</v>
+        <v>601</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>597</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="O34" s="7"/>
       <c r="P34" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>606</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -5743,48 +5776,50 @@
     <row r="35" spans="1:19">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D35" s="7">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="I35" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="O35" s="7"/>
+        <v>612</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>613</v>
+      </c>
       <c r="P35" s="7" t="s">
-        <v>605</v>
+        <v>466</v>
       </c>
       <c r="Q35" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -5792,50 +5827,50 @@
     <row r="36" spans="1:19">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="F36" s="7">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="I36" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K36" s="7"/>
+        <v>617</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>618</v>
+      </c>
       <c r="L36" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="N36" s="7" t="s">
         <v>612</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>466</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="P36" s="7"/>
       <c r="Q36" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -5843,136 +5878,115 @@
     <row r="37" spans="1:19">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D37" s="7">
         <v>2009</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="7">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I37" t="s">
-        <v>616</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="P37" s="7"/>
+        <v>624</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7" t="s">
+        <v>625</v>
+      </c>
       <c r="Q37" t="s">
-        <v>622</v>
-      </c>
-      <c r="R37" s="7"/>
+        <v>626</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>627</v>
+      </c>
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D38" s="7">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>54</v>
+        <v>628</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="I38" t="s">
-        <v>624</v>
-      </c>
-      <c r="J38" s="7"/>
+        <v>631</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>632</v>
+      </c>
       <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>635</v>
+      </c>
       <c r="O38" s="7"/>
-      <c r="P38" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>626</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>627</v>
-      </c>
+      <c r="P38" s="7"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="D39" s="7">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="F39" s="7">
-        <v>5</v>
+        <v>0.09</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" t="s">
-        <v>630</v>
-      </c>
-      <c r="I39" t="s">
-        <v>631</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>632</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>635</v>
-      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="R39" s="7"/>
@@ -5980,23 +5994,20 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="7"/>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D40" s="7">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F40" s="7">
-        <v>0.09</v>
+        <v>2</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -6005,158 +6016,161 @@
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
+      <c r="Q40" t="s">
+        <v>638</v>
+      </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="7"/>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" s="7" t="s">
-        <v>390</v>
+        <v>143</v>
       </c>
       <c r="D41" s="7">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F41" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>640</v>
+      </c>
+      <c r="I41" t="s">
+        <v>641</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>642</v>
+      </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>644</v>
+      </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="O41" s="7" t="s">
+        <v>645</v>
+      </c>
       <c r="P41" s="7"/>
       <c r="Q41" t="s">
-        <v>638</v>
-      </c>
-      <c r="R41" s="7"/>
+        <v>646</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>647</v>
+      </c>
       <c r="S41" s="7"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="D42" s="7">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="F42" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="I42" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="N42" s="7"/>
+        <v>658</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>455</v>
+      </c>
       <c r="O42" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="P42" s="7"/>
+        <v>659</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>660</v>
+      </c>
       <c r="Q42" t="s">
-        <v>646</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>647</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="D43" s="7">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="F43" s="7">
-        <v>5</v>
+        <v>147</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" t="s">
-        <v>654</v>
-      </c>
-      <c r="I43" t="s">
-        <v>655</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>656</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>661</v>
-      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="7"/>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="D44" s="7">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="F44" s="7">
+        <v>3.5</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -6171,22 +6185,22 @@
     <row r="45" spans="1:19">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="D45" s="7">
         <v>2009</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3.5</v>
+        <v>107</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -6201,22 +6215,22 @@
     <row r="46" spans="1:19">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D46" s="7">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>393</v>
+        <v>110</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -6231,22 +6245,22 @@
     <row r="47" spans="1:19">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D47" s="7">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F47" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -6261,22 +6275,22 @@
     <row r="48" spans="1:19">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D48" s="7">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F48" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -6291,22 +6305,22 @@
     <row r="49" spans="1:19">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D49" s="7">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="F49" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -6321,22 +6335,22 @@
     <row r="50" spans="1:19">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D50" s="7">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>394</v>
+        <v>121</v>
       </c>
       <c r="F50" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -6351,22 +6365,22 @@
     <row r="51" spans="1:19">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D51" s="7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F51" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -6381,22 +6395,22 @@
     <row r="52" spans="1:19">
       <c r="A52" s="7"/>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D52" s="7">
         <v>2007</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F52" s="7">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -6411,22 +6425,22 @@
     <row r="53" spans="1:19">
       <c r="A53" s="7"/>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D53" s="7">
         <v>2007</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F53" s="7">
-        <v>8.5</v>
+        <v>20</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -6441,22 +6455,22 @@
     <row r="54" spans="1:19">
       <c r="A54" s="7"/>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="D54" s="7">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F54" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -6471,22 +6485,22 @@
     <row r="55" spans="1:19">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>395</v>
+        <v>182</v>
       </c>
       <c r="D55" s="7">
         <v>2009</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F55" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6501,22 +6515,22 @@
     <row r="56" spans="1:19">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D56" s="7">
         <v>2009</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="F56" s="7">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -6531,22 +6545,22 @@
     <row r="57" spans="1:19">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D57" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>396</v>
+        <v>88</v>
       </c>
       <c r="F57" s="7">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -6561,22 +6575,25 @@
     <row r="58" spans="1:19">
       <c r="A58" s="7"/>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D58" s="7">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="7">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>662</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -6585,31 +6602,33 @@
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
+      <c r="Q58" t="s">
+        <v>663</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>110</v>
+        <v>397</v>
       </c>
       <c r="D59" s="7">
-        <v>2008</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>112</v>
+        <v>2004</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7">
+        <v>45</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" t="s">
-        <v>662</v>
+        <v>14</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -6619,32 +6638,32 @@
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>665</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="S59" s="7"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="7"/>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D60" s="7">
-        <v>2004</v>
-      </c>
-      <c r="E60" s="7"/>
+        <v>2009</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="F60" s="7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -6653,33 +6672,28 @@
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
-      <c r="Q60" t="s">
-        <v>666</v>
-      </c>
-      <c r="R60" s="7" t="s">
-        <v>667</v>
-      </c>
+      <c r="R60" s="7"/>
       <c r="S60" s="7"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="7"/>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>398</v>
+        <v>195</v>
       </c>
       <c r="D61" s="7">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="F61" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -6694,22 +6708,22 @@
     <row r="62" spans="1:19">
       <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="D62" s="7">
         <v>2007</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="F62" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -6724,22 +6738,28 @@
     <row r="63" spans="1:19">
       <c r="A63" s="7"/>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>399</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>119</v>
+        <v>711</v>
       </c>
       <c r="D63" s="7">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F63" s="7">
-        <v>25</v>
+        <v>668</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>672</v>
+      </c>
+      <c r="I63" t="s">
+        <v>673</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -6754,28 +6774,22 @@
     <row r="64" spans="1:19">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>3</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D64" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
+      </c>
+      <c r="F64" s="7">
+        <v>3</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s">
-        <v>672</v>
-      </c>
-      <c r="I64" t="s">
-        <v>673</v>
+        <v>14</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -6790,22 +6804,22 @@
     <row r="65" spans="1:19">
       <c r="A65" s="7"/>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>718</v>
+        <v>168</v>
       </c>
       <c r="D65" s="7">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F65" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -6820,22 +6834,22 @@
     <row r="66" spans="1:19">
       <c r="A66" s="7"/>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D66" s="7">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F66" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -6850,22 +6864,22 @@
     <row r="67" spans="1:19">
       <c r="A67" s="7"/>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D67" s="7">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F67" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -6880,22 +6894,22 @@
     <row r="68" spans="1:19">
       <c r="A68" s="7"/>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>400</v>
+        <v>710</v>
       </c>
       <c r="D68" s="7">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F68" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -6910,22 +6924,22 @@
     <row r="69" spans="1:19">
       <c r="A69" s="7"/>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D69" s="7">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F69" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -6940,22 +6954,22 @@
     <row r="70" spans="1:19">
       <c r="A70" s="7"/>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D70" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="F70" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -6970,22 +6984,22 @@
     <row r="71" spans="1:19">
       <c r="A71" s="7"/>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D71" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F71" s="7">
-        <v>24</v>
+        <v>251</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -7000,22 +7014,22 @@
     <row r="72" spans="1:19">
       <c r="A72" s="7"/>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>721</v>
+        <v>154</v>
       </c>
       <c r="D72" s="7">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>401</v>
+        <v>155</v>
+      </c>
+      <c r="F72" s="7">
+        <v>5.5</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -7030,22 +7044,22 @@
     <row r="73" spans="1:19">
       <c r="A73" s="7"/>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D73" s="7">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F73" s="7">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -7060,22 +7074,22 @@
     <row r="74" spans="1:19">
       <c r="A74" s="7"/>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D74" s="7">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F74" s="7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -7090,22 +7104,22 @@
     <row r="75" spans="1:19">
       <c r="A75" s="7"/>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D75" s="7">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F75" s="7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -7120,22 +7134,22 @@
     <row r="76" spans="1:19">
       <c r="A76" s="7"/>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D76" s="7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F76" s="7">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -7150,22 +7164,22 @@
     <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="D77" s="7">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="F77" s="7">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -7180,22 +7194,22 @@
     <row r="78" spans="1:19">
       <c r="A78" s="7"/>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D78" s="7">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="7">
-        <v>2.6</v>
+        <v>219</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -7210,22 +7224,25 @@
     <row r="79" spans="1:19">
       <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D79" s="7">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="F79" s="7">
+        <v>6</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H79" t="s">
+        <v>674</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -7234,31 +7251,33 @@
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
-      <c r="R79" s="7"/>
+      <c r="Q79" t="s">
+        <v>649</v>
+      </c>
+      <c r="R79" s="7" t="s">
+        <v>650</v>
+      </c>
       <c r="S79" s="7"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>402</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D80" s="7">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F80" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H80" t="s">
-        <v>674</v>
+        <v>25</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -7267,33 +7286,31 @@
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
-      <c r="Q80" t="s">
-        <v>649</v>
-      </c>
-      <c r="R80" s="7" t="s">
-        <v>650</v>
-      </c>
+      <c r="R80" s="7"/>
       <c r="S80" s="7"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="7"/>
       <c r="B81" t="s">
-        <v>402</v>
+        <v>223</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D81" s="7">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>230</v>
+        <v>651</v>
       </c>
       <c r="F81" s="7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
+        <v>652</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -7308,25 +7325,25 @@
     <row r="82" spans="1:19">
       <c r="A82" s="7"/>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D82" s="7">
         <v>2010</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F82" s="7">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -7341,25 +7358,25 @@
     <row r="83" spans="1:19">
       <c r="A83" s="7"/>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D83" s="7">
         <v>2010</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="F83" s="7">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -7374,25 +7391,22 @@
     <row r="84" spans="1:19">
       <c r="A84" s="7"/>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>231</v>
+        <v>716</v>
       </c>
       <c r="D84" s="7">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>682</v>
+        <v>227</v>
       </c>
       <c r="F84" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" t="s">
-        <v>683</v>
+        <v>14</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -7407,22 +7421,22 @@
     <row r="85" spans="1:19">
       <c r="A85" s="7"/>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D85" s="7">
-        <v>2008</v>
+        <v>1973</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F85" s="7">
-        <v>5</v>
+        <v>18.93</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -7437,22 +7451,20 @@
     <row r="86" spans="1:19">
       <c r="A86" s="7"/>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D86" s="7">
-        <v>1973</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>240</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="7">
-        <v>18.93</v>
+        <v>85</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -7461,26 +7473,29 @@
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
+      <c r="Q86" t="s">
+        <v>678</v>
+      </c>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="7"/>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D87" s="7">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -7489,29 +7504,26 @@
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
-      <c r="Q87" t="s">
-        <v>684</v>
-      </c>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>403</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="D88" s="7">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7">
-        <v>170</v>
+        <v>2.8</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
@@ -7526,20 +7538,22 @@
     <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>723</v>
+        <v>234</v>
       </c>
       <c r="D89" s="7">
-        <v>2005</v>
-      </c>
-      <c r="E89" s="7"/>
+        <v>2010</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="F89" s="7">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -7554,22 +7568,22 @@
     <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="D90" s="7">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="7">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -7584,22 +7598,22 @@
     <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D91" s="7">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>404</v>
+        <v>141</v>
+      </c>
+      <c r="F91" s="7">
+        <v>5</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -7614,22 +7628,22 @@
     <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D92" s="7">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="F92" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -7644,22 +7658,22 @@
     <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>679</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>161</v>
+        <v>719</v>
       </c>
       <c r="D93" s="7">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="F93" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -7668,28 +7682,31 @@
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
+      <c r="Q93" t="s">
+        <v>680</v>
+      </c>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" t="s">
-        <v>685</v>
+        <v>193</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D94" s="7">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F94" s="7">
-        <v>2</v>
+        <v>298</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -7698,31 +7715,26 @@
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
-      <c r="Q94" t="s">
-        <v>686</v>
-      </c>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>681</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D95" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>21</v>
+        <v>2007</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7">
+        <v>14</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -7737,20 +7749,22 @@
     <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" t="s">
-        <v>687</v>
+        <v>299</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D96" s="7">
-        <v>2007</v>
-      </c>
-      <c r="E96" s="7"/>
+        <v>1997</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="F96" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -7765,22 +7779,22 @@
     <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D97" s="7">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="F97" s="7">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -7795,22 +7809,22 @@
     <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>727</v>
+        <v>303</v>
       </c>
       <c r="D98" s="7">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F98" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -7825,22 +7839,22 @@
     <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D99" s="7">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F99" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -7855,22 +7869,22 @@
     <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D100" s="7">
         <v>2007</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F100" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -7885,22 +7899,22 @@
     <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>217</v>
+        <v>675</v>
       </c>
       <c r="D101" s="7">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F101" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -7915,22 +7929,22 @@
     <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>675</v>
+        <v>211</v>
       </c>
       <c r="D102" s="7">
         <v>2009</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>221</v>
+        <v>682</v>
       </c>
       <c r="F102" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -7939,28 +7953,33 @@
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
-      <c r="R102" s="7"/>
+      <c r="Q102" t="s">
+        <v>683</v>
+      </c>
+      <c r="R102" s="7" t="s">
+        <v>684</v>
+      </c>
       <c r="S102" s="7"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D103" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>688</v>
+        <v>214</v>
       </c>
       <c r="F103" s="7">
         <v>4</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -7969,33 +7988,28 @@
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
-      <c r="Q103" t="s">
-        <v>689</v>
-      </c>
-      <c r="R103" s="7" t="s">
-        <v>690</v>
-      </c>
+      <c r="R103" s="7"/>
       <c r="S103" s="7"/>
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="D104" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="F104" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -8010,22 +8024,22 @@
     <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D105" s="7">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F105" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -8040,22 +8054,22 @@
     <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>292</v>
+        <v>722</v>
       </c>
       <c r="D106" s="7">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F106" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -8070,22 +8084,22 @@
     <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D107" s="7">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F107" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -8100,22 +8114,25 @@
     <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>676</v>
+        <v>292</v>
       </c>
       <c r="D108" s="7">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>298</v>
+        <v>685</v>
       </c>
       <c r="F108" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>686</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -8130,25 +8147,22 @@
     <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>299</v>
+        <v>724</v>
       </c>
       <c r="D109" s="7">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>691</v>
+        <v>296</v>
       </c>
       <c r="F109" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" t="s">
-        <v>692</v>
+        <v>14</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -8163,22 +8177,22 @@
     <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="D110" s="7">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="F110" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -8193,22 +8207,22 @@
     <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>149</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>680</v>
+        <v>188</v>
       </c>
       <c r="D111" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F111" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -8223,22 +8237,22 @@
     <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>200</v>
+        <v>688</v>
       </c>
       <c r="D112" s="7">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F112" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -8253,22 +8267,22 @@
     <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D113" s="7">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="F113" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -8283,22 +8297,22 @@
     <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D114" s="7">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F114" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -8313,22 +8327,22 @@
     <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D115" s="7">
         <v>2010</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F115" s="7">
         <v>5</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -8343,22 +8357,25 @@
     <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D116" s="7">
         <v>2010</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>273</v>
+        <v>687</v>
       </c>
       <c r="F116" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>669</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -8373,25 +8390,22 @@
     <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>698</v>
+        <v>267</v>
       </c>
       <c r="D117" s="7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>693</v>
+        <v>269</v>
       </c>
       <c r="F117" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" t="s">
-        <v>669</v>
+        <v>14</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -8406,22 +8420,22 @@
     <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>274</v>
+        <v>693</v>
       </c>
       <c r="D118" s="7">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F118" s="7">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -8436,22 +8450,22 @@
     <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>699</v>
+        <v>272</v>
       </c>
       <c r="D119" s="7">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>278</v>
+        <v>670</v>
       </c>
       <c r="F119" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -8460,28 +8474,31 @@
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
+      <c r="Q119" t="s">
+        <v>671</v>
+      </c>
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>279</v>
+        <v>694</v>
       </c>
       <c r="D120" s="7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>670</v>
+        <v>273</v>
       </c>
       <c r="F120" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -8490,31 +8507,26 @@
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
       <c r="P120" s="7"/>
-      <c r="Q120" t="s">
-        <v>671</v>
-      </c>
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>698</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D121" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>280</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="E121" s="7"/>
       <c r="F121" s="7">
-        <v>10</v>
+        <v>3.38</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -8523,26 +8535,33 @@
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
-      <c r="R121" s="7"/>
+      <c r="Q121" t="s">
+        <v>699</v>
+      </c>
+      <c r="R121" s="7" t="s">
+        <v>700</v>
+      </c>
       <c r="S121" s="7"/>
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" t="s">
-        <v>704</v>
+        <v>36</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D122" s="7">
-        <v>2005</v>
-      </c>
-      <c r="E122" s="7"/>
+        <v>2008</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="F122" s="7">
-        <v>3.38</v>
+        <v>5</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -8551,33 +8570,26 @@
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
-      <c r="Q122" t="s">
-        <v>705</v>
-      </c>
-      <c r="R122" s="7" t="s">
-        <v>706</v>
-      </c>
+      <c r="R122" s="7"/>
       <c r="S122" s="7"/>
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>702</v>
+        <v>277</v>
       </c>
       <c r="D123" s="7">
-        <v>2008</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>281</v>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="E123" s="7"/>
       <c r="F123" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -8586,26 +8598,33 @@
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
-      <c r="R123" s="7"/>
+      <c r="Q123" t="s">
+        <v>701</v>
+      </c>
+      <c r="R123" s="7" t="s">
+        <v>702</v>
+      </c>
       <c r="S123" s="7"/>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D124" s="7">
-        <v>2009</v>
-      </c>
-      <c r="E124" s="7"/>
+        <v>2011</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="F124" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -8614,33 +8633,23 @@
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
-      <c r="Q124" t="s">
-        <v>707</v>
-      </c>
-      <c r="R124" s="7" t="s">
-        <v>708</v>
-      </c>
+      <c r="R124" s="7"/>
       <c r="S124" s="7"/>
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="7"/>
-      <c r="B125" t="s">
-        <v>287</v>
-      </c>
       <c r="C125" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="D125" s="7">
-        <v>2011</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>288</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="E125" s="7"/>
       <c r="F125" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -8649,23 +8658,33 @@
       <c r="N125" s="7"/>
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
-      <c r="R125" s="7"/>
+      <c r="Q125" t="s">
+        <v>703</v>
+      </c>
+      <c r="R125" s="7" t="s">
+        <v>704</v>
+      </c>
       <c r="S125" s="7"/>
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="7"/>
+      <c r="B126" t="s">
+        <v>317</v>
+      </c>
       <c r="C126" s="7" t="s">
-        <v>316</v>
+        <v>697</v>
       </c>
       <c r="D126" s="7">
-        <v>2006</v>
-      </c>
-      <c r="E126" s="7"/>
+        <v>2011</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F126" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -8674,33 +8693,28 @@
       <c r="N126" s="7"/>
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
-      <c r="Q126" t="s">
-        <v>709</v>
-      </c>
-      <c r="R126" s="7" t="s">
-        <v>710</v>
-      </c>
+      <c r="R126" s="7"/>
       <c r="S126" s="7"/>
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>703</v>
+        <v>319</v>
       </c>
       <c r="D127" s="7">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F127" s="7">
         <v>5</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -8715,22 +8729,22 @@
     <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D128" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F128" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -8745,22 +8759,22 @@
     <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>322</v>
+        <v>419</v>
       </c>
       <c r="D129" s="7">
         <v>2010</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F129" s="7">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -8775,22 +8789,22 @@
     <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D130" s="7">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F130" s="7">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -8805,22 +8819,22 @@
     <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="D131" s="7">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F131" s="7">
-        <v>21</v>
+        <v>235</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -8835,22 +8849,22 @@
     <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="D132" s="7">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>54</v>
+        <v>238</v>
+      </c>
+      <c r="F132" s="7">
+        <v>5</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -8861,36 +8875,6 @@
       <c r="P132" s="7"/>
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
-    </row>
-    <row r="133" spans="1:19">
-      <c r="A133" s="7"/>
-      <c r="B133" t="s">
-        <v>248</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D133" s="7">
-        <v>2011</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F133" s="7">
-        <v>5</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="R133" s="7"/>
-      <c r="S133" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -8916,14 +8900,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="21" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13">
@@ -10409,15 +10393,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="17" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" t="e">
         <f>COUNTIF(#REF!,"Public")</f>
@@ -10430,7 +10414,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" t="e">
         <f>COUNTIF(#REF!,"Private not-for-profit")</f>
@@ -10458,7 +10442,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/rc/resources/apps/greenfunds/greenfunds.xlsx
+++ b/rc/resources/apps/greenfunds/greenfunds.xlsx
@@ -24,6 +24,271 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="728">
   <si>
+    <t>Renewable Energy Initiative (REI)</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>http://rei.appstate.edu/</t>
+  </si>
+  <si>
+    <t>Austin Community College</t>
+  </si>
+  <si>
+    <t>Sustainability Fund</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>http://www.austincc.edu/sustainability/fee.php</t>
+  </si>
+  <si>
+    <t>Austin Peay State University</t>
+  </si>
+  <si>
+    <t>Sustainable Campus Fee</t>
+  </si>
+  <si>
+    <t>http://www.apsu.edu/governance/committees/sustainablefee</t>
+  </si>
+  <si>
+    <t>Bellevue College</t>
+  </si>
+  <si>
+    <t>Student Environmental Sustainability Fund</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>https://depts.bellevuecollege.edu/sustainability/what-you-can-do/student-environmental-sustainability-fund-sesf-2/</t>
+  </si>
+  <si>
+    <t>Bemidji State University</t>
+  </si>
+  <si>
+    <t>Green Fee Mini-Grants</t>
+  </si>
+  <si>
+    <t>Bowling Green State University</t>
+  </si>
+  <si>
+    <t>Student Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>http://www.bgsu.edu/departments/env/page91119.html</t>
+  </si>
+  <si>
+    <t>Brandeis University</t>
+  </si>
+  <si>
+    <t>Brandeis Sustainability Fund</t>
+  </si>
+  <si>
+    <t>annually</t>
+  </si>
+  <si>
+    <t>http://www.brandeis.edu/campussustainability/fund/</t>
+  </si>
+  <si>
+    <t>Green Fund</t>
+  </si>
+  <si>
+    <t>Marshall University</t>
+  </si>
+  <si>
+    <t>Student Green Fee</t>
+  </si>
+  <si>
+    <t>www.marshall.edu/sustainability</t>
+  </si>
+  <si>
+    <t>Massachusetts Institute of Technology</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>McGill University</t>
+  </si>
+  <si>
+    <t>Sustainability Projects  Fund</t>
+  </si>
+  <si>
+    <t>CA$ 0.50</t>
+  </si>
+  <si>
+    <t>http://www.mcgill.ca/sustainability/spf</t>
+  </si>
+  <si>
+    <t>Mercyhurst College</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>Environmental Fee</t>
+  </si>
+  <si>
+    <t>Green Mountain College</t>
+  </si>
+  <si>
+    <t>Student Campus Greening Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.greenmtn.edu/living_learning/beyond_classroom/scgf.aspx</t>
+  </si>
+  <si>
+    <t>Hartwick College</t>
+  </si>
+  <si>
+    <t>Pine Lake Activity Fee</t>
+  </si>
+  <si>
+    <t>Hollins University</t>
+  </si>
+  <si>
+    <t>http://www.hollins.edu/about/sustainability/greenfee.shtml</t>
+  </si>
+  <si>
+    <t>Humboldt State University</t>
+  </si>
+  <si>
+    <t>Student Initiative for Renewable Energy Now (SIREN) Fund</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.drury.edu/sustainabilitycouncil</t>
+  </si>
+  <si>
+    <t>East Tennessee State University</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Fee</t>
+  </si>
+  <si>
+    <t>Eastern University</t>
+  </si>
+  <si>
+    <t>http://www.eastern.edu/centers/sfs/fees.html</t>
+  </si>
+  <si>
+    <t>Eastern Mennonite University</t>
+  </si>
+  <si>
+    <t>Earthkeepers Mini-grants</t>
+  </si>
+  <si>
+    <t>http://www.emu.edu/sustainability/campus/earthkeepers/mini-grant-projects/</t>
+  </si>
+  <si>
+    <t>Clean Energy Grant</t>
+  </si>
+  <si>
+    <t>http://www.evergreen.edu/committee/cleanenergy/grant.htm</t>
+  </si>
+  <si>
+    <t>Associated Students Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.aschico.com/sustain/sfac</t>
+  </si>
+  <si>
+    <t>Central Oregon Community College</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>High Meadows Foundation Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.princeton.edu/sustainability/psc/highmeadows/</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>Rice Endowment for Sustainable Energy Technology (RESET)</t>
+  </si>
+  <si>
+    <t>http://reset.blogs.rice.edu/</t>
+  </si>
+  <si>
+    <t>San Diego State University</t>
+  </si>
+  <si>
+    <t>Enhance, Evolve, Innovate</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>http://as.sdsu.edu/govt/update.html</t>
+  </si>
+  <si>
+    <t>Renewable Energy Resolution</t>
+  </si>
+  <si>
+    <t>Blue Sky renewable energy fee</t>
+  </si>
+  <si>
+    <t>Centre College</t>
+  </si>
+  <si>
+    <t>http://www.centre.edu/sustainable_centre/green_fund.html</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>Student Sustainability Fund</t>
+  </si>
+  <si>
+    <t>~$6.00</t>
+  </si>
+  <si>
+    <t>Coastal Carolina University</t>
+  </si>
+  <si>
+    <t>Colgate University</t>
+  </si>
+  <si>
+    <t>College of Charleston</t>
+  </si>
+  <si>
+    <t>ECOllective Fund</t>
+  </si>
+  <si>
+    <t>http://www.montana.edu/greenasmsu/RecyclingFAQ.html</t>
+  </si>
+  <si>
+    <t>Mount Allison University</t>
+  </si>
+  <si>
+    <t>offset/reduce GHGs</t>
+  </si>
+  <si>
+    <t>http://sac.mta.ca/index.php?option=com_content&amp;view=article&amp;id=240&amp;Itemid=270</t>
+  </si>
+  <si>
+    <t>New College of Florida</t>
+  </si>
+  <si>
+    <t>Sustainability Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.ncf.edu/green</t>
+  </si>
+  <si>
+    <t>Northeastern Illinois University</t>
+  </si>
+  <si>
+    <t>Campus Green Fee</t>
+  </si>
+  <si>
     <t>http://sustainability.cofc.edu/Student%20Sustainability/index.php</t>
   </si>
   <si>
@@ -63,140 +328,124 @@
     <t>Appalachian State University</t>
   </si>
   <si>
-    <t>Renewable Energy Initiative (REI)</t>
-  </si>
-  <si>
-    <t>semester</t>
-  </si>
-  <si>
-    <t>http://rei.appstate.edu/</t>
-  </si>
-  <si>
-    <t>Austin Community College</t>
-  </si>
-  <si>
-    <t>Sustainability Fund</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>http://www.austincc.edu/sustainability/fee.php</t>
-  </si>
-  <si>
-    <t>Austin Peay State University</t>
-  </si>
-  <si>
-    <t>Sustainable Campus Fee</t>
-  </si>
-  <si>
-    <t>http://www.apsu.edu/governance/committees/sustainablefee</t>
-  </si>
-  <si>
-    <t>Bellevue College</t>
-  </si>
-  <si>
-    <t>Student Environmental Sustainability Fund</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>https://depts.bellevuecollege.edu/sustainability/what-you-can-do/student-environmental-sustainability-fund-sesf-2/</t>
-  </si>
-  <si>
-    <t>Bemidji State University</t>
-  </si>
-  <si>
-    <t>Green Fee Mini-Grants</t>
-  </si>
-  <si>
-    <t>Bowling Green State University</t>
-  </si>
-  <si>
-    <t>Student Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>http://www.bgsu.edu/departments/env/page91119.html</t>
-  </si>
-  <si>
-    <t>Brandeis University</t>
-  </si>
-  <si>
-    <t>Brandeis Sustainability Fund</t>
-  </si>
-  <si>
-    <t>annually</t>
-  </si>
-  <si>
-    <t>http://www.brandeis.edu/campussustainability/fund/</t>
-  </si>
-  <si>
-    <t>Green Fund</t>
-  </si>
-  <si>
-    <t>Marshall University</t>
-  </si>
-  <si>
-    <t>Student Green Fee</t>
-  </si>
-  <si>
-    <t>www.marshall.edu/sustainability</t>
-  </si>
-  <si>
-    <t>Massachusetts Institute of Technology</t>
-  </si>
-  <si>
-    <t>Alumni</t>
-  </si>
-  <si>
-    <t>McGill University</t>
-  </si>
-  <si>
-    <t>Sustainability Projects  Fund</t>
-  </si>
-  <si>
-    <t>CA$ 0.50</t>
-  </si>
-  <si>
-    <t>http://www.mcgill.ca/sustainability/spf</t>
-  </si>
-  <si>
-    <t>Mercyhurst College</t>
-  </si>
-  <si>
-    <t>Student Sustainability Fund
-(formerly called the Student Green Energy Fee)</t>
-  </si>
-  <si>
-    <t>trimester</t>
-  </si>
-  <si>
-    <t>Environmental Fee</t>
-  </si>
-  <si>
-    <t>Green Mountain College</t>
-  </si>
-  <si>
-    <t>Student Campus Greening Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.greenmtn.edu/living_learning/beyond_classroom/scgf.aspx</t>
-  </si>
-  <si>
-    <t>Hartwick College</t>
-  </si>
-  <si>
-    <t>Pine Lake Activity Fee</t>
-  </si>
-  <si>
-    <t>Hollins University</t>
-  </si>
-  <si>
-    <t>http://www.hollins.edu/about/sustainability/greenfee.shtml</t>
-  </si>
-  <si>
-    <t>Humboldt State University</t>
+    <t>Renewable Energy and Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://asoc.oxy.edu/asoc/sustainability.htm</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+  </si>
+  <si>
+    <t>Student Sustainability Initiatives Project Grant</t>
+  </si>
+  <si>
+    <t>http://oregonstate.edu/sustainability/ssi/</t>
+  </si>
+  <si>
+    <t>http://oregonstate.edu/sustainability/donate</t>
+  </si>
+  <si>
+    <t>Pacific Lutheran University</t>
+  </si>
+  <si>
+    <t>Green Energy Fund</t>
+  </si>
+  <si>
+    <t>http://www.knox.edu/about-knox/we-are-knox/our-future/sustainability-at-knox-college/student-sustainability-fund.html</t>
+  </si>
+  <si>
+    <t>Lewis &amp; Clark College</t>
+  </si>
+  <si>
+    <t>Green Fee Fund</t>
+  </si>
+  <si>
+    <t>http://www.lclark.edu/about/sustainability/campus/green_fee/</t>
+  </si>
+  <si>
+    <t>http://sustainability.uga.edu/about/funding/</t>
+  </si>
+  <si>
+    <t>University of Guelph</t>
+  </si>
+  <si>
+    <t>Energy Retrofit Fund</t>
+  </si>
+  <si>
+    <t>http://www.pr.uoguelph.ca/sustain/energy/ecwg.htm</t>
+  </si>
+  <si>
+    <t>University of Idaho</t>
+  </si>
+  <si>
+    <t>UI Sustainability Center fee</t>
+  </si>
+  <si>
+    <t>http://www.uidaho.edu/sustainability/uisustainabilitycenter/AbouttheUISC</t>
+  </si>
+  <si>
+    <t>University of Illinois at Chicago</t>
+  </si>
+  <si>
+    <t>Middle Tennessee State University</t>
+  </si>
+  <si>
+    <t>Clean Energy Fee</t>
+  </si>
+  <si>
+    <t>Mississippi State University</t>
+  </si>
+  <si>
+    <t>$5-$100</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.msstate.edu/greenfund/</t>
+  </si>
+  <si>
+    <t>Office of Sustainability</t>
+  </si>
+  <si>
+    <t>Student Green Energy Fund</t>
+  </si>
+  <si>
+    <t>$0.25-$1.00</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Sustainability (green) fee</t>
+  </si>
+  <si>
+    <t>http://www2.gcsu.edu/orgs/student/esc/green_fee_fy10.html</t>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>http://tgif.berkeley.edu/</t>
+  </si>
+  <si>
+    <t>University of California, Irvine</t>
+  </si>
+  <si>
+    <t>http://www.asuci.uci.edu/tgif/</t>
+  </si>
+  <si>
+    <t>University of California, Los Angeles</t>
+  </si>
+  <si>
+    <t>http://tgif.ucla.edu/index.php</t>
+  </si>
+  <si>
+    <t>University of California, Riverside</t>
+  </si>
+  <si>
+    <t>The Green Action Plan Fund</t>
+  </si>
+  <si>
+    <t>http://www.asucr.ucr.edu/gcap.html</t>
   </si>
   <si>
     <t>http://www.humboldt.edu/heif/</t>
@@ -235,133 +484,109 @@
     <t>Sustainability Fee</t>
   </si>
   <si>
-    <t>http://www.drury.edu/sustainabilitycouncil</t>
-  </si>
-  <si>
-    <t>East Tennessee State University</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Fee</t>
-  </si>
-  <si>
-    <t>Eastern University</t>
-  </si>
-  <si>
-    <t>http://www.eastern.edu/centers/sfs/fees.html</t>
-  </si>
-  <si>
-    <t>Eastern Mennonite University</t>
-  </si>
-  <si>
-    <t>Earthkeepers Mini-grants</t>
-  </si>
-  <si>
-    <t>http://www.emu.edu/sustainability/campus/earthkeepers/mini-grant-projects/</t>
-  </si>
-  <si>
-    <t>Clean Energy Grant</t>
-  </si>
-  <si>
-    <t>http://www.evergreen.edu/committee/cleanenergy/grant.htm</t>
-  </si>
-  <si>
-    <t>Associated Students Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.aschico.com/sustain/sfac</t>
-  </si>
-  <si>
-    <t>Central Oregon Community College</t>
-  </si>
-  <si>
-    <t>Princeton University</t>
-  </si>
-  <si>
-    <t>High Meadows Foundation Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.princeton.edu/sustainability/psc/highmeadows/</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>Rice Endowment for Sustainable Energy Technology (RESET)</t>
-  </si>
-  <si>
-    <t>http://reset.blogs.rice.edu/</t>
-  </si>
-  <si>
-    <t>San Diego State University</t>
-  </si>
-  <si>
-    <t>Enhance, Evolve, Innovate</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>http://as.sdsu.edu/govt/update.html</t>
-  </si>
-  <si>
-    <t>Renewable Energy Resolution</t>
-  </si>
-  <si>
-    <t>Blue Sky renewable energy fee</t>
-  </si>
-  <si>
-    <t>Centre College</t>
-  </si>
-  <si>
-    <t>http://www.centre.edu/sustainable_centre/green_fund.html</t>
-  </si>
-  <si>
-    <t>Clark University</t>
-  </si>
-  <si>
-    <t>Student Sustainability Fund</t>
-  </si>
-  <si>
-    <t>~$6.00</t>
-  </si>
-  <si>
-    <t>Coastal Carolina University</t>
-  </si>
-  <si>
-    <t>Colgate University</t>
-  </si>
-  <si>
-    <t>College of Charleston</t>
-  </si>
-  <si>
-    <t>ECOllective Fund</t>
-  </si>
-  <si>
-    <t>http://www.montana.edu/greenasmsu/RecyclingFAQ.html</t>
-  </si>
-  <si>
-    <t>Mount Allison University</t>
-  </si>
-  <si>
-    <t>offset/reduce GHGs</t>
-  </si>
-  <si>
-    <t>http://sac.mta.ca/index.php?option=com_content&amp;view=article&amp;id=240&amp;Itemid=270</t>
-  </si>
-  <si>
-    <t>New College of Florida</t>
-  </si>
-  <si>
-    <t>Sustainability Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.ncf.edu/green</t>
-  </si>
-  <si>
-    <t>Northeastern Illinois University</t>
-  </si>
-  <si>
-    <t>Campus Green Fee</t>
+    <t>http://www.txstate.edu/esc/</t>
+  </si>
+  <si>
+    <t>Union Green Fee Initiative</t>
+  </si>
+  <si>
+    <t>http://www.concordy.com/article/807-u/april-21-2011/unions-green-fee/</t>
+  </si>
+  <si>
+    <t>http://www.uaf.edu/sustainability/rise/</t>
+  </si>
+  <si>
+    <t>http://www.plu.edu/sustainability/Campus%20Groups/Sustainability-Committee.php</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.paulsmiths.edu/sustainability/sustainabilityfund.php</t>
+  </si>
+  <si>
+    <t>Point Loma Nazarene University</t>
+  </si>
+  <si>
+    <t>http://www.pointloma.edu/discover/sustainability/green-fund</t>
+  </si>
+  <si>
+    <t>Portland Community College</t>
+  </si>
+  <si>
+    <t>The Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>Portland State University</t>
+  </si>
+  <si>
+    <t>http://pittgreenfund.com/</t>
+  </si>
+  <si>
+    <t>University of South Florida</t>
+  </si>
+  <si>
+    <t>http://psgs.usf.edu/usf-office-of-sustainability/green-energy-fund/</t>
+  </si>
+  <si>
+    <t>http://www.utc.edu/Administration/Bursar/fees.php</t>
+  </si>
+  <si>
+    <t>Student Environmental Initiatives Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.illinois.edu/ssc/</t>
+  </si>
+  <si>
+    <t>Revolving Loan Program</t>
+  </si>
+  <si>
+    <t>http://sustainability.siu.edu/</t>
+  </si>
+  <si>
+    <t>Southern Oregon University</t>
+  </si>
+  <si>
+    <t>Green Energy Fee</t>
+  </si>
+  <si>
+    <t>http://www.sou.edu/sustainable/</t>
+  </si>
+  <si>
+    <t>St. Mary's College of Maryland</t>
+  </si>
+  <si>
+    <t>Green Energy Allocation Fund</t>
+  </si>
+  <si>
+    <t>http://www.smcm.edu/sustainability/renewablesystems.html</t>
+  </si>
+  <si>
+    <t>ASMSU Student Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.uky.edu/ESF</t>
+  </si>
+  <si>
+    <t>University of Maryland, College Park</t>
+  </si>
+  <si>
+    <t>University Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.umd.edu/content/about/fund.php</t>
+  </si>
+  <si>
+    <t>University of Memphis</t>
+  </si>
+  <si>
+    <t>http://www.memphis.edu/bluegoesgreen/greenfee.php</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Student Sustainability Initiatives Funds</t>
   </si>
   <si>
     <t>http://www.neiu.edu/~greenfee/index.html</t>
@@ -394,124 +619,144 @@
     <t>Occidental College</t>
   </si>
   <si>
-    <t>Renewable Energy and Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://asoc.oxy.edu/asoc/sustainability.htm</t>
-  </si>
-  <si>
-    <t>Oregon State University</t>
-  </si>
-  <si>
-    <t>Student Sustainability Initiatives Project Grant</t>
-  </si>
-  <si>
-    <t>http://oregonstate.edu/sustainability/ssi/</t>
-  </si>
-  <si>
-    <t>http://oregonstate.edu/sustainability/donate</t>
-  </si>
-  <si>
-    <t>Pacific Lutheran University</t>
-  </si>
-  <si>
-    <t>Green Energy Fund</t>
-  </si>
-  <si>
-    <t>http://www.knox.edu/about-knox/we-are-knox/our-future/sustainability-at-knox-college/student-sustainability-fund.html</t>
-  </si>
-  <si>
-    <t>Lewis &amp; Clark College</t>
-  </si>
-  <si>
-    <t>Green Fee Fund</t>
-  </si>
-  <si>
-    <t>http://www.lclark.edu/about/sustainability/campus/green_fee/</t>
-  </si>
-  <si>
-    <t>http://sustainability.uga.edu/about/funding/</t>
-  </si>
-  <si>
-    <t>University of Guelph</t>
-  </si>
-  <si>
-    <t>Energy Retrofit Fund</t>
-  </si>
-  <si>
-    <t>http://www.pr.uoguelph.ca/sustain/energy/ecwg.htm</t>
-  </si>
-  <si>
-    <t>University of Idaho</t>
-  </si>
-  <si>
-    <t>UI Sustainability Center fee</t>
-  </si>
-  <si>
-    <t>http://www.uidaho.edu/sustainability/uisustainabilitycenter/AbouttheUISC</t>
-  </si>
-  <si>
-    <t>University of Illinois at Chicago</t>
-  </si>
-  <si>
-    <t>Middle Tennessee State University</t>
-  </si>
-  <si>
-    <t>Clean Energy Fee</t>
-  </si>
-  <si>
-    <t>Mississippi State University</t>
-  </si>
-  <si>
-    <t>$5-$100</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.msstate.edu/greenfund/</t>
-  </si>
-  <si>
-    <t>Office of Sustainability</t>
-  </si>
-  <si>
-    <t>Student Green Energy Fund</t>
-  </si>
-  <si>
-    <t>$0.25-$1.00</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Sustainability (green) fee</t>
-  </si>
-  <si>
-    <t>http://www2.gcsu.edu/orgs/student/esc/green_fee_fy10.html</t>
-  </si>
-  <si>
-    <t>University of California, Berkeley</t>
-  </si>
-  <si>
-    <t>http://tgif.berkeley.edu/</t>
-  </si>
-  <si>
-    <t>University of California, Irvine</t>
-  </si>
-  <si>
-    <t>http://www.asuci.uci.edu/tgif/</t>
-  </si>
-  <si>
-    <t>University of California, Los Angeles</t>
-  </si>
-  <si>
-    <t>http://tgif.ucla.edu/index.php</t>
-  </si>
-  <si>
-    <t>University of California, Riverside</t>
-  </si>
-  <si>
-    <t>The Green Action Plan Fund</t>
-  </si>
-  <si>
-    <t>http://www.asucr.ucr.edu/gcap.html</t>
+    <t>http://coastalfund.as.ucsb.edu/</t>
+  </si>
+  <si>
+    <t>University of California, Santa Cruz</t>
+  </si>
+  <si>
+    <t>Campus Sustainability Programs Fee</t>
+  </si>
+  <si>
+    <t>http://sua.ucsc.edu/csc/
+http://cscsustainability.weebly.com/index.html</t>
+  </si>
+  <si>
+    <t>Sustainability Office Fee</t>
+  </si>
+  <si>
+    <t>Sustainable Food, Health, and wellness fee</t>
+  </si>
+  <si>
+    <t>Student Health Center Green Building Fee</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>http://www.uccs.edu/~sustain/solar_fee.html</t>
+  </si>
+  <si>
+    <t>Environmental Center</t>
+  </si>
+  <si>
+    <t>http://ecenter.colorado.edu/greening-cu/sustainable-cu</t>
+  </si>
+  <si>
+    <t>Student Bus and Bike Programs</t>
+  </si>
+  <si>
+    <t>Capital Construction Fee</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>http://www.ecohusky.uconn.edu/CSF.html</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>http://www.wlu.ca/homepage.php?grp_id=12304</t>
+  </si>
+  <si>
+    <t>Young Harris College</t>
+  </si>
+  <si>
+    <t>SGA Green Fee</t>
+  </si>
+  <si>
+    <t>http://www.yhc.edu/about/sustainability/green-fee-application</t>
+  </si>
+  <si>
+    <t>Fund Type</t>
+  </si>
+  <si>
+    <t>Donation Source</t>
+  </si>
+  <si>
+    <t>Fund Name</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Year Created</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Fund Size</t>
+  </si>
+  <si>
+    <t>Fund Description</t>
+  </si>
+  <si>
+    <t>Fund Recipients</t>
+  </si>
+  <si>
+    <t>http://www.uic.edu/sustainability/resources/2011.GreenFeeProposal.pdf</t>
+  </si>
+  <si>
+    <t>http://portal.environment.arizona.edu/campus-sustainability/green-fund
+http://www.studentaffairs.arizona.edu/greenfund/apply_details_mini.php</t>
+  </si>
+  <si>
+    <t>AMS Sustainability Fund</t>
+  </si>
+  <si>
+    <t>http://amssustainability.ca/</t>
+  </si>
+  <si>
+    <t>Contact First Name</t>
+  </si>
+  <si>
+    <t>Contact Middle Name</t>
+  </si>
+  <si>
+    <t>Contact Last Name</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Contact Title</t>
+  </si>
+  <si>
+    <t>Contact Phone</t>
+  </si>
+  <si>
+    <t>Contact Department</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Alumni and other donors</t>
+  </si>
+  <si>
+    <t>Resnick Sustainability Institute Fund at Caltech</t>
+  </si>
+  <si>
+    <t>http://environment.utk.edu/fees.html</t>
+  </si>
+  <si>
+    <t>UT- Austin Green Fee</t>
   </si>
   <si>
     <t>University of California, San Diego</t>
@@ -547,113 +792,124 @@
     <t>Environmental Service Fee</t>
   </si>
   <si>
-    <t>http://www.txstate.edu/esc/</t>
-  </si>
-  <si>
-    <t>Union Green Fee Initiative</t>
-  </si>
-  <si>
-    <t>http://www.concordy.com/article/807-u/april-21-2011/unions-green-fee/</t>
-  </si>
-  <si>
-    <t>Student Initiative for Renewable Energy Now 
-(SIREN) Fund</t>
-  </si>
-  <si>
-    <t>http://www.uaf.edu/sustainability/rise/</t>
-  </si>
-  <si>
-    <t>http://www.plu.edu/sustainability/Campus%20Groups/Sustainability-Committee.php</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.paulsmiths.edu/sustainability/sustainabilityfund.php</t>
-  </si>
-  <si>
-    <t>Point Loma Nazarene University</t>
-  </si>
-  <si>
-    <t>http://www.pointloma.edu/discover/sustainability/green-fund</t>
-  </si>
-  <si>
-    <t>Portland Community College</t>
-  </si>
-  <si>
-    <t>The Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>Portland State University</t>
-  </si>
-  <si>
-    <t>http://pittgreenfund.com/</t>
-  </si>
-  <si>
-    <t>University of South Florida</t>
-  </si>
-  <si>
-    <t>http://psgs.usf.edu/usf-office-of-sustainability/green-energy-fund/</t>
-  </si>
-  <si>
-    <t>http://www.utc.edu/Administration/Bursar/fees.php</t>
-  </si>
-  <si>
-    <t>Student Environmental Initiatives Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.illinois.edu/ssc/</t>
-  </si>
-  <si>
-    <t>Revolving Loan Program</t>
-  </si>
-  <si>
-    <t>http://sustainability.siu.edu/</t>
-  </si>
-  <si>
-    <t>Southern Oregon University</t>
-  </si>
-  <si>
-    <t>Green Energy Fee</t>
-  </si>
-  <si>
-    <t>http://www.sou.edu/sustainable/</t>
-  </si>
-  <si>
-    <t>St. Mary's College of Maryland</t>
-  </si>
-  <si>
-    <t>Green Energy Allocation Fund</t>
-  </si>
-  <si>
-    <t>http://www.smcm.edu/sustainability/renewablesystems.html</t>
-  </si>
-  <si>
-    <t>ASMSU Student Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.uky.edu/ESF</t>
-  </si>
-  <si>
-    <t>University of Maryland, College Park</t>
-  </si>
-  <si>
-    <t>University Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.umd.edu/content/about/fund.php</t>
-  </si>
-  <si>
-    <t>University of Memphis</t>
-  </si>
-  <si>
-    <t>http://www.memphis.edu/bluegoesgreen/greenfee.php</t>
-  </si>
-  <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>Student Sustainability Initiatives Funds</t>
+    <t>http://www.utexas.edu/sustainability/greenfee.php</t>
+  </si>
+  <si>
+    <t>http://www.utsa.edu/fiscalservices/TuitionFeeDocs/summaryDescSpring2011.pdf</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Student Campus Initiative Fund (SCIF)</t>
+  </si>
+  <si>
+    <t>http://sustainability.utah.edu/get-involved/students/sustainable-campus-fund%20%20.php</t>
+  </si>
+  <si>
+    <t>Clean Energy Fund</t>
+  </si>
+  <si>
+    <t>http://www.uvm.edu/sustain/cef</t>
+  </si>
+  <si>
+    <t>University of Washington, Seattle</t>
+  </si>
+  <si>
+    <t>http://www.uwec.edu/StudentSenate/commissions/eec/FundingInfo.htm</t>
+  </si>
+  <si>
+    <t>http://www.uwlax.edu/sustainability/html/green-fund.htm</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Platteville</t>
+  </si>
+  <si>
+    <t>Ron Meissen Sustainability Fund</t>
+  </si>
+  <si>
+    <t>University of Wyoming</t>
+  </si>
+  <si>
+    <t>Recycling Student Fee</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>Blue Goes Green Student Grant Program</t>
+  </si>
+  <si>
+    <t>http://sustainability.usu.edu/</t>
+  </si>
+  <si>
+    <t>University of Montevallo</t>
+  </si>
+  <si>
+    <t>The Green Fund</t>
+  </si>
+  <si>
+    <t>http://www.montevallo.edu/sustainability/green%20fund.shtm</t>
+  </si>
+  <si>
+    <t>University of Nevada, Las Vegas</t>
+  </si>
+  <si>
+    <t>Rebel Recycling Fee</t>
+  </si>
+  <si>
+    <t>http://facilities.unlv.edu/recycling/history.html</t>
+  </si>
+  <si>
+    <t>Renewable Energy Fee</t>
+  </si>
+  <si>
+    <t>http://respc.unc.edu/</t>
+  </si>
+  <si>
+    <t>Charlotte Green Initiative Fund</t>
+  </si>
+  <si>
+    <t>http://cgi.uncc.edu/</t>
+  </si>
+  <si>
+    <t>University of North Texas</t>
+  </si>
+  <si>
+    <t>We Mean Green Fund</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>Eco-Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.uoregon.edu/office-sustainability/student-sustainability-fund</t>
+  </si>
+  <si>
+    <t>Pitt Green Fund</t>
+  </si>
+  <si>
+    <t>http://sustainability.illinois.edu/ssc/loans.shtml</t>
+  </si>
+  <si>
+    <t>Renewable Energy and Sustainability Fee</t>
+  </si>
+  <si>
+    <t>http://www.sustainability.ku.edu/SEAB/</t>
+  </si>
+  <si>
+    <t>Environmental Improvement: Recycling Fee</t>
+  </si>
+  <si>
+    <t>http://www.recycle.ku.edu/about_us.shtml</t>
+  </si>
+  <si>
+    <t>University of Kentucky</t>
+  </si>
+  <si>
+    <t>Environmental Stewardship Fee</t>
   </si>
   <si>
     <t>http://environmentalleadership.missouri.edu/about/funding/</t>
@@ -682,266 +938,6 @@
   <si>
     <t>$5.50 UG/
 $3.00 G</t>
-  </si>
-  <si>
-    <t>http://coastalfund.as.ucsb.edu/</t>
-  </si>
-  <si>
-    <t>University of California, Santa Cruz</t>
-  </si>
-  <si>
-    <t>Campus Sustainability Programs Fee</t>
-  </si>
-  <si>
-    <t>http://sua.ucsc.edu/csc/
-http://cscsustainability.weebly.com/index.html</t>
-  </si>
-  <si>
-    <t>Sustainability Office Fee</t>
-  </si>
-  <si>
-    <t>Sustainable Food, Health, and wellness fee</t>
-  </si>
-  <si>
-    <t>Student Health Center Green Building Fee</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>http://www.uccs.edu/~sustain/solar_fee.html</t>
-  </si>
-  <si>
-    <t>Environmental Center</t>
-  </si>
-  <si>
-    <t>http://ecenter.colorado.edu/greening-cu/sustainable-cu</t>
-  </si>
-  <si>
-    <t>Student Bus and Bike Programs</t>
-  </si>
-  <si>
-    <t>Capital Construction Fee</t>
-  </si>
-  <si>
-    <t>University of Connecticut</t>
-  </si>
-  <si>
-    <t>http://www.ecohusky.uconn.edu/CSF.html</t>
-  </si>
-  <si>
-    <t>University of Georgia</t>
-  </si>
-  <si>
-    <t>http://www.wlu.ca/homepage.php?grp_id=12304</t>
-  </si>
-  <si>
-    <t>Young Harris College</t>
-  </si>
-  <si>
-    <t>SGA Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.yhc.edu/about/sustainability/green-fee-application</t>
-  </si>
-  <si>
-    <t>Fund Type</t>
-  </si>
-  <si>
-    <t>Donation Source</t>
-  </si>
-  <si>
-    <t>Fund Name</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Year Created</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>Fund Size</t>
-  </si>
-  <si>
-    <t>Fund Description</t>
-  </si>
-  <si>
-    <t>Fund Recipients</t>
-  </si>
-  <si>
-    <t>http://www.uic.edu/sustainability/resources/2011.GreenFeeProposal.pdf</t>
-  </si>
-  <si>
-    <t>http://portal.environment.arizona.edu/campus-sustainability/green-fund
-http://www.studentaffairs.arizona.edu/greenfund/apply_details_mini.php</t>
-  </si>
-  <si>
-    <t>AMS Sustainability Fund</t>
-  </si>
-  <si>
-    <t>http://amssustainability.ca/</t>
-  </si>
-  <si>
-    <t>Contact First Name</t>
-  </si>
-  <si>
-    <t>Contact Middle Name</t>
-  </si>
-  <si>
-    <t>Contact Last Name</t>
-  </si>
-  <si>
-    <t>Contact Email</t>
-  </si>
-  <si>
-    <t>Contact Title</t>
-  </si>
-  <si>
-    <t>Contact Phone</t>
-  </si>
-  <si>
-    <t>Contact Department</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Donation</t>
-  </si>
-  <si>
-    <t>Alumni and other donors</t>
-  </si>
-  <si>
-    <t>Resnick Sustainability Institute Fund at Caltech</t>
-  </si>
-  <si>
-    <t>http://environment.utk.edu/fees.html</t>
-  </si>
-  <si>
-    <t>UT- Austin Green Fee</t>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/sustainability/greenfee.php</t>
-  </si>
-  <si>
-    <t>http://www.utsa.edu/fiscalservices/TuitionFeeDocs/summaryDescSpring2011.pdf</t>
-  </si>
-  <si>
-    <t>University of Utah</t>
-  </si>
-  <si>
-    <t>Student Campus Initiative Fund (SCIF)</t>
-  </si>
-  <si>
-    <t>http://sustainability.utah.edu/get-involved/students/sustainable-campus-fund%20%20.php</t>
-  </si>
-  <si>
-    <t>Clean Energy Fund</t>
-  </si>
-  <si>
-    <t>http://www.uvm.edu/sustain/cef</t>
-  </si>
-  <si>
-    <t>University of Washington, Seattle</t>
-  </si>
-  <si>
-    <t>http://www.uwec.edu/StudentSenate/commissions/eec/FundingInfo.htm</t>
-  </si>
-  <si>
-    <t>http://www.uwlax.edu/sustainability/html/green-fund.htm</t>
-  </si>
-  <si>
-    <t>University of Wisconsin-Platteville</t>
-  </si>
-  <si>
-    <t>Ron Meissen Sustainability Fund</t>
-  </si>
-  <si>
-    <t>University of Wyoming</t>
-  </si>
-  <si>
-    <t>Recycling Student Fee</t>
-  </si>
-  <si>
-    <t>Utah State University</t>
-  </si>
-  <si>
-    <t>Blue Goes Green Student Grant Program</t>
-  </si>
-  <si>
-    <t>http://sustainability.usu.edu/</t>
-  </si>
-  <si>
-    <t>University of Montevallo</t>
-  </si>
-  <si>
-    <t>The Green Fund</t>
-  </si>
-  <si>
-    <t>http://www.montevallo.edu/sustainability/green%20fund.shtm</t>
-  </si>
-  <si>
-    <t>University of Nevada, Las Vegas</t>
-  </si>
-  <si>
-    <t>Rebel Recycling Fee</t>
-  </si>
-  <si>
-    <t>http://facilities.unlv.edu/recycling/history.html</t>
-  </si>
-  <si>
-    <t>Renewable Energy Fee</t>
-  </si>
-  <si>
-    <t>http://respc.unc.edu/</t>
-  </si>
-  <si>
-    <t>Charlotte Green Initiative Fund</t>
-  </si>
-  <si>
-    <t>http://cgi.uncc.edu/</t>
-  </si>
-  <si>
-    <t>University of North Texas</t>
-  </si>
-  <si>
-    <t>We Mean Green Fund</t>
-  </si>
-  <si>
-    <t>University of Notre Dame</t>
-  </si>
-  <si>
-    <t>Eco-Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.uoregon.edu/office-sustainability/student-sustainability-fund</t>
-  </si>
-  <si>
-    <t>Pitt Green Fund</t>
-  </si>
-  <si>
-    <t>http://sustainability.illinois.edu/ssc/loans.shtml</t>
-  </si>
-  <si>
-    <t>Renewable Energy and Sustainability Fee</t>
-  </si>
-  <si>
-    <t>http://www.sustainability.ku.edu/SEAB/</t>
-  </si>
-  <si>
-    <t>Environmental Improvement: Recycling Fee</t>
-  </si>
-  <si>
-    <t>http://www.recycle.ku.edu/about_us.shtml</t>
-  </si>
-  <si>
-    <t>University of Kentucky</t>
-  </si>
-  <si>
-    <t>Environmental Stewardship Fee</t>
   </si>
   <si>
     <t>The purpose of this grant is threefold: to provide a catalytic infusion of support for core development goals selected by the University, to double the amount of this support to $50 million or more by providing the incentive that other donors must match the annual support from the Miller Foundation, and to create public awareness and excitement about the University’s further development as a leading urban research university. The $25 million Miller grant focuses on PSU’s academic, research, and engagement activities in sustainability.</t>
@@ -2090,9 +2086,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Funds the purchase and installation of green materials, implements green practices, and obtains a U.S. Green Building Council Leadership in Energy and Environmental Design "Silver" certification for the Cowell Student Health Center.</t>
-  </si>
-  <si>
     <t>http://bursar.colorado.edu/tuition-fees/fees-description/student-fees/#</t>
   </si>
   <si>
@@ -2269,6 +2262,13 @@
   </si>
   <si>
     <t>http://studentservices.ucsc.edu/business/student-fees/Student-Health-Center-Green-Building-Fee-Measure-35.pdf</t>
+  </si>
+  <si>
+    <t>Student Sustainability Fund (formerly called the Student Green Energy Fee)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Funds the purchase and installation of green materials, implements green practices, and obtains a U.S. Green Building Council Leadership in Energy and Environmental Design "Silver" certification for the Cowell Student Health Center.</t>
   </si>
 </sst>
 </file>
@@ -3048,11 +3048,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="263478072"/>
-        <c:axId val="263463560"/>
+        <c:axId val="264170472"/>
+        <c:axId val="263791560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263478072"/>
+        <c:axId val="264170472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,13 +3071,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263463560"/>
+        <c:crossAx val="263791560"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263463560"/>
+        <c:axId val="263791560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263478072"/>
+        <c:crossAx val="264170472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3255,11 +3255,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="217511800"/>
-        <c:axId val="217514984"/>
+        <c:axId val="216732680"/>
+        <c:axId val="216735864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217511800"/>
+        <c:axId val="216732680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,13 +3275,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217514984"/>
+        <c:crossAx val="216735864"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217514984"/>
+        <c:axId val="216735864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,7 +3304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217511800"/>
+        <c:crossAx val="216732680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,115 +3717,115 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="17" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" t="s">
         <v>336</v>
-      </c>
-      <c r="F2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" t="s">
         <v>338</v>
       </c>
-      <c r="C3" t="s">
-        <v>339</v>
-      </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>2008</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3">
         <v>25000000</v>
       </c>
       <c r="H3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" t="s">
         <v>305</v>
-      </c>
-      <c r="I3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>2012</v>
@@ -3836,402 +3836,402 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" t="s">
         <v>308</v>
       </c>
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>2012</v>
       </c>
       <c r="F5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G5">
         <v>10000000</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" t="s">
         <v>312</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>313</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>314</v>
-      </c>
-      <c r="F6" t="s">
-        <v>315</v>
       </c>
       <c r="G6">
         <v>10000000</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
         <v>351</v>
-      </c>
-      <c r="D7" t="s">
-        <v>352</v>
       </c>
       <c r="E7">
         <v>2006</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G7">
         <v>1000000</v>
       </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" t="s">
         <v>328</v>
-      </c>
-      <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
         <v>330</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>331</v>
-      </c>
-      <c r="F9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>2003</v>
       </c>
       <c r="F10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>334</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" t="s">
         <v>365</v>
-      </c>
-      <c r="H12" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>2008</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G14">
         <v>100000000</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
         <v>345</v>
       </c>
-      <c r="C16" t="s">
-        <v>346</v>
-      </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" t="s">
         <v>356</v>
-      </c>
-      <c r="D20" t="s">
-        <v>357</v>
       </c>
       <c r="E20">
         <v>2005</v>
       </c>
       <c r="F20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H20" t="s">
         <v>358</v>
-      </c>
-      <c r="H20" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E21">
         <v>2009</v>
       </c>
       <c r="F21" t="s">
+        <v>359</v>
+      </c>
+      <c r="H21" t="s">
         <v>360</v>
-      </c>
-      <c r="H21" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" t="s">
         <v>362</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>363</v>
       </c>
-      <c r="F22" t="s">
-        <v>364</v>
-      </c>
       <c r="H22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" t="s">
         <v>368</v>
       </c>
-      <c r="D23" t="s">
-        <v>321</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>369</v>
-      </c>
-      <c r="H23" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" t="s">
         <v>371</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>372</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>373</v>
-      </c>
-      <c r="H24" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -4249,9 +4249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4269,153 +4269,153 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="I1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="Q1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7">
         <v>2005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I2" t="s">
         <v>423</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7">
         <v>2009</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" t="s">
         <v>448</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>449</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -4423,50 +4423,50 @@
     <row r="4" spans="1:19">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
         <v>2007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7">
         <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" t="s">
         <v>405</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" t="s">
         <v>412</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>413</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -4474,207 +4474,207 @@
     <row r="5" spans="1:19">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
         <v>2009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" t="s">
         <v>414</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="N5" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q5" t="s">
         <v>429</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
         <v>2009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F6" s="7">
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I6" t="s">
         <v>433</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" t="s">
         <v>438</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="S6" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
         <v>2009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7">
         <v>5</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I7" t="s">
         <v>450</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>458</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
         <v>2010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I8" t="s">
         <v>460</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>466</v>
-      </c>
       <c r="Q8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -4682,41 +4682,41 @@
     <row r="9" spans="1:19">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="7">
         <v>2006</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I9" t="s">
         <v>488</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -4726,28 +4726,28 @@
     <row r="10" spans="1:19">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
         <v>2006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7">
         <v>0.25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I10" t="s">
         <v>468</v>
-      </c>
-      <c r="I10" t="s">
-        <v>469</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -4757,7 +4757,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -4765,28 +4765,28 @@
     <row r="11" spans="1:19">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
         <v>2007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I11" t="s">
         <v>471</v>
-      </c>
-      <c r="I11" t="s">
-        <v>472</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -4796,7 +4796,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -4804,87 +4804,87 @@
     <row r="12" spans="1:19">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
         <v>2012</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" t="s">
         <v>473</v>
-      </c>
-      <c r="I12" t="s">
-        <v>474</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" t="s">
+        <v>475</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
         <v>2011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7">
         <v>5</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H13" t="s">
+        <v>481</v>
+      </c>
+      <c r="I13" t="s">
         <v>482</v>
-      </c>
-      <c r="I13" t="s">
-        <v>483</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" t="s">
         <v>486</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>487</v>
       </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -4892,28 +4892,28 @@
     <row r="14" spans="1:19">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7">
         <v>2010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
+        <v>521</v>
+      </c>
+      <c r="I14" t="s">
         <v>522</v>
-      </c>
-      <c r="I14" t="s">
-        <v>523</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -4922,10 +4922,10 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="Q14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -4933,95 +4933,95 @@
     <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
         <v>2012</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7">
         <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
+        <v>495</v>
+      </c>
+      <c r="I15" t="s">
         <v>496</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q15" t="s">
         <v>501</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" s="7">
         <v>2008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
+        <v>503</v>
+      </c>
+      <c r="I16" t="s">
         <v>504</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -5029,25 +5029,25 @@
     <row r="17" spans="1:19">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7">
         <v>2007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7">
         <v>5</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -5062,17 +5062,17 @@
     <row r="18" spans="1:19">
       <c r="A18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D18" s="7">
         <v>2007</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -5082,7 +5082,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -5090,41 +5090,41 @@
     <row r="19" spans="1:19">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D19" s="7">
         <v>2007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
+        <v>514</v>
+      </c>
+      <c r="I19" t="s">
         <v>515</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -5134,44 +5134,44 @@
     <row r="20" spans="1:19">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D20" s="7">
         <v>2004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F20" s="7">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
+        <v>523</v>
+      </c>
+      <c r="I20" t="s">
+        <v>482</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="I20" t="s">
-        <v>483</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="P20" s="7"/>
       <c r="R20" s="7"/>
@@ -5180,43 +5180,43 @@
     <row r="21" spans="1:19">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
         <v>2008</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>530</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>531</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -5224,45 +5224,45 @@
     <row r="22" spans="1:19">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="D22" s="7">
         <v>2009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
+        <v>535</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -5270,78 +5270,78 @@
     <row r="23" spans="1:19">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7">
         <v>2008</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7">
         <v>5</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
+        <v>543</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" t="s">
         <v>550</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
         <v>2006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F24" s="7">
         <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -5351,7 +5351,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -5359,22 +5359,22 @@
     <row r="25" spans="1:19">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7">
         <v>2009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -5384,7 +5384,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -5392,34 +5392,34 @@
     <row r="26" spans="1:19">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D26" s="7">
         <v>2005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
+        <v>557</v>
+      </c>
+      <c r="I26" t="s">
         <v>558</v>
-      </c>
-      <c r="I26" t="s">
-        <v>559</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -5430,22 +5430,22 @@
     <row r="27" spans="1:19">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D27" s="7">
         <v>2012</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -5455,107 +5455,107 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" t="s">
+        <v>561</v>
+      </c>
+      <c r="R27" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D28" s="7">
         <v>2010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F28" s="7">
         <v>5</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
+        <v>564</v>
+      </c>
+      <c r="I28" t="s">
         <v>565</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="N28" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q28" t="s">
         <v>571</v>
       </c>
-      <c r="Q28" t="s">
-        <v>572</v>
-      </c>
       <c r="R28" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="S28" s="7"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7">
         <v>2005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F29" s="7">
         <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
+        <v>572</v>
+      </c>
+      <c r="I29" t="s">
         <v>573</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="N29" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -5563,81 +5563,81 @@
     <row r="30" spans="1:19">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7">
         <v>2004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F30" s="7">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" t="s">
+        <v>579</v>
+      </c>
+      <c r="R30" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="S30" s="7"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D31" s="7">
         <v>2009</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
+        <v>581</v>
+      </c>
+      <c r="I31" t="s">
         <v>582</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="P31" s="7"/>
       <c r="R31" s="7"/>
@@ -5646,25 +5646,25 @@
     <row r="32" spans="1:19">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7">
         <v>2007</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -5679,47 +5679,47 @@
     <row r="33" spans="1:19">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="D33" s="7">
         <v>2010</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
+        <v>591</v>
+      </c>
+      <c r="I33" t="s">
         <v>592</v>
       </c>
-      <c r="I33" t="s">
-        <v>593</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="N33" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -5727,48 +5727,48 @@
     <row r="34" spans="1:19">
       <c r="A34" s="7"/>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D34" s="7">
         <v>2008</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
+        <v>598</v>
+      </c>
+      <c r="I34" t="s">
         <v>599</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q34" t="s">
         <v>605</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>606</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -5776,50 +5776,50 @@
     <row r="35" spans="1:19">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D35" s="7">
         <v>2010</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F35" s="7">
         <v>85</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H35" t="s">
+        <v>606</v>
+      </c>
+      <c r="I35" t="s">
         <v>607</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="M35" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="N35" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="O35" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q35" t="s">
         <v>613</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>614</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -5827,50 +5827,50 @@
     <row r="36" spans="1:19">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D36" s="7">
         <v>2009</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F36" s="7">
         <v>5</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
+        <v>614</v>
+      </c>
+      <c r="I36" t="s">
         <v>615</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="N36" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -5878,28 +5878,28 @@
     <row r="37" spans="1:19">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D37" s="7">
         <v>2009</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
+        <v>622</v>
+      </c>
+      <c r="I37" t="s">
         <v>623</v>
-      </c>
-      <c r="I37" t="s">
-        <v>624</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -5908,54 +5908,54 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q37" t="s">
         <v>625</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>726</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7">
         <v>2007</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F38" s="7">
         <v>5</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
+        <v>629</v>
+      </c>
+      <c r="I38" t="s">
         <v>630</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="N38" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -5965,22 +5965,22 @@
     <row r="39" spans="1:19">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D39" s="7">
         <v>2002</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F39" s="7">
         <v>0.09</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -5995,19 +5995,19 @@
     <row r="40" spans="1:19">
       <c r="A40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="7">
         <v>2004</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F40" s="7">
         <v>2</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -6017,7 +6017,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -6025,99 +6025,99 @@
     <row r="41" spans="1:19">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D41" s="7">
         <v>2006</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F41" s="7">
         <v>8</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
+        <v>639</v>
+      </c>
+      <c r="I41" t="s">
         <v>640</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" t="s">
+        <v>645</v>
+      </c>
+      <c r="R41" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="S41" s="7"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D42" s="7">
         <v>2004</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F42" s="7">
         <v>5</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
+        <v>653</v>
+      </c>
+      <c r="I42" t="s">
         <v>654</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="N42" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" t="s">
         <v>660</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>661</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -6125,22 +6125,22 @@
     <row r="43" spans="1:19">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D43" s="7">
         <v>2012</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -6155,22 +6155,22 @@
     <row r="44" spans="1:19">
       <c r="A44" s="7"/>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D44" s="7">
         <v>2009</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F44" s="7">
         <v>3.5</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -6185,22 +6185,22 @@
     <row r="45" spans="1:19">
       <c r="A45" s="7"/>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D45" s="7">
         <v>2009</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -6215,22 +6215,22 @@
     <row r="46" spans="1:19">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D46" s="7">
         <v>2011</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -6245,22 +6245,22 @@
     <row r="47" spans="1:19">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D47" s="7">
         <v>2007</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="F47" s="7">
         <v>3</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -6275,22 +6275,22 @@
     <row r="48" spans="1:19">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="D48" s="7">
         <v>2010</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="F48" s="7">
         <v>5</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -6305,22 +6305,22 @@
     <row r="49" spans="1:19">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="D49" s="7">
         <v>2000</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F49" s="7">
         <v>40</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -6335,22 +6335,22 @@
     <row r="50" spans="1:19">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="D50" s="7">
         <v>2008</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="F50" s="7">
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -6365,22 +6365,22 @@
     <row r="51" spans="1:19">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="D51" s="7">
         <v>2007</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F51" s="7">
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -6395,22 +6395,22 @@
     <row r="52" spans="1:19">
       <c r="A52" s="7"/>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D52" s="7">
         <v>2007</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F52" s="7">
         <v>8.5</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -6425,22 +6425,22 @@
     <row r="53" spans="1:19">
       <c r="A53" s="7"/>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D53" s="7">
         <v>2007</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F53" s="7">
         <v>20</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -6455,22 +6455,22 @@
     <row r="54" spans="1:19">
       <c r="A54" s="7"/>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D54" s="7">
         <v>2009</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F54" s="7">
         <v>26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -6485,22 +6485,22 @@
     <row r="55" spans="1:19">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D55" s="7">
         <v>2009</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F55" s="7">
         <v>5</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6515,22 +6515,22 @@
     <row r="56" spans="1:19">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D56" s="7">
         <v>2009</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F56" s="7">
         <v>0.1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -6545,22 +6545,22 @@
     <row r="57" spans="1:19">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D57" s="7">
         <v>2010</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F57" s="7">
         <v>9</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -6575,25 +6575,25 @@
     <row r="58" spans="1:19">
       <c r="A58" s="7"/>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D58" s="7">
         <v>2008</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -6603,22 +6603,22 @@
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" t="s">
+        <v>662</v>
+      </c>
+      <c r="R58" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="R58" s="7" t="s">
+      <c r="S58" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="S58" s="7" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D59" s="7">
         <v>2004</v>
@@ -6628,7 +6628,7 @@
         <v>45</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -6638,32 +6638,32 @@
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" t="s">
+        <v>665</v>
+      </c>
+      <c r="R59" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="S59" s="7"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="7"/>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D60" s="7">
         <v>2009</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F60" s="7">
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -6678,22 +6678,22 @@
     <row r="61" spans="1:19">
       <c r="A61" s="7"/>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D61" s="7">
         <v>2007</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F61" s="7">
         <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -6708,22 +6708,22 @@
     <row r="62" spans="1:19">
       <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D62" s="7">
         <v>2007</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F62" s="7">
         <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -6738,28 +6738,28 @@
     <row r="63" spans="1:19">
       <c r="A63" s="7"/>
       <c r="B63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D63" s="7">
         <v>2010</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
+        <v>671</v>
+      </c>
+      <c r="I63" t="s">
         <v>672</v>
-      </c>
-      <c r="I63" t="s">
-        <v>673</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -6774,22 +6774,22 @@
     <row r="64" spans="1:19">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D64" s="7">
         <v>2011</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="F64" s="7">
         <v>3</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -6804,22 +6804,22 @@
     <row r="65" spans="1:19">
       <c r="A65" s="7"/>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="D65" s="7">
         <v>2005</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="F65" s="7">
         <v>8</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -6834,22 +6834,22 @@
     <row r="66" spans="1:19">
       <c r="A66" s="7"/>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="D66" s="7">
         <v>2010</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="F66" s="7">
         <v>3</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -6864,22 +6864,22 @@
     <row r="67" spans="1:19">
       <c r="A67" s="7"/>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D67" s="7">
         <v>2004</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F67" s="7">
         <v>2</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -6894,22 +6894,22 @@
     <row r="68" spans="1:19">
       <c r="A68" s="7"/>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D68" s="7">
         <v>2011</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F68" s="7">
         <v>10</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -6924,22 +6924,22 @@
     <row r="69" spans="1:19">
       <c r="A69" s="7"/>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D69" s="7">
         <v>2009</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F69" s="7">
         <v>20</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -6954,22 +6954,22 @@
     <row r="70" spans="1:19">
       <c r="A70" s="7"/>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D70" s="7">
         <v>2010</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F70" s="7">
         <v>24</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -6984,22 +6984,22 @@
     <row r="71" spans="1:19">
       <c r="A71" s="7"/>
       <c r="B71" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D71" s="7">
         <v>2011</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -7014,22 +7014,22 @@
     <row r="72" spans="1:19">
       <c r="A72" s="7"/>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D72" s="7">
         <v>2007</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F72" s="7">
         <v>5.5</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -7044,22 +7044,22 @@
     <row r="73" spans="1:19">
       <c r="A73" s="7"/>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D73" s="7">
         <v>2009</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F73" s="7">
         <v>3.5</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -7074,22 +7074,22 @@
     <row r="74" spans="1:19">
       <c r="A74" s="7"/>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D74" s="7">
         <v>2008</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F74" s="7">
         <v>4</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -7104,22 +7104,22 @@
     <row r="75" spans="1:19">
       <c r="A75" s="7"/>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D75" s="7">
         <v>2010</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F75" s="7">
         <v>2.5</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -7134,22 +7134,22 @@
     <row r="76" spans="1:19">
       <c r="A76" s="7"/>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D76" s="7">
         <v>2009</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="F76" s="7">
         <v>6</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -7164,22 +7164,22 @@
     <row r="77" spans="1:19">
       <c r="A77" s="7"/>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="D77" s="7">
         <v>2006</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="F77" s="7">
         <v>2.6</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -7194,22 +7194,22 @@
     <row r="78" spans="1:19">
       <c r="A78" s="7"/>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="D78" s="7">
         <v>1999</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -7224,25 +7224,25 @@
     <row r="79" spans="1:19">
       <c r="A79" s="7"/>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D79" s="7">
         <v>2003</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F79" s="7">
         <v>6</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -7252,32 +7252,32 @@
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" t="s">
+        <v>648</v>
+      </c>
+      <c r="R79" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="R79" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="S79" s="7"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="7"/>
       <c r="B80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D80" s="7">
         <v>2006</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F80" s="7">
         <v>3</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -7292,25 +7292,25 @@
     <row r="81" spans="1:19">
       <c r="A81" s="7"/>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D81" s="7">
         <v>2010</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F81" s="7">
         <v>2.75</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -7325,25 +7325,25 @@
     <row r="82" spans="1:19">
       <c r="A82" s="7"/>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D82" s="7">
         <v>2010</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F82" s="7">
         <v>3.75</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -7358,25 +7358,25 @@
     <row r="83" spans="1:19">
       <c r="A83" s="7"/>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D83" s="7">
         <v>2010</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F83" s="7">
         <v>5.2</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -7391,22 +7391,22 @@
     <row r="84" spans="1:19">
       <c r="A84" s="7"/>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D84" s="7">
         <v>2008</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F84" s="7">
         <v>5</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -7421,22 +7421,22 @@
     <row r="85" spans="1:19">
       <c r="A85" s="7"/>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D85" s="7">
         <v>1973</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F85" s="7">
         <v>18.93</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -7451,10 +7451,10 @@
     <row r="86" spans="1:19">
       <c r="A86" s="7"/>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D86" s="7">
         <v>1991</v>
@@ -7464,7 +7464,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -7474,7 +7474,7 @@
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
       <c r="Q86" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
@@ -7482,10 +7482,10 @@
     <row r="87" spans="1:19">
       <c r="A87" s="7"/>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D87" s="7">
         <v>2004</v>
@@ -7495,7 +7495,7 @@
         <v>170</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -7510,10 +7510,10 @@
     <row r="88" spans="1:19">
       <c r="A88" s="7"/>
       <c r="B88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D88" s="7">
         <v>2005</v>
@@ -7523,7 +7523,7 @@
         <v>2.8</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
@@ -7538,22 +7538,22 @@
     <row r="89" spans="1:19">
       <c r="A89" s="7"/>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D89" s="7">
         <v>2010</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F89" s="7">
         <v>3</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -7568,22 +7568,22 @@
     <row r="90" spans="1:19">
       <c r="A90" s="7"/>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D90" s="7">
         <v>2007</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -7598,22 +7598,22 @@
     <row r="91" spans="1:19">
       <c r="A91" s="7"/>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D91" s="7">
         <v>2006</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F91" s="7">
         <v>5</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -7628,22 +7628,22 @@
     <row r="92" spans="1:19">
       <c r="A92" s="7"/>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D92" s="7">
         <v>2012</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F92" s="7">
         <v>4</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -7658,22 +7658,22 @@
     <row r="93" spans="1:19">
       <c r="A93" s="7"/>
       <c r="B93" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D93" s="7">
         <v>2003</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F93" s="7">
         <v>2</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -7683,7 +7683,7 @@
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
@@ -7691,22 +7691,22 @@
     <row r="94" spans="1:19">
       <c r="A94" s="7"/>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D94" s="7">
         <v>2009</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -7721,10 +7721,10 @@
     <row r="95" spans="1:19">
       <c r="A95" s="7"/>
       <c r="B95" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D95" s="7">
         <v>2007</v>
@@ -7734,7 +7734,7 @@
         <v>14</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -7749,22 +7749,22 @@
     <row r="96" spans="1:19">
       <c r="A96" s="7"/>
       <c r="B96" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D96" s="7">
         <v>1997</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F96" s="7">
         <v>0.25</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -7779,22 +7779,22 @@
     <row r="97" spans="1:19">
       <c r="A97" s="7"/>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D97" s="7">
         <v>2007</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F97" s="7">
         <v>4</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -7809,22 +7809,22 @@
     <row r="98" spans="1:19">
       <c r="A98" s="7"/>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D98" s="7">
         <v>2009</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F98" s="7">
         <v>3</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -7839,22 +7839,22 @@
     <row r="99" spans="1:19">
       <c r="A99" s="7"/>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D99" s="7">
         <v>2007</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F99" s="7">
         <v>12</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -7869,22 +7869,22 @@
     <row r="100" spans="1:19">
       <c r="A100" s="7"/>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D100" s="7">
         <v>2007</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="F100" s="7">
         <v>10</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -7899,22 +7899,22 @@
     <row r="101" spans="1:19">
       <c r="A101" s="7"/>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D101" s="7">
         <v>2009</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -7929,22 +7929,22 @@
     <row r="102" spans="1:19">
       <c r="A102" s="7"/>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="D102" s="7">
         <v>2009</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F102" s="7">
         <v>4</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -7954,32 +7954,32 @@
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
       <c r="Q102" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S102" s="7"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="7"/>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="D103" s="7">
         <v>2010</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="F103" s="7">
         <v>4</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -7994,22 +7994,22 @@
     <row r="104" spans="1:19">
       <c r="A104" s="7"/>
       <c r="B104" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D104" s="7">
         <v>2011</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F104" s="7">
         <v>5</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -8024,22 +8024,22 @@
     <row r="105" spans="1:19">
       <c r="A105" s="7"/>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D105" s="7">
         <v>1995</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F105" s="7">
         <v>1</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -8054,22 +8054,22 @@
     <row r="106" spans="1:19">
       <c r="A106" s="7"/>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D106" s="7">
         <v>2004</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F106" s="7">
         <v>4</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -8084,22 +8084,22 @@
     <row r="107" spans="1:19">
       <c r="A107" s="7"/>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D107" s="7">
         <v>2007</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F107" s="7">
         <v>2</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -8114,25 +8114,25 @@
     <row r="108" spans="1:19">
       <c r="A108" s="7"/>
       <c r="B108" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D108" s="7">
         <v>2010</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F108" s="7">
         <v>5</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -8147,22 +8147,22 @@
     <row r="109" spans="1:19">
       <c r="A109" s="7"/>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D109" s="7">
         <v>2004</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F109" s="7">
         <v>2</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -8177,22 +8177,22 @@
     <row r="110" spans="1:19">
       <c r="A110" s="7"/>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D110" s="7">
         <v>2010</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F110" s="7">
         <v>5</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -8207,22 +8207,22 @@
     <row r="111" spans="1:19">
       <c r="A111" s="7"/>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D111" s="7">
         <v>2011</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -8237,22 +8237,22 @@
     <row r="112" spans="1:19">
       <c r="A112" s="7"/>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D112" s="7">
         <v>2007</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F112" s="7">
         <v>10</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -8267,22 +8267,22 @@
     <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D113" s="7">
         <v>2005</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F113" s="7">
         <v>16</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -8297,22 +8297,22 @@
     <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D114" s="7">
         <v>2010</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F114" s="7">
         <v>5</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -8327,22 +8327,22 @@
     <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D115" s="7">
         <v>2010</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F115" s="7">
         <v>5</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -8357,25 +8357,25 @@
     <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D116" s="7">
         <v>2010</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F116" s="7">
         <v>3</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -8390,22 +8390,22 @@
     <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D117" s="7">
         <v>2009</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F117" s="7">
         <v>2.5</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -8420,22 +8420,22 @@
     <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D118" s="7">
         <v>2008</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F118" s="7">
         <v>10</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -8450,22 +8450,22 @@
     <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D119" s="7">
         <v>2010</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F119" s="7">
         <v>5</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -8475,7 +8475,7 @@
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
       <c r="Q119" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
@@ -8483,22 +8483,22 @@
     <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D120" s="7">
         <v>2009</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F120" s="7">
         <v>10</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -8513,10 +8513,10 @@
     <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D121" s="7">
         <v>2005</v>
@@ -8526,7 +8526,7 @@
         <v>3.38</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -8536,32 +8536,32 @@
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
       <c r="Q121" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S121" s="7"/>
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D122" s="7">
         <v>2008</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F122" s="7">
         <v>5</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -8576,10 +8576,10 @@
     <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D123" s="7">
         <v>2009</v>
@@ -8589,7 +8589,7 @@
         <v>8</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -8599,32 +8599,32 @@
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
       <c r="Q123" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="R123" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="S123" s="7"/>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D124" s="7">
         <v>2011</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F124" s="7">
         <v>3</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -8639,7 +8639,7 @@
     <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D125" s="7">
         <v>2006</v>
@@ -8649,7 +8649,7 @@
         <v>11</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -8659,32 +8659,32 @@
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
       <c r="Q125" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="R125" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S125" s="7"/>
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D126" s="7">
         <v>2011</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F126" s="7">
         <v>5</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -8699,22 +8699,22 @@
     <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" s="7">
         <v>2009</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F127" s="7">
         <v>5</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -8729,22 +8729,22 @@
     <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D128" s="7">
         <v>2010</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F128" s="7">
         <v>8</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -8759,22 +8759,22 @@
     <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D129" s="7">
         <v>2010</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F129" s="7">
         <v>4.5</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -8789,22 +8789,22 @@
     <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D130" s="7">
         <v>2005</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F130" s="7">
         <v>21</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -8819,22 +8819,22 @@
     <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D131" s="7">
         <v>2007</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -8849,22 +8849,22 @@
     <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D132" s="7">
         <v>2011</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F132" s="7">
         <v>5</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -8900,14 +8900,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="21" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13">
@@ -10393,15 +10393,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B2" t="e">
         <f>COUNTIF(#REF!,"Public")</f>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B3" t="e">
         <f>COUNTIF(#REF!,"Private not-for-profit")</f>
@@ -10442,6 +10442,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
